--- a/TrainersSchoolingSystem/App_Data/uploads/Template.xlsx
+++ b/TrainersSchoolingSystem/App_Data/uploads/Template.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D39EDE4-61C7-4BBC-8C36-551A12CAEB8A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28C0F69A-E88A-4078-97DA-65EA56054A08}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Designations" sheetId="1" r:id="rId1"/>
@@ -2349,7 +2349,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
@@ -2564,7 +2564,7 @@
   <dimension ref="A1:P83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:C16"/>
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3400,8 +3400,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{821090AC-0EFF-46BC-8676-16B3DD222A59}">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3434,7 +3434,7 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -3448,7 +3448,7 @@
         <v>2</v>
       </c>
       <c r="D3">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -3462,7 +3462,7 @@
         <v>3</v>
       </c>
       <c r="D4">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -3476,7 +3476,7 @@
         <v>4</v>
       </c>
       <c r="D5">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -3490,7 +3490,7 @@
         <v>5</v>
       </c>
       <c r="D6">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -3504,7 +3504,7 @@
         <v>6</v>
       </c>
       <c r="D7">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -3518,7 +3518,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -3532,7 +3532,7 @@
         <v>8</v>
       </c>
       <c r="D9">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -3546,7 +3546,7 @@
         <v>9</v>
       </c>
       <c r="D10">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -3560,7 +3560,7 @@
         <v>10</v>
       </c>
       <c r="D11">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -3574,7 +3574,7 @@
         <v>11</v>
       </c>
       <c r="D12">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -3588,7 +3588,7 @@
         <v>12</v>
       </c>
       <c r="D13">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -3602,7 +3602,7 @@
         <v>13</v>
       </c>
       <c r="D14">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/TrainersSchoolingSystem/App_Data/uploads/Template.xlsx
+++ b/TrainersSchoolingSystem/App_Data/uploads/Template.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48BC9BFA-2D7F-41D0-9883-7D69ED4075B5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DCA89E9-FB54-4631-9CD7-69F8F5E80BA1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="709" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="709" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Designations" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1430" uniqueCount="485">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1355" uniqueCount="484">
   <si>
     <t>Designation</t>
   </si>
@@ -1522,9 +1522,6 @@
   </si>
   <si>
     <t>12345-1234561-8</t>
-  </si>
-  <si>
-    <t>Huda Qureshi</t>
   </si>
 </sst>
 </file>
@@ -1667,26 +1664,14 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
@@ -1696,6 +1681,18 @@
     </xf>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="3" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -2301,64 +2298,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="I1" s="15" t="s">
+      <c r="I1" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
-      <c r="O1" s="15"/>
-      <c r="P1" s="15"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="22"/>
+      <c r="P1" s="22"/>
     </row>
     <row r="2" spans="1:18" ht="21" x14ac:dyDescent="0.25">
-      <c r="I2" s="16" t="s">
+      <c r="I2" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
-      <c r="N2" s="16"/>
-      <c r="O2" s="16"/>
-      <c r="P2" s="16"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="23"/>
+      <c r="N2" s="23"/>
+      <c r="O2" s="23"/>
+      <c r="P2" s="23"/>
     </row>
     <row r="3" spans="1:18" ht="15" x14ac:dyDescent="0.25"/>
     <row r="4" spans="1:18" ht="15" x14ac:dyDescent="0.25"/>
     <row r="5" spans="1:18" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="B5" s="17"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="17"/>
-      <c r="M5" s="17"/>
-      <c r="N5" s="17"/>
-      <c r="O5" s="17"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="20"/>
+      <c r="K5" s="20"/>
+      <c r="L5" s="20"/>
+      <c r="M5" s="20"/>
+      <c r="N5" s="20"/>
+      <c r="O5" s="20"/>
     </row>
     <row r="6" spans="1:18" ht="15" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="B7" s="14"/>
-      <c r="C7" s="14"/>
-      <c r="E7" s="14" t="s">
+      <c r="B7" s="21"/>
+      <c r="C7" s="21"/>
+      <c r="E7" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
       <c r="J7" s="2" t="s">
         <v>52</v>
       </c>
@@ -2368,30 +2365,30 @@
       <c r="L7" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="N7" s="14" t="s">
+      <c r="N7" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="O7" s="14"/>
-      <c r="Q7" s="14" t="s">
+      <c r="O7" s="21"/>
+      <c r="Q7" s="21" t="s">
         <v>466</v>
       </c>
-      <c r="R7" s="14"/>
+      <c r="R7" s="21"/>
     </row>
     <row r="8" spans="1:18" ht="15" x14ac:dyDescent="0.25"/>
     <row r="9" spans="1:18" ht="15" x14ac:dyDescent="0.25"/>
     <row r="10" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="18">
+      <c r="A10" s="15">
         <v>1</v>
       </c>
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
-      <c r="E10" s="19" t="s">
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
+      <c r="E10" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="19"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
       <c r="J10" s="3" t="s">
         <v>26</v>
       </c>
@@ -2411,18 +2408,18 @@
     <row r="11" spans="1:18" ht="15" x14ac:dyDescent="0.25"/>
     <row r="12" spans="1:18" ht="15" x14ac:dyDescent="0.25"/>
     <row r="13" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="18">
+      <c r="A13" s="15">
         <v>2</v>
       </c>
-      <c r="B13" s="18"/>
-      <c r="C13" s="18"/>
-      <c r="E13" s="19" t="s">
+      <c r="B13" s="15"/>
+      <c r="C13" s="15"/>
+      <c r="E13" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="19"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
       <c r="J13" s="3" t="s">
         <v>27</v>
       </c>
@@ -2442,18 +2439,18 @@
     <row r="14" spans="1:18" ht="15" x14ac:dyDescent="0.25"/>
     <row r="15" spans="1:18" ht="15" x14ac:dyDescent="0.25"/>
     <row r="16" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="18">
+      <c r="A16" s="15">
         <v>3</v>
       </c>
-      <c r="B16" s="18"/>
-      <c r="C16" s="18"/>
-      <c r="E16" s="19" t="s">
+      <c r="B16" s="15"/>
+      <c r="C16" s="15"/>
+      <c r="E16" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="F16" s="19"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
       <c r="J16" s="3" t="s">
         <v>27</v>
       </c>
@@ -2474,38 +2471,38 @@
     <row r="18" spans="1:18" ht="15" x14ac:dyDescent="0.25"/>
     <row r="19" spans="1:18" ht="15" x14ac:dyDescent="0.25"/>
     <row r="20" spans="1:18" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="17" t="s">
+      <c r="A20" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="B20" s="17"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="17"/>
-      <c r="J20" s="17"/>
-      <c r="K20" s="17"/>
-      <c r="L20" s="17"/>
-      <c r="M20" s="17"/>
-      <c r="N20" s="17"/>
-      <c r="O20" s="17"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="20"/>
+      <c r="K20" s="20"/>
+      <c r="L20" s="20"/>
+      <c r="M20" s="20"/>
+      <c r="N20" s="20"/>
+      <c r="O20" s="20"/>
     </row>
     <row r="21" spans="1:18" ht="15" x14ac:dyDescent="0.25"/>
     <row r="22" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="14" t="s">
+      <c r="A22" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="B22" s="14"/>
-      <c r="C22" s="14"/>
-      <c r="E22" s="14" t="s">
+      <c r="B22" s="21"/>
+      <c r="C22" s="21"/>
+      <c r="E22" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14"/>
-      <c r="H22" s="14"/>
-      <c r="I22" s="14"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="21"/>
+      <c r="I22" s="21"/>
       <c r="J22" s="2" t="s">
         <v>52</v>
       </c>
@@ -2515,30 +2512,30 @@
       <c r="L22" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="N22" s="14" t="s">
+      <c r="N22" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="O22" s="14"/>
-      <c r="Q22" s="14" t="s">
+      <c r="O22" s="21"/>
+      <c r="Q22" s="21" t="s">
         <v>466</v>
       </c>
-      <c r="R22" s="14"/>
+      <c r="R22" s="21"/>
     </row>
     <row r="23" spans="1:18" ht="15" x14ac:dyDescent="0.25"/>
     <row r="24" spans="1:18" ht="15" x14ac:dyDescent="0.25"/>
     <row r="25" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="18">
+      <c r="A25" s="15">
         <v>4</v>
       </c>
-      <c r="B25" s="18"/>
-      <c r="C25" s="18"/>
-      <c r="E25" s="19" t="s">
+      <c r="B25" s="15"/>
+      <c r="C25" s="15"/>
+      <c r="E25" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="F25" s="19"/>
-      <c r="G25" s="19"/>
-      <c r="H25" s="19"/>
-      <c r="I25" s="19"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="16"/>
+      <c r="I25" s="16"/>
       <c r="J25" s="3" t="s">
         <v>64</v>
       </c>
@@ -2558,18 +2555,18 @@
     <row r="26" spans="1:18" ht="15" x14ac:dyDescent="0.25"/>
     <row r="27" spans="1:18" ht="15" x14ac:dyDescent="0.25"/>
     <row r="28" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="18">
+      <c r="A28" s="15">
         <v>5</v>
       </c>
-      <c r="B28" s="18"/>
-      <c r="C28" s="18"/>
-      <c r="E28" s="19" t="s">
+      <c r="B28" s="15"/>
+      <c r="C28" s="15"/>
+      <c r="E28" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="F28" s="19"/>
-      <c r="G28" s="19"/>
-      <c r="H28" s="19"/>
-      <c r="I28" s="19"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="16"/>
+      <c r="H28" s="16"/>
+      <c r="I28" s="16"/>
       <c r="J28" s="3" t="s">
         <v>30</v>
       </c>
@@ -2589,18 +2586,18 @@
     <row r="29" spans="1:18" ht="15" x14ac:dyDescent="0.25"/>
     <row r="30" spans="1:18" ht="15" x14ac:dyDescent="0.25"/>
     <row r="31" spans="1:18" ht="15" x14ac:dyDescent="0.25">
-      <c r="A31" s="18">
+      <c r="A31" s="15">
         <v>6</v>
       </c>
-      <c r="B31" s="18"/>
-      <c r="C31" s="18"/>
-      <c r="E31" s="19" t="s">
+      <c r="B31" s="15"/>
+      <c r="C31" s="15"/>
+      <c r="E31" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="F31" s="19"/>
-      <c r="G31" s="19"/>
-      <c r="H31" s="19"/>
-      <c r="I31" s="19"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="16"/>
+      <c r="H31" s="16"/>
+      <c r="I31" s="16"/>
       <c r="J31" s="3" t="s">
         <v>69</v>
       </c>
@@ -2621,38 +2618,38 @@
     <row r="33" spans="1:18" ht="15" x14ac:dyDescent="0.25"/>
     <row r="34" spans="1:18" ht="15" x14ac:dyDescent="0.25"/>
     <row r="35" spans="1:18" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="17" t="s">
+      <c r="A35" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="B35" s="17"/>
-      <c r="C35" s="17"/>
-      <c r="D35" s="17"/>
-      <c r="E35" s="17"/>
-      <c r="F35" s="17"/>
-      <c r="G35" s="17"/>
-      <c r="H35" s="17"/>
-      <c r="I35" s="17"/>
-      <c r="J35" s="17"/>
-      <c r="K35" s="17"/>
-      <c r="L35" s="17"/>
-      <c r="M35" s="17"/>
-      <c r="N35" s="17"/>
-      <c r="O35" s="17"/>
+      <c r="B35" s="20"/>
+      <c r="C35" s="20"/>
+      <c r="D35" s="20"/>
+      <c r="E35" s="20"/>
+      <c r="F35" s="20"/>
+      <c r="G35" s="20"/>
+      <c r="H35" s="20"/>
+      <c r="I35" s="20"/>
+      <c r="J35" s="20"/>
+      <c r="K35" s="20"/>
+      <c r="L35" s="20"/>
+      <c r="M35" s="20"/>
+      <c r="N35" s="20"/>
+      <c r="O35" s="20"/>
     </row>
     <row r="36" spans="1:18" ht="15" x14ac:dyDescent="0.25"/>
     <row r="37" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="14" t="s">
+      <c r="A37" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="B37" s="14"/>
-      <c r="C37" s="14"/>
-      <c r="E37" s="14" t="s">
+      <c r="B37" s="21"/>
+      <c r="C37" s="21"/>
+      <c r="E37" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="F37" s="14"/>
-      <c r="G37" s="14"/>
-      <c r="H37" s="14"/>
-      <c r="I37" s="14"/>
+      <c r="F37" s="21"/>
+      <c r="G37" s="21"/>
+      <c r="H37" s="21"/>
+      <c r="I37" s="21"/>
       <c r="J37" s="2" t="s">
         <v>52</v>
       </c>
@@ -2662,30 +2659,30 @@
       <c r="L37" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="N37" s="14" t="s">
+      <c r="N37" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="O37" s="14"/>
-      <c r="Q37" s="14" t="s">
+      <c r="O37" s="21"/>
+      <c r="Q37" s="21" t="s">
         <v>466</v>
       </c>
-      <c r="R37" s="14"/>
+      <c r="R37" s="21"/>
     </row>
     <row r="38" spans="1:18" ht="15" x14ac:dyDescent="0.25"/>
     <row r="39" spans="1:18" ht="15" x14ac:dyDescent="0.25"/>
     <row r="40" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A40" s="18">
+      <c r="A40" s="15">
         <v>7</v>
       </c>
-      <c r="B40" s="18"/>
-      <c r="C40" s="18"/>
-      <c r="E40" s="19" t="s">
+      <c r="B40" s="15"/>
+      <c r="C40" s="15"/>
+      <c r="E40" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="F40" s="19"/>
-      <c r="G40" s="19"/>
-      <c r="H40" s="19"/>
-      <c r="I40" s="19"/>
+      <c r="F40" s="16"/>
+      <c r="G40" s="16"/>
+      <c r="H40" s="16"/>
+      <c r="I40" s="16"/>
       <c r="J40" s="3" t="s">
         <v>28</v>
       </c>
@@ -2705,18 +2702,18 @@
     <row r="41" spans="1:18" ht="15" x14ac:dyDescent="0.25"/>
     <row r="42" spans="1:18" ht="15" x14ac:dyDescent="0.25"/>
     <row r="43" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A43" s="18">
+      <c r="A43" s="15">
         <v>8</v>
       </c>
-      <c r="B43" s="18"/>
-      <c r="C43" s="18"/>
-      <c r="E43" s="19" t="s">
+      <c r="B43" s="15"/>
+      <c r="C43" s="15"/>
+      <c r="E43" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="F43" s="19"/>
-      <c r="G43" s="19"/>
-      <c r="H43" s="19"/>
-      <c r="I43" s="19"/>
+      <c r="F43" s="16"/>
+      <c r="G43" s="16"/>
+      <c r="H43" s="16"/>
+      <c r="I43" s="16"/>
       <c r="J43" s="3" t="s">
         <v>75</v>
       </c>
@@ -2736,18 +2733,18 @@
     <row r="44" spans="1:18" ht="15" x14ac:dyDescent="0.25"/>
     <row r="45" spans="1:18" ht="15" x14ac:dyDescent="0.25"/>
     <row r="46" spans="1:18" ht="15" x14ac:dyDescent="0.25">
-      <c r="A46" s="18">
+      <c r="A46" s="15">
         <v>9</v>
       </c>
-      <c r="B46" s="18"/>
-      <c r="C46" s="18"/>
-      <c r="E46" s="19" t="s">
+      <c r="B46" s="15"/>
+      <c r="C46" s="15"/>
+      <c r="E46" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="F46" s="19"/>
-      <c r="G46" s="19"/>
-      <c r="H46" s="19"/>
-      <c r="I46" s="19"/>
+      <c r="F46" s="16"/>
+      <c r="G46" s="16"/>
+      <c r="H46" s="16"/>
+      <c r="I46" s="16"/>
       <c r="J46" s="3" t="s">
         <v>28</v>
       </c>
@@ -2767,18 +2764,18 @@
     <row r="47" spans="1:18" ht="15" x14ac:dyDescent="0.25"/>
     <row r="48" spans="1:18" ht="15" x14ac:dyDescent="0.25"/>
     <row r="49" spans="1:18" ht="15" x14ac:dyDescent="0.25">
-      <c r="A49" s="18">
+      <c r="A49" s="15">
         <v>10</v>
       </c>
-      <c r="B49" s="18"/>
-      <c r="C49" s="18"/>
-      <c r="E49" s="19" t="s">
+      <c r="B49" s="15"/>
+      <c r="C49" s="15"/>
+      <c r="E49" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="F49" s="19"/>
-      <c r="G49" s="19"/>
-      <c r="H49" s="19"/>
-      <c r="I49" s="19"/>
+      <c r="F49" s="16"/>
+      <c r="G49" s="16"/>
+      <c r="H49" s="16"/>
+      <c r="I49" s="16"/>
       <c r="J49" s="3" t="s">
         <v>38</v>
       </c>
@@ -2798,18 +2795,18 @@
     <row r="50" spans="1:18" ht="15" x14ac:dyDescent="0.25"/>
     <row r="51" spans="1:18" ht="15" x14ac:dyDescent="0.25"/>
     <row r="52" spans="1:18" ht="15" x14ac:dyDescent="0.25">
-      <c r="A52" s="18">
+      <c r="A52" s="15">
         <v>11</v>
       </c>
-      <c r="B52" s="18"/>
-      <c r="C52" s="18"/>
-      <c r="E52" s="19" t="s">
+      <c r="B52" s="15"/>
+      <c r="C52" s="15"/>
+      <c r="E52" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="F52" s="19"/>
-      <c r="G52" s="19"/>
-      <c r="H52" s="19"/>
-      <c r="I52" s="19"/>
+      <c r="F52" s="16"/>
+      <c r="G52" s="16"/>
+      <c r="H52" s="16"/>
+      <c r="I52" s="16"/>
       <c r="J52" s="3" t="s">
         <v>38</v>
       </c>
@@ -2829,18 +2826,18 @@
     <row r="53" spans="1:18" ht="15" x14ac:dyDescent="0.25"/>
     <row r="54" spans="1:18" ht="15" x14ac:dyDescent="0.25"/>
     <row r="55" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A55" s="18">
+      <c r="A55" s="15">
         <v>12</v>
       </c>
-      <c r="B55" s="18"/>
-      <c r="C55" s="18"/>
-      <c r="E55" s="19" t="s">
+      <c r="B55" s="15"/>
+      <c r="C55" s="15"/>
+      <c r="E55" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="F55" s="19"/>
-      <c r="G55" s="19"/>
-      <c r="H55" s="19"/>
-      <c r="I55" s="19"/>
+      <c r="F55" s="16"/>
+      <c r="G55" s="16"/>
+      <c r="H55" s="16"/>
+      <c r="I55" s="16"/>
       <c r="J55" s="3" t="s">
         <v>29</v>
       </c>
@@ -2861,38 +2858,38 @@
     <row r="57" spans="1:18" ht="15" x14ac:dyDescent="0.25"/>
     <row r="58" spans="1:18" ht="15" x14ac:dyDescent="0.25"/>
     <row r="59" spans="1:18" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A59" s="17" t="s">
+      <c r="A59" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="B59" s="17"/>
-      <c r="C59" s="17"/>
-      <c r="D59" s="17"/>
-      <c r="E59" s="17"/>
-      <c r="F59" s="17"/>
-      <c r="G59" s="17"/>
-      <c r="H59" s="17"/>
-      <c r="I59" s="17"/>
-      <c r="J59" s="17"/>
-      <c r="K59" s="17"/>
-      <c r="L59" s="17"/>
-      <c r="M59" s="17"/>
-      <c r="N59" s="17"/>
-      <c r="O59" s="17"/>
+      <c r="B59" s="20"/>
+      <c r="C59" s="20"/>
+      <c r="D59" s="20"/>
+      <c r="E59" s="20"/>
+      <c r="F59" s="20"/>
+      <c r="G59" s="20"/>
+      <c r="H59" s="20"/>
+      <c r="I59" s="20"/>
+      <c r="J59" s="20"/>
+      <c r="K59" s="20"/>
+      <c r="L59" s="20"/>
+      <c r="M59" s="20"/>
+      <c r="N59" s="20"/>
+      <c r="O59" s="20"/>
     </row>
     <row r="60" spans="1:18" ht="15" x14ac:dyDescent="0.25"/>
     <row r="61" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A61" s="14" t="s">
+      <c r="A61" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="B61" s="14"/>
-      <c r="C61" s="14"/>
-      <c r="E61" s="14" t="s">
+      <c r="B61" s="21"/>
+      <c r="C61" s="21"/>
+      <c r="E61" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="F61" s="14"/>
-      <c r="G61" s="14"/>
-      <c r="H61" s="14"/>
-      <c r="I61" s="14"/>
+      <c r="F61" s="21"/>
+      <c r="G61" s="21"/>
+      <c r="H61" s="21"/>
+      <c r="I61" s="21"/>
       <c r="J61" s="2" t="s">
         <v>52</v>
       </c>
@@ -2902,30 +2899,30 @@
       <c r="L61" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="N61" s="14" t="s">
+      <c r="N61" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="O61" s="14"/>
-      <c r="Q61" s="14" t="s">
+      <c r="O61" s="21"/>
+      <c r="Q61" s="21" t="s">
         <v>466</v>
       </c>
-      <c r="R61" s="14"/>
+      <c r="R61" s="21"/>
     </row>
     <row r="62" spans="1:18" ht="15" x14ac:dyDescent="0.25"/>
     <row r="63" spans="1:18" ht="15" x14ac:dyDescent="0.25"/>
     <row r="64" spans="1:18" ht="15" x14ac:dyDescent="0.25">
-      <c r="A64" s="18">
+      <c r="A64" s="15">
         <v>13</v>
       </c>
-      <c r="B64" s="18"/>
-      <c r="C64" s="18"/>
-      <c r="E64" s="19" t="s">
+      <c r="B64" s="15"/>
+      <c r="C64" s="15"/>
+      <c r="E64" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="F64" s="19"/>
-      <c r="G64" s="19"/>
-      <c r="H64" s="19"/>
-      <c r="I64" s="19"/>
+      <c r="F64" s="16"/>
+      <c r="G64" s="16"/>
+      <c r="H64" s="16"/>
+      <c r="I64" s="16"/>
       <c r="J64" s="3" t="s">
         <v>32</v>
       </c>
@@ -2945,18 +2942,18 @@
     <row r="65" spans="1:17" ht="15" x14ac:dyDescent="0.25"/>
     <row r="66" spans="1:17" ht="15" x14ac:dyDescent="0.25"/>
     <row r="67" spans="1:17" ht="15" x14ac:dyDescent="0.25">
-      <c r="A67" s="18">
+      <c r="A67" s="15">
         <v>14</v>
       </c>
-      <c r="B67" s="18"/>
-      <c r="C67" s="18"/>
-      <c r="E67" s="19" t="s">
+      <c r="B67" s="15"/>
+      <c r="C67" s="15"/>
+      <c r="E67" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="F67" s="19"/>
-      <c r="G67" s="19"/>
-      <c r="H67" s="19"/>
-      <c r="I67" s="19"/>
+      <c r="F67" s="16"/>
+      <c r="G67" s="16"/>
+      <c r="H67" s="16"/>
+      <c r="I67" s="16"/>
       <c r="J67" s="3" t="s">
         <v>33</v>
       </c>
@@ -2976,18 +2973,18 @@
     <row r="68" spans="1:17" ht="15" x14ac:dyDescent="0.25"/>
     <row r="69" spans="1:17" ht="15" x14ac:dyDescent="0.25"/>
     <row r="70" spans="1:17" ht="15" x14ac:dyDescent="0.25">
-      <c r="A70" s="18">
+      <c r="A70" s="15">
         <v>15</v>
       </c>
-      <c r="B70" s="18"/>
-      <c r="C70" s="18"/>
-      <c r="E70" s="19" t="s">
+      <c r="B70" s="15"/>
+      <c r="C70" s="15"/>
+      <c r="E70" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="F70" s="19"/>
-      <c r="G70" s="19"/>
-      <c r="H70" s="19"/>
-      <c r="I70" s="19"/>
+      <c r="F70" s="16"/>
+      <c r="G70" s="16"/>
+      <c r="H70" s="16"/>
+      <c r="I70" s="16"/>
       <c r="J70" s="3" t="s">
         <v>33</v>
       </c>
@@ -3007,18 +3004,18 @@
     <row r="71" spans="1:17" ht="15" x14ac:dyDescent="0.25"/>
     <row r="72" spans="1:17" ht="15" x14ac:dyDescent="0.25"/>
     <row r="73" spans="1:17" ht="15" x14ac:dyDescent="0.25">
-      <c r="A73" s="18">
+      <c r="A73" s="15">
         <v>16</v>
       </c>
-      <c r="B73" s="18"/>
-      <c r="C73" s="18"/>
-      <c r="E73" s="19" t="s">
+      <c r="B73" s="15"/>
+      <c r="C73" s="15"/>
+      <c r="E73" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="F73" s="19"/>
-      <c r="G73" s="19"/>
-      <c r="H73" s="19"/>
-      <c r="I73" s="19"/>
+      <c r="F73" s="16"/>
+      <c r="G73" s="16"/>
+      <c r="H73" s="16"/>
+      <c r="I73" s="16"/>
       <c r="J73" s="3" t="s">
         <v>32</v>
       </c>
@@ -3038,18 +3035,18 @@
     <row r="74" spans="1:17" ht="15" x14ac:dyDescent="0.25"/>
     <row r="75" spans="1:17" ht="15" x14ac:dyDescent="0.25"/>
     <row r="76" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A76" s="18">
+      <c r="A76" s="15">
         <v>17</v>
       </c>
-      <c r="B76" s="18"/>
-      <c r="C76" s="18"/>
-      <c r="E76" s="19" t="s">
+      <c r="B76" s="15"/>
+      <c r="C76" s="15"/>
+      <c r="E76" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="F76" s="19"/>
-      <c r="G76" s="19"/>
-      <c r="H76" s="19"/>
-      <c r="I76" s="19"/>
+      <c r="F76" s="16"/>
+      <c r="G76" s="16"/>
+      <c r="H76" s="16"/>
+      <c r="I76" s="16"/>
       <c r="J76" s="3" t="s">
         <v>34</v>
       </c>
@@ -3071,17 +3068,17 @@
     <row r="79" spans="1:17" ht="15" x14ac:dyDescent="0.25"/>
     <row r="80" spans="1:17" ht="15" x14ac:dyDescent="0.25"/>
     <row r="81" spans="1:15" ht="15" x14ac:dyDescent="0.25">
-      <c r="B81" s="21">
+      <c r="B81" s="17">
         <v>1</v>
       </c>
-      <c r="C81" s="21"/>
-      <c r="E81" s="22" t="s">
+      <c r="C81" s="17"/>
+      <c r="E81" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="G81" s="23">
+      <c r="G81" s="19">
         <v>1</v>
       </c>
-      <c r="H81" s="23"/>
+      <c r="H81" s="19"/>
       <c r="L81" s="6" t="s">
         <v>95</v>
       </c>
@@ -3090,73 +3087,29 @@
       </c>
     </row>
     <row r="82" spans="1:15" ht="15" x14ac:dyDescent="0.25">
-      <c r="E82" s="22"/>
+      <c r="E82" s="18"/>
     </row>
     <row r="83" spans="1:15" ht="15" x14ac:dyDescent="0.25">
-      <c r="A83" s="20" t="s">
+      <c r="A83" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="B83" s="20"/>
-      <c r="C83" s="20"/>
-      <c r="D83" s="20"/>
-      <c r="E83" s="20"/>
-      <c r="F83" s="20"/>
-      <c r="G83" s="20"/>
-      <c r="H83" s="20"/>
-      <c r="I83" s="20"/>
-      <c r="J83" s="20"/>
-      <c r="K83" s="20"/>
-      <c r="L83" s="20"/>
-      <c r="M83" s="20"/>
-      <c r="N83" s="20"/>
-      <c r="O83" s="20"/>
+      <c r="B83" s="14"/>
+      <c r="C83" s="14"/>
+      <c r="D83" s="14"/>
+      <c r="E83" s="14"/>
+      <c r="F83" s="14"/>
+      <c r="G83" s="14"/>
+      <c r="H83" s="14"/>
+      <c r="I83" s="14"/>
+      <c r="J83" s="14"/>
+      <c r="K83" s="14"/>
+      <c r="L83" s="14"/>
+      <c r="M83" s="14"/>
+      <c r="N83" s="14"/>
+      <c r="O83" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="60">
-    <mergeCell ref="A83:O83"/>
-    <mergeCell ref="A67:C67"/>
-    <mergeCell ref="E67:I67"/>
-    <mergeCell ref="A70:C70"/>
-    <mergeCell ref="E70:I70"/>
-    <mergeCell ref="A73:C73"/>
-    <mergeCell ref="E73:I73"/>
-    <mergeCell ref="A76:C76"/>
-    <mergeCell ref="E76:I76"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="E81:E82"/>
-    <mergeCell ref="G81:H81"/>
-    <mergeCell ref="A59:O59"/>
-    <mergeCell ref="A61:C61"/>
-    <mergeCell ref="E61:I61"/>
-    <mergeCell ref="N61:O61"/>
-    <mergeCell ref="A64:C64"/>
-    <mergeCell ref="E64:I64"/>
-    <mergeCell ref="A49:C49"/>
-    <mergeCell ref="E49:I49"/>
-    <mergeCell ref="A52:C52"/>
-    <mergeCell ref="E52:I52"/>
-    <mergeCell ref="A55:C55"/>
-    <mergeCell ref="E55:I55"/>
-    <mergeCell ref="A40:C40"/>
-    <mergeCell ref="E40:I40"/>
-    <mergeCell ref="A43:C43"/>
-    <mergeCell ref="E43:I43"/>
-    <mergeCell ref="A46:C46"/>
-    <mergeCell ref="E46:I46"/>
-    <mergeCell ref="A37:C37"/>
-    <mergeCell ref="E37:I37"/>
-    <mergeCell ref="N37:O37"/>
-    <mergeCell ref="A20:O20"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="E22:I22"/>
-    <mergeCell ref="N22:O22"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="E25:I25"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="E28:I28"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="E31:I31"/>
-    <mergeCell ref="A35:O35"/>
     <mergeCell ref="Q7:R7"/>
     <mergeCell ref="Q22:R22"/>
     <mergeCell ref="Q37:R37"/>
@@ -3173,6 +3126,50 @@
     <mergeCell ref="E13:I13"/>
     <mergeCell ref="A16:C16"/>
     <mergeCell ref="E16:I16"/>
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="E37:I37"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="A20:O20"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="E22:I22"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="E25:I25"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="E28:I28"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="E31:I31"/>
+    <mergeCell ref="A35:O35"/>
+    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="E40:I40"/>
+    <mergeCell ref="A43:C43"/>
+    <mergeCell ref="E43:I43"/>
+    <mergeCell ref="A46:C46"/>
+    <mergeCell ref="E46:I46"/>
+    <mergeCell ref="A49:C49"/>
+    <mergeCell ref="E49:I49"/>
+    <mergeCell ref="A52:C52"/>
+    <mergeCell ref="E52:I52"/>
+    <mergeCell ref="A55:C55"/>
+    <mergeCell ref="E55:I55"/>
+    <mergeCell ref="A59:O59"/>
+    <mergeCell ref="A61:C61"/>
+    <mergeCell ref="E61:I61"/>
+    <mergeCell ref="N61:O61"/>
+    <mergeCell ref="A64:C64"/>
+    <mergeCell ref="E64:I64"/>
+    <mergeCell ref="A83:O83"/>
+    <mergeCell ref="A67:C67"/>
+    <mergeCell ref="E67:I67"/>
+    <mergeCell ref="A70:C70"/>
+    <mergeCell ref="E70:I70"/>
+    <mergeCell ref="A73:C73"/>
+    <mergeCell ref="E73:I73"/>
+    <mergeCell ref="A76:C76"/>
+    <mergeCell ref="E76:I76"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="E81:E82"/>
+    <mergeCell ref="G81:H81"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -11035,8 +11032,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7E6FED8-630B-42F3-95CC-FE97CEAD985F}">
   <dimension ref="A1:D282"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="A2:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11057,51 +11054,27 @@
       <c r="D1" s="1"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1">
-        <v>0</v>
-      </c>
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
       <c r="D2" s="1"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="9">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1">
-        <v>2</v>
-      </c>
-      <c r="C3" s="1">
-        <v>0</v>
-      </c>
+      <c r="A3" s="9"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
       <c r="D3" s="1"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="10">
-        <v>3</v>
-      </c>
-      <c r="B4" s="9">
-        <v>3</v>
-      </c>
-      <c r="C4" s="9">
-        <v>0</v>
-      </c>
+      <c r="A4" s="10"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
       <c r="D4" s="11"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="11">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1">
-        <v>4</v>
-      </c>
-      <c r="C5" s="1">
-        <v>0</v>
-      </c>
+      <c r="A5" s="11"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
       <c r="D5" s="1"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -12852,10 +12825,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70A5743F-182D-40AB-B19A-F54FF0D1016F}">
-  <dimension ref="A1:M49"/>
+  <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I41" sqref="I41"/>
+      <selection activeCell="A2" sqref="A2:F62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12884,999 +12857,63 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>2200</v>
-      </c>
-      <c r="D2" t="s">
-        <v>453</v>
-      </c>
-      <c r="E2">
-        <v>2019</v>
-      </c>
-      <c r="F2">
-        <v>10</v>
-      </c>
       <c r="M2" t="s">
         <v>453</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3">
-        <v>2200</v>
-      </c>
-      <c r="D3" t="s">
-        <v>453</v>
-      </c>
-      <c r="E3">
-        <v>2019</v>
-      </c>
-      <c r="F3">
-        <v>10</v>
-      </c>
       <c r="M3" t="s">
         <v>454</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>3</v>
-      </c>
-      <c r="C4">
-        <v>2200</v>
-      </c>
-      <c r="D4" t="s">
-        <v>453</v>
-      </c>
-      <c r="E4">
-        <v>2019</v>
-      </c>
-      <c r="F4">
-        <v>10</v>
-      </c>
       <c r="M4" t="s">
         <v>455</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>4</v>
-      </c>
-      <c r="C5">
-        <v>2200</v>
-      </c>
-      <c r="D5" t="s">
-        <v>453</v>
-      </c>
-      <c r="E5">
-        <v>2019</v>
-      </c>
-      <c r="F5">
-        <v>10</v>
-      </c>
       <c r="M5" t="s">
         <v>456</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>25</v>
-      </c>
-      <c r="C6">
-        <v>2200</v>
-      </c>
-      <c r="D6" t="s">
-        <v>453</v>
-      </c>
-      <c r="E6">
-        <v>2019</v>
-      </c>
-      <c r="F6">
-        <v>10</v>
-      </c>
       <c r="M6" t="s">
         <v>457</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>6</v>
-      </c>
-      <c r="C7">
-        <v>2200</v>
-      </c>
-      <c r="D7" t="s">
-        <v>453</v>
-      </c>
-      <c r="E7">
-        <v>2019</v>
-      </c>
-      <c r="F7">
-        <v>10</v>
-      </c>
       <c r="M7" t="s">
         <v>458</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>7</v>
-      </c>
-      <c r="C8">
-        <v>2200</v>
-      </c>
-      <c r="D8" t="s">
-        <v>453</v>
-      </c>
-      <c r="E8">
-        <v>2019</v>
-      </c>
-      <c r="F8">
-        <v>10</v>
-      </c>
       <c r="M8" t="s">
         <v>459</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>8</v>
-      </c>
-      <c r="C9">
-        <v>2200</v>
-      </c>
-      <c r="D9" t="s">
-        <v>453</v>
-      </c>
-      <c r="E9">
-        <v>2019</v>
-      </c>
-      <c r="F9">
-        <v>10</v>
-      </c>
       <c r="M9" t="s">
         <v>460</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>9</v>
-      </c>
-      <c r="C10">
-        <v>2200</v>
-      </c>
-      <c r="D10" t="s">
-        <v>453</v>
-      </c>
-      <c r="E10">
-        <v>2019</v>
-      </c>
-      <c r="F10">
-        <v>10</v>
-      </c>
       <c r="M10" t="s">
         <v>461</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>10</v>
-      </c>
-      <c r="C11">
-        <v>2200</v>
-      </c>
-      <c r="D11" t="s">
-        <v>453</v>
-      </c>
-      <c r="E11">
-        <v>2019</v>
-      </c>
-      <c r="F11">
-        <v>10</v>
-      </c>
       <c r="M11" t="s">
         <v>462</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12">
-        <v>11</v>
-      </c>
-      <c r="C12">
-        <v>2200</v>
-      </c>
-      <c r="D12" t="s">
-        <v>453</v>
-      </c>
-      <c r="E12">
-        <v>2019</v>
-      </c>
-      <c r="F12">
-        <v>10</v>
-      </c>
       <c r="M12" t="s">
         <v>463</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13">
-        <v>12</v>
-      </c>
-      <c r="C13">
-        <v>2200</v>
-      </c>
-      <c r="D13" t="s">
-        <v>453</v>
-      </c>
-      <c r="E13">
-        <v>2019</v>
-      </c>
-      <c r="F13">
-        <v>10</v>
-      </c>
       <c r="M13" t="s">
         <v>464</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14">
-        <v>13</v>
-      </c>
-      <c r="C14">
-        <v>2200</v>
-      </c>
-      <c r="D14" t="s">
-        <v>453</v>
-      </c>
-      <c r="E14">
-        <v>2019</v>
-      </c>
-      <c r="F14">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15">
-        <v>14</v>
-      </c>
-      <c r="C15">
-        <v>2200</v>
-      </c>
-      <c r="D15" t="s">
-        <v>453</v>
-      </c>
-      <c r="E15">
-        <v>2019</v>
-      </c>
-      <c r="F15">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16">
-        <v>15</v>
-      </c>
-      <c r="C16">
-        <v>2200</v>
-      </c>
-      <c r="D16" t="s">
-        <v>453</v>
-      </c>
-      <c r="E16">
-        <v>2019</v>
-      </c>
-      <c r="F16">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17">
-        <v>16</v>
-      </c>
-      <c r="C17">
-        <v>2200</v>
-      </c>
-      <c r="D17" t="s">
-        <v>453</v>
-      </c>
-      <c r="E17">
-        <v>2019</v>
-      </c>
-      <c r="F17">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18">
-        <v>17</v>
-      </c>
-      <c r="C18">
-        <v>2200</v>
-      </c>
-      <c r="D18" t="s">
-        <v>453</v>
-      </c>
-      <c r="E18">
-        <v>2019</v>
-      </c>
-      <c r="F18">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="B19">
-        <v>18</v>
-      </c>
-      <c r="C19">
-        <v>2200</v>
-      </c>
-      <c r="D19" t="s">
-        <v>453</v>
-      </c>
-      <c r="E19">
-        <v>2019</v>
-      </c>
-      <c r="F19">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="B20">
-        <v>19</v>
-      </c>
-      <c r="C20">
-        <v>2200</v>
-      </c>
-      <c r="D20" t="s">
-        <v>453</v>
-      </c>
-      <c r="E20">
-        <v>2019</v>
-      </c>
-      <c r="F20">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="B21">
-        <v>20</v>
-      </c>
-      <c r="C21">
-        <v>2200</v>
-      </c>
-      <c r="D21" t="s">
-        <v>453</v>
-      </c>
-      <c r="E21">
-        <v>2019</v>
-      </c>
-      <c r="F21">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>21</v>
-      </c>
-      <c r="B22">
-        <v>21</v>
-      </c>
-      <c r="C22">
-        <v>2200</v>
-      </c>
-      <c r="D22" t="s">
-        <v>453</v>
-      </c>
-      <c r="E22">
-        <v>2019</v>
-      </c>
-      <c r="F22">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>22</v>
-      </c>
-      <c r="B23">
-        <v>22</v>
-      </c>
-      <c r="C23">
-        <v>2200</v>
-      </c>
-      <c r="D23" t="s">
-        <v>453</v>
-      </c>
-      <c r="E23">
-        <v>2019</v>
-      </c>
-      <c r="F23">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>23</v>
-      </c>
-      <c r="B24">
-        <v>23</v>
-      </c>
-      <c r="C24">
-        <v>2200</v>
-      </c>
-      <c r="D24" t="s">
-        <v>453</v>
-      </c>
-      <c r="E24">
-        <v>2019</v>
-      </c>
-      <c r="F24">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>24</v>
-      </c>
-      <c r="B25">
-        <v>24</v>
-      </c>
-      <c r="C25">
-        <v>2200</v>
-      </c>
-      <c r="D25" t="s">
-        <v>453</v>
-      </c>
-      <c r="E25">
-        <v>2019</v>
-      </c>
-      <c r="F25">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>25</v>
-      </c>
-      <c r="B26">
-        <v>1</v>
-      </c>
-      <c r="C26">
-        <v>2200</v>
-      </c>
-      <c r="D26" t="s">
-        <v>455</v>
-      </c>
-      <c r="E26">
-        <v>2019</v>
-      </c>
-      <c r="F26">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>26</v>
-      </c>
-      <c r="B27">
-        <v>2</v>
-      </c>
-      <c r="C27">
-        <v>2200</v>
-      </c>
-      <c r="D27" t="s">
-        <v>455</v>
-      </c>
-      <c r="E27">
-        <v>2019</v>
-      </c>
-      <c r="F27">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>27</v>
-      </c>
-      <c r="B28">
-        <v>3</v>
-      </c>
-      <c r="C28">
-        <v>2200</v>
-      </c>
-      <c r="D28" t="s">
-        <v>455</v>
-      </c>
-      <c r="E28">
-        <v>2019</v>
-      </c>
-      <c r="F28">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>28</v>
-      </c>
-      <c r="B29">
-        <v>4</v>
-      </c>
-      <c r="C29">
-        <v>2200</v>
-      </c>
-      <c r="D29" t="s">
-        <v>455</v>
-      </c>
-      <c r="E29">
-        <v>2019</v>
-      </c>
-      <c r="F29">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>29</v>
-      </c>
-      <c r="B30">
-        <v>25</v>
-      </c>
-      <c r="C30">
-        <v>2200</v>
-      </c>
-      <c r="D30" t="s">
-        <v>455</v>
-      </c>
-      <c r="E30">
-        <v>2019</v>
-      </c>
-      <c r="F30">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>30</v>
-      </c>
-      <c r="B31">
-        <v>6</v>
-      </c>
-      <c r="C31">
-        <v>2200</v>
-      </c>
-      <c r="D31" t="s">
-        <v>455</v>
-      </c>
-      <c r="E31">
-        <v>2019</v>
-      </c>
-      <c r="F31">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>31</v>
-      </c>
-      <c r="B32">
-        <v>7</v>
-      </c>
-      <c r="C32">
-        <v>2200</v>
-      </c>
-      <c r="D32" t="s">
-        <v>455</v>
-      </c>
-      <c r="E32">
-        <v>2019</v>
-      </c>
-      <c r="F32">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>32</v>
-      </c>
-      <c r="B33">
-        <v>8</v>
-      </c>
-      <c r="C33">
-        <v>2200</v>
-      </c>
-      <c r="D33" t="s">
-        <v>455</v>
-      </c>
-      <c r="E33">
-        <v>2019</v>
-      </c>
-      <c r="F33">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>33</v>
-      </c>
-      <c r="B34">
-        <v>9</v>
-      </c>
-      <c r="C34">
-        <v>2200</v>
-      </c>
-      <c r="D34" t="s">
-        <v>455</v>
-      </c>
-      <c r="E34">
-        <v>2019</v>
-      </c>
-      <c r="F34">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>34</v>
-      </c>
-      <c r="B35">
-        <v>10</v>
-      </c>
-      <c r="C35">
-        <v>2200</v>
-      </c>
-      <c r="D35" t="s">
-        <v>455</v>
-      </c>
-      <c r="E35">
-        <v>2019</v>
-      </c>
-      <c r="F35">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>35</v>
-      </c>
-      <c r="B36">
-        <v>11</v>
-      </c>
-      <c r="C36">
-        <v>2200</v>
-      </c>
-      <c r="D36" t="s">
-        <v>455</v>
-      </c>
-      <c r="E36">
-        <v>2019</v>
-      </c>
-      <c r="F36">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>36</v>
-      </c>
-      <c r="B37">
-        <v>12</v>
-      </c>
-      <c r="C37">
-        <v>2200</v>
-      </c>
-      <c r="D37" t="s">
-        <v>455</v>
-      </c>
-      <c r="E37">
-        <v>2019</v>
-      </c>
-      <c r="F37">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>37</v>
-      </c>
-      <c r="B38">
-        <v>13</v>
-      </c>
-      <c r="C38">
-        <v>2200</v>
-      </c>
-      <c r="D38" t="s">
-        <v>455</v>
-      </c>
-      <c r="E38">
-        <v>2019</v>
-      </c>
-      <c r="F38">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>38</v>
-      </c>
-      <c r="B39">
-        <v>14</v>
-      </c>
-      <c r="C39">
-        <v>2200</v>
-      </c>
-      <c r="D39" t="s">
-        <v>455</v>
-      </c>
-      <c r="E39">
-        <v>2019</v>
-      </c>
-      <c r="F39">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>39</v>
-      </c>
-      <c r="B40">
-        <v>15</v>
-      </c>
-      <c r="C40">
-        <v>2200</v>
-      </c>
-      <c r="D40" t="s">
-        <v>455</v>
-      </c>
-      <c r="E40">
-        <v>2019</v>
-      </c>
-      <c r="F40">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>40</v>
-      </c>
-      <c r="B41">
-        <v>16</v>
-      </c>
-      <c r="C41">
-        <v>2200</v>
-      </c>
-      <c r="D41" t="s">
-        <v>455</v>
-      </c>
-      <c r="E41">
-        <v>2019</v>
-      </c>
-      <c r="F41">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <v>41</v>
-      </c>
-      <c r="B42">
-        <v>17</v>
-      </c>
-      <c r="C42">
-        <v>2200</v>
-      </c>
-      <c r="D42" t="s">
-        <v>455</v>
-      </c>
-      <c r="E42">
-        <v>2019</v>
-      </c>
-      <c r="F42">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <v>42</v>
-      </c>
-      <c r="B43">
-        <v>18</v>
-      </c>
-      <c r="C43">
-        <v>2200</v>
-      </c>
-      <c r="D43" t="s">
-        <v>455</v>
-      </c>
-      <c r="E43">
-        <v>2019</v>
-      </c>
-      <c r="F43">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44">
-        <v>43</v>
-      </c>
-      <c r="B44">
-        <v>19</v>
-      </c>
-      <c r="C44">
-        <v>2200</v>
-      </c>
-      <c r="D44" t="s">
-        <v>455</v>
-      </c>
-      <c r="E44">
-        <v>2019</v>
-      </c>
-      <c r="F44">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45">
-        <v>44</v>
-      </c>
-      <c r="B45">
-        <v>20</v>
-      </c>
-      <c r="C45">
-        <v>2200</v>
-      </c>
-      <c r="D45" t="s">
-        <v>455</v>
-      </c>
-      <c r="E45">
-        <v>2019</v>
-      </c>
-      <c r="F45">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46">
-        <v>45</v>
-      </c>
-      <c r="B46">
-        <v>21</v>
-      </c>
-      <c r="C46">
-        <v>2200</v>
-      </c>
-      <c r="D46" t="s">
-        <v>455</v>
-      </c>
-      <c r="E46">
-        <v>2019</v>
-      </c>
-      <c r="F46">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47">
-        <v>46</v>
-      </c>
-      <c r="B47">
-        <v>22</v>
-      </c>
-      <c r="C47">
-        <v>2200</v>
-      </c>
-      <c r="D47" t="s">
-        <v>455</v>
-      </c>
-      <c r="E47">
-        <v>2019</v>
-      </c>
-      <c r="F47">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48">
-        <v>47</v>
-      </c>
-      <c r="B48">
-        <v>23</v>
-      </c>
-      <c r="C48">
-        <v>2200</v>
-      </c>
-      <c r="D48" t="s">
-        <v>455</v>
-      </c>
-      <c r="E48">
-        <v>2019</v>
-      </c>
-      <c r="F48">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49">
-        <v>48</v>
-      </c>
-      <c r="B49">
-        <v>24</v>
-      </c>
-      <c r="C49">
-        <v>2200</v>
-      </c>
-      <c r="D49" t="s">
-        <v>455</v>
-      </c>
-      <c r="E49">
-        <v>2019</v>
-      </c>
-      <c r="F49">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -13893,8 +12930,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A160A2E-7E17-40FE-AD25-188509B70DDD}">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13925,184 +12962,28 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>450</v>
-      </c>
-      <c r="C2" t="s">
-        <v>470</v>
-      </c>
-      <c r="D2">
-        <v>10000</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>464</v>
-      </c>
-      <c r="F2">
-        <v>2018</v>
-      </c>
+      <c r="E2" s="13"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>484</v>
-      </c>
-      <c r="C3" t="s">
-        <v>467</v>
-      </c>
-      <c r="D3">
-        <v>15000</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>464</v>
-      </c>
-      <c r="F3">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>447</v>
-      </c>
-      <c r="C4" t="s">
-        <v>471</v>
-      </c>
-      <c r="D4">
-        <v>8000</v>
-      </c>
-      <c r="E4" t="s">
-        <v>464</v>
-      </c>
-      <c r="F4">
-        <v>2018</v>
-      </c>
+      <c r="E3" s="13"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>450</v>
-      </c>
-      <c r="C5" t="s">
-        <v>470</v>
-      </c>
-      <c r="D5">
-        <v>10000</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>453</v>
-      </c>
-      <c r="F5">
-        <v>2019</v>
-      </c>
+      <c r="E5" s="13"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>484</v>
-      </c>
-      <c r="C6" t="s">
-        <v>467</v>
-      </c>
-      <c r="D6">
-        <v>15000</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>453</v>
-      </c>
-      <c r="F6">
-        <v>2019</v>
-      </c>
+      <c r="E6" s="13"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>447</v>
-      </c>
-      <c r="C7" t="s">
-        <v>471</v>
-      </c>
-      <c r="D7">
-        <v>8000</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>453</v>
-      </c>
-      <c r="F7">
-        <v>2019</v>
-      </c>
+      <c r="E7" s="13"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>450</v>
-      </c>
-      <c r="C8" t="s">
-        <v>470</v>
-      </c>
-      <c r="D8">
-        <v>10000</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>454</v>
-      </c>
-      <c r="F8">
-        <v>2019</v>
-      </c>
+      <c r="E8" s="13"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>484</v>
-      </c>
-      <c r="C9" t="s">
-        <v>467</v>
-      </c>
-      <c r="D9">
-        <v>15000</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>454</v>
-      </c>
-      <c r="F9">
-        <v>2019</v>
-      </c>
+      <c r="E9" s="13"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>447</v>
-      </c>
-      <c r="C10" t="s">
-        <v>471</v>
-      </c>
-      <c r="D10">
-        <v>8000</v>
-      </c>
-      <c r="E10" s="13" t="s">
-        <v>454</v>
-      </c>
-      <c r="F10">
-        <v>2019</v>
-      </c>
+      <c r="E10" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/TrainersSchoolingSystem/App_Data/uploads/Template.xlsx
+++ b/TrainersSchoolingSystem/App_Data/uploads/Template.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BEBE78E-AC89-43DD-A68D-3B06FE1E3B73}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48BC9BFA-2D7F-41D0-9883-7D69ED4075B5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="709" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="709" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Designations" sheetId="1" r:id="rId1"/>
@@ -1666,11 +1666,27 @@
     <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
@@ -1681,25 +1697,9 @@
     <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="3" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2301,64 +2301,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="I1" s="21" t="s">
+      <c r="I1" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21"/>
-      <c r="N1" s="21"/>
-      <c r="O1" s="21"/>
-      <c r="P1" s="21"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
     </row>
     <row r="2" spans="1:18" ht="21" x14ac:dyDescent="0.25">
-      <c r="I2" s="22" t="s">
+      <c r="I2" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
-      <c r="N2" s="22"/>
-      <c r="O2" s="22"/>
-      <c r="P2" s="22"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="16"/>
+      <c r="O2" s="16"/>
+      <c r="P2" s="16"/>
     </row>
     <row r="3" spans="1:18" ht="15" x14ac:dyDescent="0.25"/>
     <row r="4" spans="1:18" ht="15" x14ac:dyDescent="0.25"/>
     <row r="5" spans="1:18" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="B5" s="19"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="19"/>
-      <c r="K5" s="19"/>
-      <c r="L5" s="19"/>
-      <c r="M5" s="19"/>
-      <c r="N5" s="19"/>
-      <c r="O5" s="19"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="17"/>
+      <c r="N5" s="17"/>
+      <c r="O5" s="17"/>
     </row>
     <row r="6" spans="1:18" ht="15" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="B7" s="20"/>
-      <c r="C7" s="20"/>
-      <c r="E7" s="20" t="s">
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="E7" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="20"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
       <c r="J7" s="2" t="s">
         <v>52</v>
       </c>
@@ -2368,30 +2368,30 @@
       <c r="L7" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="N7" s="20" t="s">
+      <c r="N7" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="O7" s="20"/>
-      <c r="Q7" s="20" t="s">
+      <c r="O7" s="14"/>
+      <c r="Q7" s="14" t="s">
         <v>466</v>
       </c>
-      <c r="R7" s="20"/>
+      <c r="R7" s="14"/>
     </row>
     <row r="8" spans="1:18" ht="15" x14ac:dyDescent="0.25"/>
     <row r="9" spans="1:18" ht="15" x14ac:dyDescent="0.25"/>
     <row r="10" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="13">
+      <c r="A10" s="18">
         <v>1</v>
       </c>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="E10" s="14" t="s">
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="E10" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
       <c r="J10" s="3" t="s">
         <v>26</v>
       </c>
@@ -2411,18 +2411,18 @@
     <row r="11" spans="1:18" ht="15" x14ac:dyDescent="0.25"/>
     <row r="12" spans="1:18" ht="15" x14ac:dyDescent="0.25"/>
     <row r="13" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="13">
+      <c r="A13" s="18">
         <v>2</v>
       </c>
-      <c r="B13" s="13"/>
-      <c r="C13" s="13"/>
-      <c r="E13" s="14" t="s">
+      <c r="B13" s="18"/>
+      <c r="C13" s="18"/>
+      <c r="E13" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="14"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="19"/>
       <c r="J13" s="3" t="s">
         <v>27</v>
       </c>
@@ -2442,18 +2442,18 @@
     <row r="14" spans="1:18" ht="15" x14ac:dyDescent="0.25"/>
     <row r="15" spans="1:18" ht="15" x14ac:dyDescent="0.25"/>
     <row r="16" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="13">
+      <c r="A16" s="18">
         <v>3</v>
       </c>
-      <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
-      <c r="E16" s="14" t="s">
+      <c r="B16" s="18"/>
+      <c r="C16" s="18"/>
+      <c r="E16" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="14"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="19"/>
       <c r="J16" s="3" t="s">
         <v>27</v>
       </c>
@@ -2474,38 +2474,38 @@
     <row r="18" spans="1:18" ht="15" x14ac:dyDescent="0.25"/>
     <row r="19" spans="1:18" ht="15" x14ac:dyDescent="0.25"/>
     <row r="20" spans="1:18" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="19" t="s">
+      <c r="A20" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="B20" s="19"/>
-      <c r="C20" s="19"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="19"/>
-      <c r="G20" s="19"/>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="19"/>
-      <c r="K20" s="19"/>
-      <c r="L20" s="19"/>
-      <c r="M20" s="19"/>
-      <c r="N20" s="19"/>
-      <c r="O20" s="19"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="17"/>
+      <c r="L20" s="17"/>
+      <c r="M20" s="17"/>
+      <c r="N20" s="17"/>
+      <c r="O20" s="17"/>
     </row>
     <row r="21" spans="1:18" ht="15" x14ac:dyDescent="0.25"/>
     <row r="22" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="20" t="s">
+      <c r="A22" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="B22" s="20"/>
-      <c r="C22" s="20"/>
-      <c r="E22" s="20" t="s">
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="E22" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="F22" s="20"/>
-      <c r="G22" s="20"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="20"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="14"/>
       <c r="J22" s="2" t="s">
         <v>52</v>
       </c>
@@ -2515,30 +2515,30 @@
       <c r="L22" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="N22" s="20" t="s">
+      <c r="N22" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="O22" s="20"/>
-      <c r="Q22" s="20" t="s">
+      <c r="O22" s="14"/>
+      <c r="Q22" s="14" t="s">
         <v>466</v>
       </c>
-      <c r="R22" s="20"/>
+      <c r="R22" s="14"/>
     </row>
     <row r="23" spans="1:18" ht="15" x14ac:dyDescent="0.25"/>
     <row r="24" spans="1:18" ht="15" x14ac:dyDescent="0.25"/>
     <row r="25" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="13">
+      <c r="A25" s="18">
         <v>4</v>
       </c>
-      <c r="B25" s="13"/>
-      <c r="C25" s="13"/>
-      <c r="E25" s="14" t="s">
+      <c r="B25" s="18"/>
+      <c r="C25" s="18"/>
+      <c r="E25" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="14"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="19"/>
+      <c r="H25" s="19"/>
+      <c r="I25" s="19"/>
       <c r="J25" s="3" t="s">
         <v>64</v>
       </c>
@@ -2558,18 +2558,18 @@
     <row r="26" spans="1:18" ht="15" x14ac:dyDescent="0.25"/>
     <row r="27" spans="1:18" ht="15" x14ac:dyDescent="0.25"/>
     <row r="28" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="13">
+      <c r="A28" s="18">
         <v>5</v>
       </c>
-      <c r="B28" s="13"/>
-      <c r="C28" s="13"/>
-      <c r="E28" s="14" t="s">
+      <c r="B28" s="18"/>
+      <c r="C28" s="18"/>
+      <c r="E28" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="F28" s="14"/>
-      <c r="G28" s="14"/>
-      <c r="H28" s="14"/>
-      <c r="I28" s="14"/>
+      <c r="F28" s="19"/>
+      <c r="G28" s="19"/>
+      <c r="H28" s="19"/>
+      <c r="I28" s="19"/>
       <c r="J28" s="3" t="s">
         <v>30</v>
       </c>
@@ -2589,18 +2589,18 @@
     <row r="29" spans="1:18" ht="15" x14ac:dyDescent="0.25"/>
     <row r="30" spans="1:18" ht="15" x14ac:dyDescent="0.25"/>
     <row r="31" spans="1:18" ht="15" x14ac:dyDescent="0.25">
-      <c r="A31" s="13">
+      <c r="A31" s="18">
         <v>6</v>
       </c>
-      <c r="B31" s="13"/>
-      <c r="C31" s="13"/>
-      <c r="E31" s="14" t="s">
+      <c r="B31" s="18"/>
+      <c r="C31" s="18"/>
+      <c r="E31" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="F31" s="14"/>
-      <c r="G31" s="14"/>
-      <c r="H31" s="14"/>
-      <c r="I31" s="14"/>
+      <c r="F31" s="19"/>
+      <c r="G31" s="19"/>
+      <c r="H31" s="19"/>
+      <c r="I31" s="19"/>
       <c r="J31" s="3" t="s">
         <v>69</v>
       </c>
@@ -2621,38 +2621,38 @@
     <row r="33" spans="1:18" ht="15" x14ac:dyDescent="0.25"/>
     <row r="34" spans="1:18" ht="15" x14ac:dyDescent="0.25"/>
     <row r="35" spans="1:18" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="19" t="s">
+      <c r="A35" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="B35" s="19"/>
-      <c r="C35" s="19"/>
-      <c r="D35" s="19"/>
-      <c r="E35" s="19"/>
-      <c r="F35" s="19"/>
-      <c r="G35" s="19"/>
-      <c r="H35" s="19"/>
-      <c r="I35" s="19"/>
-      <c r="J35" s="19"/>
-      <c r="K35" s="19"/>
-      <c r="L35" s="19"/>
-      <c r="M35" s="19"/>
-      <c r="N35" s="19"/>
-      <c r="O35" s="19"/>
+      <c r="B35" s="17"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="17"/>
+      <c r="E35" s="17"/>
+      <c r="F35" s="17"/>
+      <c r="G35" s="17"/>
+      <c r="H35" s="17"/>
+      <c r="I35" s="17"/>
+      <c r="J35" s="17"/>
+      <c r="K35" s="17"/>
+      <c r="L35" s="17"/>
+      <c r="M35" s="17"/>
+      <c r="N35" s="17"/>
+      <c r="O35" s="17"/>
     </row>
     <row r="36" spans="1:18" ht="15" x14ac:dyDescent="0.25"/>
     <row r="37" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="20" t="s">
+      <c r="A37" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="B37" s="20"/>
-      <c r="C37" s="20"/>
-      <c r="E37" s="20" t="s">
+      <c r="B37" s="14"/>
+      <c r="C37" s="14"/>
+      <c r="E37" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="F37" s="20"/>
-      <c r="G37" s="20"/>
-      <c r="H37" s="20"/>
-      <c r="I37" s="20"/>
+      <c r="F37" s="14"/>
+      <c r="G37" s="14"/>
+      <c r="H37" s="14"/>
+      <c r="I37" s="14"/>
       <c r="J37" s="2" t="s">
         <v>52</v>
       </c>
@@ -2662,30 +2662,30 @@
       <c r="L37" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="N37" s="20" t="s">
+      <c r="N37" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="O37" s="20"/>
-      <c r="Q37" s="20" t="s">
+      <c r="O37" s="14"/>
+      <c r="Q37" s="14" t="s">
         <v>466</v>
       </c>
-      <c r="R37" s="20"/>
+      <c r="R37" s="14"/>
     </row>
     <row r="38" spans="1:18" ht="15" x14ac:dyDescent="0.25"/>
     <row r="39" spans="1:18" ht="15" x14ac:dyDescent="0.25"/>
     <row r="40" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A40" s="13">
+      <c r="A40" s="18">
         <v>7</v>
       </c>
-      <c r="B40" s="13"/>
-      <c r="C40" s="13"/>
-      <c r="E40" s="14" t="s">
+      <c r="B40" s="18"/>
+      <c r="C40" s="18"/>
+      <c r="E40" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="F40" s="14"/>
-      <c r="G40" s="14"/>
-      <c r="H40" s="14"/>
-      <c r="I40" s="14"/>
+      <c r="F40" s="19"/>
+      <c r="G40" s="19"/>
+      <c r="H40" s="19"/>
+      <c r="I40" s="19"/>
       <c r="J40" s="3" t="s">
         <v>28</v>
       </c>
@@ -2705,18 +2705,18 @@
     <row r="41" spans="1:18" ht="15" x14ac:dyDescent="0.25"/>
     <row r="42" spans="1:18" ht="15" x14ac:dyDescent="0.25"/>
     <row r="43" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A43" s="13">
+      <c r="A43" s="18">
         <v>8</v>
       </c>
-      <c r="B43" s="13"/>
-      <c r="C43" s="13"/>
-      <c r="E43" s="14" t="s">
+      <c r="B43" s="18"/>
+      <c r="C43" s="18"/>
+      <c r="E43" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="F43" s="14"/>
-      <c r="G43" s="14"/>
-      <c r="H43" s="14"/>
-      <c r="I43" s="14"/>
+      <c r="F43" s="19"/>
+      <c r="G43" s="19"/>
+      <c r="H43" s="19"/>
+      <c r="I43" s="19"/>
       <c r="J43" s="3" t="s">
         <v>75</v>
       </c>
@@ -2736,18 +2736,18 @@
     <row r="44" spans="1:18" ht="15" x14ac:dyDescent="0.25"/>
     <row r="45" spans="1:18" ht="15" x14ac:dyDescent="0.25"/>
     <row r="46" spans="1:18" ht="15" x14ac:dyDescent="0.25">
-      <c r="A46" s="13">
+      <c r="A46" s="18">
         <v>9</v>
       </c>
-      <c r="B46" s="13"/>
-      <c r="C46" s="13"/>
-      <c r="E46" s="14" t="s">
+      <c r="B46" s="18"/>
+      <c r="C46" s="18"/>
+      <c r="E46" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="F46" s="14"/>
-      <c r="G46" s="14"/>
-      <c r="H46" s="14"/>
-      <c r="I46" s="14"/>
+      <c r="F46" s="19"/>
+      <c r="G46" s="19"/>
+      <c r="H46" s="19"/>
+      <c r="I46" s="19"/>
       <c r="J46" s="3" t="s">
         <v>28</v>
       </c>
@@ -2767,18 +2767,18 @@
     <row r="47" spans="1:18" ht="15" x14ac:dyDescent="0.25"/>
     <row r="48" spans="1:18" ht="15" x14ac:dyDescent="0.25"/>
     <row r="49" spans="1:18" ht="15" x14ac:dyDescent="0.25">
-      <c r="A49" s="13">
+      <c r="A49" s="18">
         <v>10</v>
       </c>
-      <c r="B49" s="13"/>
-      <c r="C49" s="13"/>
-      <c r="E49" s="14" t="s">
+      <c r="B49" s="18"/>
+      <c r="C49" s="18"/>
+      <c r="E49" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="F49" s="14"/>
-      <c r="G49" s="14"/>
-      <c r="H49" s="14"/>
-      <c r="I49" s="14"/>
+      <c r="F49" s="19"/>
+      <c r="G49" s="19"/>
+      <c r="H49" s="19"/>
+      <c r="I49" s="19"/>
       <c r="J49" s="3" t="s">
         <v>38</v>
       </c>
@@ -2798,18 +2798,18 @@
     <row r="50" spans="1:18" ht="15" x14ac:dyDescent="0.25"/>
     <row r="51" spans="1:18" ht="15" x14ac:dyDescent="0.25"/>
     <row r="52" spans="1:18" ht="15" x14ac:dyDescent="0.25">
-      <c r="A52" s="13">
+      <c r="A52" s="18">
         <v>11</v>
       </c>
-      <c r="B52" s="13"/>
-      <c r="C52" s="13"/>
-      <c r="E52" s="14" t="s">
+      <c r="B52" s="18"/>
+      <c r="C52" s="18"/>
+      <c r="E52" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="F52" s="14"/>
-      <c r="G52" s="14"/>
-      <c r="H52" s="14"/>
-      <c r="I52" s="14"/>
+      <c r="F52" s="19"/>
+      <c r="G52" s="19"/>
+      <c r="H52" s="19"/>
+      <c r="I52" s="19"/>
       <c r="J52" s="3" t="s">
         <v>38</v>
       </c>
@@ -2829,18 +2829,18 @@
     <row r="53" spans="1:18" ht="15" x14ac:dyDescent="0.25"/>
     <row r="54" spans="1:18" ht="15" x14ac:dyDescent="0.25"/>
     <row r="55" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A55" s="13">
+      <c r="A55" s="18">
         <v>12</v>
       </c>
-      <c r="B55" s="13"/>
-      <c r="C55" s="13"/>
-      <c r="E55" s="14" t="s">
+      <c r="B55" s="18"/>
+      <c r="C55" s="18"/>
+      <c r="E55" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="F55" s="14"/>
-      <c r="G55" s="14"/>
-      <c r="H55" s="14"/>
-      <c r="I55" s="14"/>
+      <c r="F55" s="19"/>
+      <c r="G55" s="19"/>
+      <c r="H55" s="19"/>
+      <c r="I55" s="19"/>
       <c r="J55" s="3" t="s">
         <v>29</v>
       </c>
@@ -2861,38 +2861,38 @@
     <row r="57" spans="1:18" ht="15" x14ac:dyDescent="0.25"/>
     <row r="58" spans="1:18" ht="15" x14ac:dyDescent="0.25"/>
     <row r="59" spans="1:18" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A59" s="19" t="s">
+      <c r="A59" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="B59" s="19"/>
-      <c r="C59" s="19"/>
-      <c r="D59" s="19"/>
-      <c r="E59" s="19"/>
-      <c r="F59" s="19"/>
-      <c r="G59" s="19"/>
-      <c r="H59" s="19"/>
-      <c r="I59" s="19"/>
-      <c r="J59" s="19"/>
-      <c r="K59" s="19"/>
-      <c r="L59" s="19"/>
-      <c r="M59" s="19"/>
-      <c r="N59" s="19"/>
-      <c r="O59" s="19"/>
+      <c r="B59" s="17"/>
+      <c r="C59" s="17"/>
+      <c r="D59" s="17"/>
+      <c r="E59" s="17"/>
+      <c r="F59" s="17"/>
+      <c r="G59" s="17"/>
+      <c r="H59" s="17"/>
+      <c r="I59" s="17"/>
+      <c r="J59" s="17"/>
+      <c r="K59" s="17"/>
+      <c r="L59" s="17"/>
+      <c r="M59" s="17"/>
+      <c r="N59" s="17"/>
+      <c r="O59" s="17"/>
     </row>
     <row r="60" spans="1:18" ht="15" x14ac:dyDescent="0.25"/>
     <row r="61" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A61" s="20" t="s">
+      <c r="A61" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="B61" s="20"/>
-      <c r="C61" s="20"/>
-      <c r="E61" s="20" t="s">
+      <c r="B61" s="14"/>
+      <c r="C61" s="14"/>
+      <c r="E61" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="F61" s="20"/>
-      <c r="G61" s="20"/>
-      <c r="H61" s="20"/>
-      <c r="I61" s="20"/>
+      <c r="F61" s="14"/>
+      <c r="G61" s="14"/>
+      <c r="H61" s="14"/>
+      <c r="I61" s="14"/>
       <c r="J61" s="2" t="s">
         <v>52</v>
       </c>
@@ -2902,30 +2902,30 @@
       <c r="L61" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="N61" s="20" t="s">
+      <c r="N61" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="O61" s="20"/>
-      <c r="Q61" s="20" t="s">
+      <c r="O61" s="14"/>
+      <c r="Q61" s="14" t="s">
         <v>466</v>
       </c>
-      <c r="R61" s="20"/>
+      <c r="R61" s="14"/>
     </row>
     <row r="62" spans="1:18" ht="15" x14ac:dyDescent="0.25"/>
     <row r="63" spans="1:18" ht="15" x14ac:dyDescent="0.25"/>
     <row r="64" spans="1:18" ht="15" x14ac:dyDescent="0.25">
-      <c r="A64" s="13">
+      <c r="A64" s="18">
         <v>13</v>
       </c>
-      <c r="B64" s="13"/>
-      <c r="C64" s="13"/>
-      <c r="E64" s="14" t="s">
+      <c r="B64" s="18"/>
+      <c r="C64" s="18"/>
+      <c r="E64" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="F64" s="14"/>
-      <c r="G64" s="14"/>
-      <c r="H64" s="14"/>
-      <c r="I64" s="14"/>
+      <c r="F64" s="19"/>
+      <c r="G64" s="19"/>
+      <c r="H64" s="19"/>
+      <c r="I64" s="19"/>
       <c r="J64" s="3" t="s">
         <v>32</v>
       </c>
@@ -2945,18 +2945,18 @@
     <row r="65" spans="1:17" ht="15" x14ac:dyDescent="0.25"/>
     <row r="66" spans="1:17" ht="15" x14ac:dyDescent="0.25"/>
     <row r="67" spans="1:17" ht="15" x14ac:dyDescent="0.25">
-      <c r="A67" s="13">
+      <c r="A67" s="18">
         <v>14</v>
       </c>
-      <c r="B67" s="13"/>
-      <c r="C67" s="13"/>
-      <c r="E67" s="14" t="s">
+      <c r="B67" s="18"/>
+      <c r="C67" s="18"/>
+      <c r="E67" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="F67" s="14"/>
-      <c r="G67" s="14"/>
-      <c r="H67" s="14"/>
-      <c r="I67" s="14"/>
+      <c r="F67" s="19"/>
+      <c r="G67" s="19"/>
+      <c r="H67" s="19"/>
+      <c r="I67" s="19"/>
       <c r="J67" s="3" t="s">
         <v>33</v>
       </c>
@@ -2976,18 +2976,18 @@
     <row r="68" spans="1:17" ht="15" x14ac:dyDescent="0.25"/>
     <row r="69" spans="1:17" ht="15" x14ac:dyDescent="0.25"/>
     <row r="70" spans="1:17" ht="15" x14ac:dyDescent="0.25">
-      <c r="A70" s="13">
+      <c r="A70" s="18">
         <v>15</v>
       </c>
-      <c r="B70" s="13"/>
-      <c r="C70" s="13"/>
-      <c r="E70" s="14" t="s">
+      <c r="B70" s="18"/>
+      <c r="C70" s="18"/>
+      <c r="E70" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="F70" s="14"/>
-      <c r="G70" s="14"/>
-      <c r="H70" s="14"/>
-      <c r="I70" s="14"/>
+      <c r="F70" s="19"/>
+      <c r="G70" s="19"/>
+      <c r="H70" s="19"/>
+      <c r="I70" s="19"/>
       <c r="J70" s="3" t="s">
         <v>33</v>
       </c>
@@ -3007,18 +3007,18 @@
     <row r="71" spans="1:17" ht="15" x14ac:dyDescent="0.25"/>
     <row r="72" spans="1:17" ht="15" x14ac:dyDescent="0.25"/>
     <row r="73" spans="1:17" ht="15" x14ac:dyDescent="0.25">
-      <c r="A73" s="13">
+      <c r="A73" s="18">
         <v>16</v>
       </c>
-      <c r="B73" s="13"/>
-      <c r="C73" s="13"/>
-      <c r="E73" s="14" t="s">
+      <c r="B73" s="18"/>
+      <c r="C73" s="18"/>
+      <c r="E73" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="F73" s="14"/>
-      <c r="G73" s="14"/>
-      <c r="H73" s="14"/>
-      <c r="I73" s="14"/>
+      <c r="F73" s="19"/>
+      <c r="G73" s="19"/>
+      <c r="H73" s="19"/>
+      <c r="I73" s="19"/>
       <c r="J73" s="3" t="s">
         <v>32</v>
       </c>
@@ -3038,18 +3038,18 @@
     <row r="74" spans="1:17" ht="15" x14ac:dyDescent="0.25"/>
     <row r="75" spans="1:17" ht="15" x14ac:dyDescent="0.25"/>
     <row r="76" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A76" s="13">
+      <c r="A76" s="18">
         <v>17</v>
       </c>
-      <c r="B76" s="13"/>
-      <c r="C76" s="13"/>
-      <c r="E76" s="14" t="s">
+      <c r="B76" s="18"/>
+      <c r="C76" s="18"/>
+      <c r="E76" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="F76" s="14"/>
-      <c r="G76" s="14"/>
-      <c r="H76" s="14"/>
-      <c r="I76" s="14"/>
+      <c r="F76" s="19"/>
+      <c r="G76" s="19"/>
+      <c r="H76" s="19"/>
+      <c r="I76" s="19"/>
       <c r="J76" s="3" t="s">
         <v>34</v>
       </c>
@@ -3071,17 +3071,17 @@
     <row r="79" spans="1:17" ht="15" x14ac:dyDescent="0.25"/>
     <row r="80" spans="1:17" ht="15" x14ac:dyDescent="0.25"/>
     <row r="81" spans="1:15" ht="15" x14ac:dyDescent="0.25">
-      <c r="B81" s="15">
+      <c r="B81" s="21">
         <v>1</v>
       </c>
-      <c r="C81" s="15"/>
-      <c r="E81" s="16" t="s">
+      <c r="C81" s="21"/>
+      <c r="E81" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="G81" s="17">
+      <c r="G81" s="23">
         <v>1</v>
       </c>
-      <c r="H81" s="17"/>
+      <c r="H81" s="23"/>
       <c r="L81" s="6" t="s">
         <v>95</v>
       </c>
@@ -3090,29 +3090,73 @@
       </c>
     </row>
     <row r="82" spans="1:15" ht="15" x14ac:dyDescent="0.25">
-      <c r="E82" s="16"/>
+      <c r="E82" s="22"/>
     </row>
     <row r="83" spans="1:15" ht="15" x14ac:dyDescent="0.25">
-      <c r="A83" s="18" t="s">
+      <c r="A83" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="B83" s="18"/>
-      <c r="C83" s="18"/>
-      <c r="D83" s="18"/>
-      <c r="E83" s="18"/>
-      <c r="F83" s="18"/>
-      <c r="G83" s="18"/>
-      <c r="H83" s="18"/>
-      <c r="I83" s="18"/>
-      <c r="J83" s="18"/>
-      <c r="K83" s="18"/>
-      <c r="L83" s="18"/>
-      <c r="M83" s="18"/>
-      <c r="N83" s="18"/>
-      <c r="O83" s="18"/>
+      <c r="B83" s="20"/>
+      <c r="C83" s="20"/>
+      <c r="D83" s="20"/>
+      <c r="E83" s="20"/>
+      <c r="F83" s="20"/>
+      <c r="G83" s="20"/>
+      <c r="H83" s="20"/>
+      <c r="I83" s="20"/>
+      <c r="J83" s="20"/>
+      <c r="K83" s="20"/>
+      <c r="L83" s="20"/>
+      <c r="M83" s="20"/>
+      <c r="N83" s="20"/>
+      <c r="O83" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="60">
+    <mergeCell ref="A83:O83"/>
+    <mergeCell ref="A67:C67"/>
+    <mergeCell ref="E67:I67"/>
+    <mergeCell ref="A70:C70"/>
+    <mergeCell ref="E70:I70"/>
+    <mergeCell ref="A73:C73"/>
+    <mergeCell ref="E73:I73"/>
+    <mergeCell ref="A76:C76"/>
+    <mergeCell ref="E76:I76"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="E81:E82"/>
+    <mergeCell ref="G81:H81"/>
+    <mergeCell ref="A59:O59"/>
+    <mergeCell ref="A61:C61"/>
+    <mergeCell ref="E61:I61"/>
+    <mergeCell ref="N61:O61"/>
+    <mergeCell ref="A64:C64"/>
+    <mergeCell ref="E64:I64"/>
+    <mergeCell ref="A49:C49"/>
+    <mergeCell ref="E49:I49"/>
+    <mergeCell ref="A52:C52"/>
+    <mergeCell ref="E52:I52"/>
+    <mergeCell ref="A55:C55"/>
+    <mergeCell ref="E55:I55"/>
+    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="E40:I40"/>
+    <mergeCell ref="A43:C43"/>
+    <mergeCell ref="E43:I43"/>
+    <mergeCell ref="A46:C46"/>
+    <mergeCell ref="E46:I46"/>
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="E37:I37"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="A20:O20"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="E22:I22"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="E25:I25"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="E28:I28"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="E31:I31"/>
+    <mergeCell ref="A35:O35"/>
     <mergeCell ref="Q7:R7"/>
     <mergeCell ref="Q22:R22"/>
     <mergeCell ref="Q37:R37"/>
@@ -3129,50 +3173,6 @@
     <mergeCell ref="E13:I13"/>
     <mergeCell ref="A16:C16"/>
     <mergeCell ref="E16:I16"/>
-    <mergeCell ref="A37:C37"/>
-    <mergeCell ref="E37:I37"/>
-    <mergeCell ref="N37:O37"/>
-    <mergeCell ref="A20:O20"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="E22:I22"/>
-    <mergeCell ref="N22:O22"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="E25:I25"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="E28:I28"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="E31:I31"/>
-    <mergeCell ref="A35:O35"/>
-    <mergeCell ref="A40:C40"/>
-    <mergeCell ref="E40:I40"/>
-    <mergeCell ref="A43:C43"/>
-    <mergeCell ref="E43:I43"/>
-    <mergeCell ref="A46:C46"/>
-    <mergeCell ref="E46:I46"/>
-    <mergeCell ref="A49:C49"/>
-    <mergeCell ref="E49:I49"/>
-    <mergeCell ref="A52:C52"/>
-    <mergeCell ref="E52:I52"/>
-    <mergeCell ref="A55:C55"/>
-    <mergeCell ref="E55:I55"/>
-    <mergeCell ref="A59:O59"/>
-    <mergeCell ref="A61:C61"/>
-    <mergeCell ref="E61:I61"/>
-    <mergeCell ref="N61:O61"/>
-    <mergeCell ref="A64:C64"/>
-    <mergeCell ref="E64:I64"/>
-    <mergeCell ref="A83:O83"/>
-    <mergeCell ref="A67:C67"/>
-    <mergeCell ref="E67:I67"/>
-    <mergeCell ref="A70:C70"/>
-    <mergeCell ref="E70:I70"/>
-    <mergeCell ref="A73:C73"/>
-    <mergeCell ref="E73:I73"/>
-    <mergeCell ref="A76:C76"/>
-    <mergeCell ref="E76:I76"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="E81:E82"/>
-    <mergeCell ref="G81:H81"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -11035,8 +11035,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7E6FED8-630B-42F3-95CC-FE97CEAD985F}">
   <dimension ref="A1:D282"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11064,7 +11064,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="1">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="D2" s="1"/>
     </row>
@@ -11076,7 +11076,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="1">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="D3" s="1"/>
     </row>
@@ -11088,7 +11088,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="9">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="D4" s="11"/>
     </row>
@@ -11100,7 +11100,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="1">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D5" s="1"/>
     </row>
@@ -11111,24 +11111,24 @@
       <c r="D6" s="11"/>
     </row>
     <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="23" t="s">
+      <c r="A7" s="24" t="s">
         <v>449</v>
       </c>
-      <c r="B7" s="23"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="23"/>
-      <c r="B8" s="23"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="23"/>
+      <c r="A8" s="24"/>
+      <c r="B8" s="24"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="23"/>
-      <c r="B9" s="23"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="23"/>
+      <c r="A9" s="24"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="24"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="10"/>
@@ -12854,7 +12854,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70A5743F-182D-40AB-B19A-F54FF0D1016F}">
   <dimension ref="A1:M49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I41" sqref="I41"/>
     </sheetView>
   </sheetViews>
@@ -13937,7 +13937,7 @@
       <c r="D2">
         <v>10000</v>
       </c>
-      <c r="E2" s="24" t="s">
+      <c r="E2" s="13" t="s">
         <v>464</v>
       </c>
       <c r="F2">
@@ -13957,7 +13957,7 @@
       <c r="D3">
         <v>15000</v>
       </c>
-      <c r="E3" s="24" t="s">
+      <c r="E3" s="13" t="s">
         <v>464</v>
       </c>
       <c r="F3">
@@ -13997,7 +13997,7 @@
       <c r="D5">
         <v>10000</v>
       </c>
-      <c r="E5" s="24" t="s">
+      <c r="E5" s="13" t="s">
         <v>453</v>
       </c>
       <c r="F5">
@@ -14017,7 +14017,7 @@
       <c r="D6">
         <v>15000</v>
       </c>
-      <c r="E6" s="24" t="s">
+      <c r="E6" s="13" t="s">
         <v>453</v>
       </c>
       <c r="F6">
@@ -14037,7 +14037,7 @@
       <c r="D7">
         <v>8000</v>
       </c>
-      <c r="E7" s="24" t="s">
+      <c r="E7" s="13" t="s">
         <v>453</v>
       </c>
       <c r="F7">
@@ -14057,7 +14057,7 @@
       <c r="D8">
         <v>10000</v>
       </c>
-      <c r="E8" s="24" t="s">
+      <c r="E8" s="13" t="s">
         <v>454</v>
       </c>
       <c r="F8">
@@ -14077,7 +14077,7 @@
       <c r="D9">
         <v>15000</v>
       </c>
-      <c r="E9" s="24" t="s">
+      <c r="E9" s="13" t="s">
         <v>454</v>
       </c>
       <c r="F9">
@@ -14097,7 +14097,7 @@
       <c r="D10">
         <v>8000</v>
       </c>
-      <c r="E10" s="24" t="s">
+      <c r="E10" s="13" t="s">
         <v>454</v>
       </c>
       <c r="F10">

--- a/TrainersSchoolingSystem/App_Data/uploads/Template.xlsx
+++ b/TrainersSchoolingSystem/App_Data/uploads/Template.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B02A73B-82A9-439E-8F79-F22623901305}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48AD9D46-FA30-4DD0-9D00-AB6801D50F98}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="709" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2685" yWindow="2685" windowWidth="21600" windowHeight="11385" tabRatio="709" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Designations" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1964" uniqueCount="634">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1966" uniqueCount="636">
   <si>
     <t>Designation</t>
   </si>
@@ -1972,6 +1972,12 @@
   </si>
   <si>
     <t>N</t>
+  </si>
+  <si>
+    <t>AdmissionFee</t>
+  </si>
+  <si>
+    <t>AnnualFee</t>
   </si>
 </sst>
 </file>
@@ -3922,8 +3928,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AL145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AA7" sqref="AA7"/>
+    <sheetView tabSelected="1" topLeftCell="A122" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C133" sqref="C133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3950,6 +3956,7 @@
     <col min="24" max="24" width="20.140625" customWidth="1"/>
     <col min="25" max="25" width="18.28515625" customWidth="1"/>
     <col min="27" max="27" width="14" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:38" x14ac:dyDescent="0.25">
@@ -4034,6 +4041,12 @@
       <c r="AA1" t="s">
         <v>631</v>
       </c>
+      <c r="AB1" t="s">
+        <v>634</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>635</v>
+      </c>
       <c r="AL1" t="s">
         <v>632</v>
       </c>
@@ -4114,6 +4127,12 @@
       <c r="AA2" t="s">
         <v>633</v>
       </c>
+      <c r="AB2">
+        <v>5000</v>
+      </c>
+      <c r="AC2">
+        <v>3000</v>
+      </c>
       <c r="AL2" t="s">
         <v>633</v>
       </c>
@@ -4197,6 +4216,12 @@
       <c r="AA3" t="s">
         <v>633</v>
       </c>
+      <c r="AB3">
+        <v>5000</v>
+      </c>
+      <c r="AC3">
+        <v>3000</v>
+      </c>
     </row>
     <row r="4" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A4">
@@ -4274,6 +4299,12 @@
       <c r="AA4" t="s">
         <v>633</v>
       </c>
+      <c r="AB4">
+        <v>5000</v>
+      </c>
+      <c r="AC4">
+        <v>3000</v>
+      </c>
     </row>
     <row r="5" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -4351,13 +4382,19 @@
       <c r="AA5" t="s">
         <v>633</v>
       </c>
+      <c r="AB5">
+        <v>5000</v>
+      </c>
+      <c r="AC5">
+        <v>3000</v>
+      </c>
     </row>
     <row r="6" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C6" t="s">
         <v>142</v>
@@ -4431,13 +4468,19 @@
       <c r="AA6" t="s">
         <v>633</v>
       </c>
+      <c r="AB6">
+        <v>5000</v>
+      </c>
+      <c r="AC6">
+        <v>3000</v>
+      </c>
     </row>
     <row r="7" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C7" t="s">
         <v>147</v>
@@ -4511,13 +4554,19 @@
       <c r="AA7" t="s">
         <v>633</v>
       </c>
+      <c r="AB7">
+        <v>5000</v>
+      </c>
+      <c r="AC7">
+        <v>3000</v>
+      </c>
     </row>
     <row r="8" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C8" t="s">
         <v>148</v>
@@ -4588,13 +4637,19 @@
       <c r="AA8" t="s">
         <v>633</v>
       </c>
+      <c r="AB8">
+        <v>5000</v>
+      </c>
+      <c r="AC8">
+        <v>3000</v>
+      </c>
     </row>
     <row r="9" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
         <v>152</v>
@@ -4668,13 +4723,19 @@
       <c r="AA9" t="s">
         <v>633</v>
       </c>
+      <c r="AB9">
+        <v>5000</v>
+      </c>
+      <c r="AC9">
+        <v>3000</v>
+      </c>
     </row>
     <row r="10" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
         <v>157</v>
@@ -4748,13 +4809,19 @@
       <c r="AA10" t="s">
         <v>633</v>
       </c>
+      <c r="AB10">
+        <v>5000</v>
+      </c>
+      <c r="AC10">
+        <v>3000</v>
+      </c>
     </row>
     <row r="11" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C11" t="s">
         <v>161</v>
@@ -4828,13 +4895,19 @@
       <c r="AA11" t="s">
         <v>633</v>
       </c>
+      <c r="AB11">
+        <v>5000</v>
+      </c>
+      <c r="AC11">
+        <v>3000</v>
+      </c>
     </row>
     <row r="12" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C12" t="s">
         <v>166</v>
@@ -4905,13 +4978,19 @@
       <c r="AA12" t="s">
         <v>633</v>
       </c>
+      <c r="AB12">
+        <v>5000</v>
+      </c>
+      <c r="AC12">
+        <v>3000</v>
+      </c>
     </row>
     <row r="13" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C13" t="s">
         <v>170</v>
@@ -4985,13 +5064,19 @@
       <c r="AA13" t="s">
         <v>633</v>
       </c>
+      <c r="AB13">
+        <v>5000</v>
+      </c>
+      <c r="AC13">
+        <v>3000</v>
+      </c>
     </row>
     <row r="14" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B14">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C14" t="s">
         <v>174</v>
@@ -5065,13 +5150,19 @@
       <c r="AA14" t="s">
         <v>633</v>
       </c>
+      <c r="AB14">
+        <v>5000</v>
+      </c>
+      <c r="AC14">
+        <v>3000</v>
+      </c>
     </row>
     <row r="15" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B15">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C15" t="s">
         <v>175</v>
@@ -5145,13 +5236,19 @@
       <c r="AA15" t="s">
         <v>633</v>
       </c>
+      <c r="AB15">
+        <v>5000</v>
+      </c>
+      <c r="AC15">
+        <v>3000</v>
+      </c>
     </row>
     <row r="16" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B16">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C16" t="s">
         <v>176</v>
@@ -5225,13 +5322,19 @@
       <c r="AA16" t="s">
         <v>633</v>
       </c>
-    </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB16">
+        <v>5000</v>
+      </c>
+      <c r="AC16">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B17">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C17" t="s">
         <v>180</v>
@@ -5302,13 +5405,19 @@
       <c r="AA17" t="s">
         <v>633</v>
       </c>
-    </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB17">
+        <v>5000</v>
+      </c>
+      <c r="AC17">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B18">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C18" t="s">
         <v>181</v>
@@ -5382,13 +5491,19 @@
       <c r="AA18" t="s">
         <v>633</v>
       </c>
-    </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB18">
+        <v>5000</v>
+      </c>
+      <c r="AC18">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B19">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C19" t="s">
         <v>550</v>
@@ -5462,13 +5577,19 @@
       <c r="AA19" t="s">
         <v>633</v>
       </c>
-    </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB19">
+        <v>5000</v>
+      </c>
+      <c r="AC19">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B20">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C20" t="s">
         <v>191</v>
@@ -5542,13 +5663,19 @@
       <c r="AA20" t="s">
         <v>633</v>
       </c>
-    </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB20">
+        <v>5000</v>
+      </c>
+      <c r="AC20">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B21">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C21" t="s">
         <v>197</v>
@@ -5616,13 +5743,19 @@
       <c r="AA21" t="s">
         <v>633</v>
       </c>
-    </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB21">
+        <v>5000</v>
+      </c>
+      <c r="AC21">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B22">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C22" t="s">
         <v>201</v>
@@ -5696,13 +5829,19 @@
       <c r="AA22" t="s">
         <v>633</v>
       </c>
-    </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB22">
+        <v>5000</v>
+      </c>
+      <c r="AC22">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B23">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C23" t="s">
         <v>207</v>
@@ -5770,13 +5909,19 @@
       <c r="AA23" t="s">
         <v>633</v>
       </c>
-    </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB23">
+        <v>5000</v>
+      </c>
+      <c r="AC23">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B24">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C24" t="s">
         <v>211</v>
@@ -5847,13 +5992,19 @@
       <c r="AA24" t="s">
         <v>633</v>
       </c>
-    </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB24">
+        <v>5000</v>
+      </c>
+      <c r="AC24">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B25">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C25" t="s">
         <v>215</v>
@@ -5921,13 +6072,19 @@
       <c r="AA25" t="s">
         <v>633</v>
       </c>
-    </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB25">
+        <v>5000</v>
+      </c>
+      <c r="AC25">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B26">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C26" t="s">
         <v>218</v>
@@ -5995,13 +6152,19 @@
       <c r="AA26" t="s">
         <v>633</v>
       </c>
-    </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB26">
+        <v>5000</v>
+      </c>
+      <c r="AC26">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B27">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C27" t="s">
         <v>219</v>
@@ -6072,13 +6235,19 @@
       <c r="AA27" t="s">
         <v>633</v>
       </c>
-    </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB27">
+        <v>5000</v>
+      </c>
+      <c r="AC27">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B28">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C28" t="s">
         <v>222</v>
@@ -6143,13 +6312,19 @@
       <c r="AA28" t="s">
         <v>633</v>
       </c>
-    </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB28">
+        <v>5000</v>
+      </c>
+      <c r="AC28">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B29">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C29" t="s">
         <v>225</v>
@@ -6220,13 +6395,19 @@
       <c r="AA29" t="s">
         <v>633</v>
       </c>
-    </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB29">
+        <v>5000</v>
+      </c>
+      <c r="AC29">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B30">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C30" t="s">
         <v>230</v>
@@ -6297,13 +6478,19 @@
       <c r="AA30" t="s">
         <v>633</v>
       </c>
-    </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB30">
+        <v>5000</v>
+      </c>
+      <c r="AC30">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B31">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C31" t="s">
         <v>231</v>
@@ -6371,13 +6558,19 @@
       <c r="AA31" t="s">
         <v>633</v>
       </c>
-    </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB31">
+        <v>5000</v>
+      </c>
+      <c r="AC31">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B32">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C32" t="s">
         <v>232</v>
@@ -6445,13 +6638,19 @@
       <c r="AA32" t="s">
         <v>633</v>
       </c>
-    </row>
-    <row r="33" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB32">
+        <v>5000</v>
+      </c>
+      <c r="AC32">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B33">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C33" t="s">
         <v>236</v>
@@ -6522,13 +6721,19 @@
       <c r="AA33" t="s">
         <v>633</v>
       </c>
-    </row>
-    <row r="34" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB33">
+        <v>5000</v>
+      </c>
+      <c r="AC33">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B34">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C34" t="s">
         <v>240</v>
@@ -6596,13 +6801,19 @@
       <c r="AA34" t="s">
         <v>633</v>
       </c>
-    </row>
-    <row r="35" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB34">
+        <v>5000</v>
+      </c>
+      <c r="AC34">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B35">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C35" t="s">
         <v>241</v>
@@ -6673,13 +6884,19 @@
       <c r="AA35" t="s">
         <v>633</v>
       </c>
-    </row>
-    <row r="36" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB35">
+        <v>5000</v>
+      </c>
+      <c r="AC35">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B36">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C36" t="s">
         <v>245</v>
@@ -6747,13 +6964,19 @@
       <c r="AA36" t="s">
         <v>633</v>
       </c>
-    </row>
-    <row r="37" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB36">
+        <v>5000</v>
+      </c>
+      <c r="AC36">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B37">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C37" t="s">
         <v>249</v>
@@ -6827,13 +7050,19 @@
       <c r="AA37" t="s">
         <v>633</v>
       </c>
-    </row>
-    <row r="38" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB37">
+        <v>5000</v>
+      </c>
+      <c r="AC37">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B38">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C38" t="s">
         <v>255</v>
@@ -6907,13 +7136,19 @@
       <c r="AA38" t="s">
         <v>633</v>
       </c>
-    </row>
-    <row r="39" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB38">
+        <v>5000</v>
+      </c>
+      <c r="AC38">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B39">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C39" t="s">
         <v>256</v>
@@ -6981,13 +7216,19 @@
       <c r="AA39" t="s">
         <v>633</v>
       </c>
-    </row>
-    <row r="40" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB39">
+        <v>5000</v>
+      </c>
+      <c r="AC39">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B40">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C40" t="s">
         <v>257</v>
@@ -7061,13 +7302,19 @@
       <c r="AA40" t="s">
         <v>633</v>
       </c>
-    </row>
-    <row r="41" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB40">
+        <v>5000</v>
+      </c>
+      <c r="AC40">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B41">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C41" t="s">
         <v>263</v>
@@ -7141,13 +7388,19 @@
       <c r="AA41" t="s">
         <v>633</v>
       </c>
-    </row>
-    <row r="42" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB41">
+        <v>5000</v>
+      </c>
+      <c r="AC41">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="42" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B42">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C42" t="s">
         <v>267</v>
@@ -7218,13 +7471,19 @@
       <c r="AA42" t="s">
         <v>633</v>
       </c>
-    </row>
-    <row r="43" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB42">
+        <v>5000</v>
+      </c>
+      <c r="AC42">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B43">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C43" t="s">
         <v>271</v>
@@ -7295,13 +7554,19 @@
       <c r="AA43" t="s">
         <v>633</v>
       </c>
-    </row>
-    <row r="44" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB43">
+        <v>5000</v>
+      </c>
+      <c r="AC43">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B44">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C44" t="s">
         <v>274</v>
@@ -7372,13 +7637,19 @@
       <c r="AA44" t="s">
         <v>633</v>
       </c>
-    </row>
-    <row r="45" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB44">
+        <v>5000</v>
+      </c>
+      <c r="AC44">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B45">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C45" t="s">
         <v>278</v>
@@ -7449,13 +7720,19 @@
       <c r="AA45" t="s">
         <v>633</v>
       </c>
-    </row>
-    <row r="46" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB45">
+        <v>5000</v>
+      </c>
+      <c r="AC45">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="46" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B46">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C46" t="s">
         <v>279</v>
@@ -7526,13 +7803,19 @@
       <c r="AA46" t="s">
         <v>633</v>
       </c>
-    </row>
-    <row r="47" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB46">
+        <v>5000</v>
+      </c>
+      <c r="AC46">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="47" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B47">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C47" t="s">
         <v>281</v>
@@ -7603,13 +7886,19 @@
       <c r="AA47" t="s">
         <v>633</v>
       </c>
-    </row>
-    <row r="48" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB47">
+        <v>5000</v>
+      </c>
+      <c r="AC47">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="48" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B48">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C48" t="s">
         <v>282</v>
@@ -7683,13 +7972,19 @@
       <c r="AA48" t="s">
         <v>633</v>
       </c>
-    </row>
-    <row r="49" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB48">
+        <v>5000</v>
+      </c>
+      <c r="AC48">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="49" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B49">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C49" t="s">
         <v>287</v>
@@ -7754,13 +8049,19 @@
       <c r="AA49" t="s">
         <v>633</v>
       </c>
-    </row>
-    <row r="50" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB49">
+        <v>5000</v>
+      </c>
+      <c r="AC49">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="50" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B50">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C50" t="s">
         <v>289</v>
@@ -7831,13 +8132,19 @@
       <c r="AA50" t="s">
         <v>633</v>
       </c>
-    </row>
-    <row r="51" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB50">
+        <v>5000</v>
+      </c>
+      <c r="AC50">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="51" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B51">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C51" t="s">
         <v>294</v>
@@ -7905,13 +8212,19 @@
       <c r="AA51" t="s">
         <v>633</v>
       </c>
-    </row>
-    <row r="52" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB51">
+        <v>5000</v>
+      </c>
+      <c r="AC51">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="52" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B52">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C52" t="s">
         <v>298</v>
@@ -7976,13 +8289,19 @@
       <c r="AA52" t="s">
         <v>633</v>
       </c>
-    </row>
-    <row r="53" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB52">
+        <v>5000</v>
+      </c>
+      <c r="AC52">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="53" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B53">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C53" t="s">
         <v>301</v>
@@ -8047,13 +8366,19 @@
       <c r="AA53" t="s">
         <v>633</v>
       </c>
-    </row>
-    <row r="54" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB53">
+        <v>5000</v>
+      </c>
+      <c r="AC53">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="54" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B54">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C54" t="s">
         <v>304</v>
@@ -8127,13 +8452,19 @@
       <c r="AA54" t="s">
         <v>633</v>
       </c>
-    </row>
-    <row r="55" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB54">
+        <v>5000</v>
+      </c>
+      <c r="AC54">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="55" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B55">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C55" t="s">
         <v>305</v>
@@ -8204,13 +8535,19 @@
       <c r="AA55" t="s">
         <v>633</v>
       </c>
-    </row>
-    <row r="56" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB55">
+        <v>5000</v>
+      </c>
+      <c r="AC55">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="56" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B56">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C56" t="s">
         <v>308</v>
@@ -8284,13 +8621,19 @@
       <c r="AA56" t="s">
         <v>633</v>
       </c>
-    </row>
-    <row r="57" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB56">
+        <v>5000</v>
+      </c>
+      <c r="AC56">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="57" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B57">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C57" t="s">
         <v>621</v>
@@ -8358,13 +8701,19 @@
       <c r="AA57" t="s">
         <v>633</v>
       </c>
-    </row>
-    <row r="58" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB57">
+        <v>5000</v>
+      </c>
+      <c r="AC57">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="58" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B58">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C58" t="s">
         <v>312</v>
@@ -8432,13 +8781,19 @@
       <c r="AA58" t="s">
         <v>633</v>
       </c>
-    </row>
-    <row r="59" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB58">
+        <v>5000</v>
+      </c>
+      <c r="AC58">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="59" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B59">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C59" t="s">
         <v>315</v>
@@ -8506,13 +8861,19 @@
       <c r="AA59" t="s">
         <v>633</v>
       </c>
-    </row>
-    <row r="60" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB59">
+        <v>5000</v>
+      </c>
+      <c r="AC59">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="60" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B60">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C60" t="s">
         <v>616</v>
@@ -8580,13 +8941,19 @@
       <c r="AA60" t="s">
         <v>633</v>
       </c>
-    </row>
-    <row r="61" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB60">
+        <v>5000</v>
+      </c>
+      <c r="AC60">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="61" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B61">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C61" t="s">
         <v>318</v>
@@ -8654,13 +9021,19 @@
       <c r="AA61" t="s">
         <v>633</v>
       </c>
-    </row>
-    <row r="62" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB61">
+        <v>5000</v>
+      </c>
+      <c r="AC61">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="62" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B62">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C62" t="s">
         <v>322</v>
@@ -8728,13 +9101,19 @@
       <c r="AA62" t="s">
         <v>633</v>
       </c>
-    </row>
-    <row r="63" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB62">
+        <v>5000</v>
+      </c>
+      <c r="AC62">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="63" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B63">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C63" t="s">
         <v>326</v>
@@ -8802,13 +9181,19 @@
       <c r="AA63" t="s">
         <v>633</v>
       </c>
-    </row>
-    <row r="64" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB63">
+        <v>5000</v>
+      </c>
+      <c r="AC63">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="64" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B64">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C64" t="s">
         <v>327</v>
@@ -8876,13 +9261,19 @@
       <c r="AA64" t="s">
         <v>633</v>
       </c>
-    </row>
-    <row r="65" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB64">
+        <v>5000</v>
+      </c>
+      <c r="AC64">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="65" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B65">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C65" t="s">
         <v>331</v>
@@ -8947,13 +9338,19 @@
       <c r="AA65" t="s">
         <v>633</v>
       </c>
-    </row>
-    <row r="66" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB65">
+        <v>5000</v>
+      </c>
+      <c r="AC65">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="66" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B66">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C66" t="s">
         <v>613</v>
@@ -9021,13 +9418,19 @@
       <c r="AA66" t="s">
         <v>633</v>
       </c>
-    </row>
-    <row r="67" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB66">
+        <v>5000</v>
+      </c>
+      <c r="AC66">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="67" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B67">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C67" t="s">
         <v>334</v>
@@ -9092,13 +9495,19 @@
       <c r="AA67" t="s">
         <v>633</v>
       </c>
-    </row>
-    <row r="68" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB67">
+        <v>5000</v>
+      </c>
+      <c r="AC67">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="68" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B68">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C68" t="s">
         <v>336</v>
@@ -9163,13 +9572,19 @@
       <c r="AA68" t="s">
         <v>633</v>
       </c>
-    </row>
-    <row r="69" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB68">
+        <v>5000</v>
+      </c>
+      <c r="AC68">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="69" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B69">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C69" t="s">
         <v>338</v>
@@ -9240,13 +9655,19 @@
       <c r="AA69" t="s">
         <v>633</v>
       </c>
-    </row>
-    <row r="70" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB69">
+        <v>5000</v>
+      </c>
+      <c r="AC69">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="70" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B70">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C70" t="s">
         <v>341</v>
@@ -9317,13 +9738,19 @@
       <c r="AA70" t="s">
         <v>633</v>
       </c>
-    </row>
-    <row r="71" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB70">
+        <v>5000</v>
+      </c>
+      <c r="AC70">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="71" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B71">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C71" t="s">
         <v>282</v>
@@ -9397,13 +9824,19 @@
       <c r="AA71" t="s">
         <v>633</v>
       </c>
-    </row>
-    <row r="72" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB71">
+        <v>5000</v>
+      </c>
+      <c r="AC71">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="72" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B72">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C72" t="s">
         <v>348</v>
@@ -9477,13 +9910,19 @@
       <c r="AA72" t="s">
         <v>633</v>
       </c>
-    </row>
-    <row r="73" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB72">
+        <v>5000</v>
+      </c>
+      <c r="AC72">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="73" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B73">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C73" t="s">
         <v>349</v>
@@ -9548,13 +9987,19 @@
       <c r="AA73" t="s">
         <v>633</v>
       </c>
-    </row>
-    <row r="74" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB73">
+        <v>5000</v>
+      </c>
+      <c r="AC73">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="74" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B74">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C74" t="s">
         <v>351</v>
@@ -9616,13 +10061,19 @@
       <c r="AA74" t="s">
         <v>633</v>
       </c>
-    </row>
-    <row r="75" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB74">
+        <v>5000</v>
+      </c>
+      <c r="AC74">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="75" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B75">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C75" t="s">
         <v>354</v>
@@ -9687,13 +10138,19 @@
       <c r="AA75" t="s">
         <v>633</v>
       </c>
-    </row>
-    <row r="76" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB75">
+        <v>5000</v>
+      </c>
+      <c r="AC75">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="76" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B76">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C76" t="s">
         <v>357</v>
@@ -9764,13 +10221,19 @@
       <c r="AA76" t="s">
         <v>633</v>
       </c>
-    </row>
-    <row r="77" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB76">
+        <v>5000</v>
+      </c>
+      <c r="AC76">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="77" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B77">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C77" t="s">
         <v>360</v>
@@ -9844,13 +10307,19 @@
       <c r="AA77" t="s">
         <v>633</v>
       </c>
-    </row>
-    <row r="78" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB77">
+        <v>5000</v>
+      </c>
+      <c r="AC77">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="78" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B78">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C78" t="s">
         <v>366</v>
@@ -9918,13 +10387,19 @@
       <c r="AA78" t="s">
         <v>633</v>
       </c>
-    </row>
-    <row r="79" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB78">
+        <v>5000</v>
+      </c>
+      <c r="AC78">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="79" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B79">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C79" t="s">
         <v>370</v>
@@ -9989,13 +10464,19 @@
       <c r="AA79" t="s">
         <v>633</v>
       </c>
-    </row>
-    <row r="80" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB79">
+        <v>5000</v>
+      </c>
+      <c r="AC79">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="80" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B80">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C80" t="s">
         <v>371</v>
@@ -10063,13 +10544,19 @@
       <c r="AA80" t="s">
         <v>633</v>
       </c>
-    </row>
-    <row r="81" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB80">
+        <v>5000</v>
+      </c>
+      <c r="AC80">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="81" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B81">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C81" t="s">
         <v>375</v>
@@ -10140,13 +10627,19 @@
       <c r="AA81" t="s">
         <v>633</v>
       </c>
-    </row>
-    <row r="82" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB81">
+        <v>5000</v>
+      </c>
+      <c r="AC81">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="82" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B82">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C82" t="s">
         <v>379</v>
@@ -10217,13 +10710,19 @@
       <c r="AA82" t="s">
         <v>633</v>
       </c>
-    </row>
-    <row r="83" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB82">
+        <v>5000</v>
+      </c>
+      <c r="AC82">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="83" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B83">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C83" t="s">
         <v>380</v>
@@ -10288,13 +10787,19 @@
       <c r="AA83" t="s">
         <v>633</v>
       </c>
-    </row>
-    <row r="84" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB83">
+        <v>5000</v>
+      </c>
+      <c r="AC83">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="84" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B84">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C84" t="s">
         <v>382</v>
@@ -10368,13 +10873,19 @@
       <c r="AA84" t="s">
         <v>633</v>
       </c>
-    </row>
-    <row r="85" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB84">
+        <v>5000</v>
+      </c>
+      <c r="AC84">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="85" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B85">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C85" t="s">
         <v>385</v>
@@ -10439,13 +10950,19 @@
       <c r="AA85" t="s">
         <v>633</v>
       </c>
-    </row>
-    <row r="86" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB85">
+        <v>5000</v>
+      </c>
+      <c r="AC85">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="86" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B86">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C86" t="s">
         <v>388</v>
@@ -10513,13 +11030,19 @@
       <c r="AA86" t="s">
         <v>633</v>
       </c>
-    </row>
-    <row r="87" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB86">
+        <v>5000</v>
+      </c>
+      <c r="AC86">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="87" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B87">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C87" t="s">
         <v>391</v>
@@ -10587,13 +11110,19 @@
       <c r="AA87" t="s">
         <v>633</v>
       </c>
-    </row>
-    <row r="88" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB87">
+        <v>5000</v>
+      </c>
+      <c r="AC87">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="88" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B88">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C88" t="s">
         <v>393</v>
@@ -10664,13 +11193,19 @@
       <c r="AA88" t="s">
         <v>633</v>
       </c>
-    </row>
-    <row r="89" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB88">
+        <v>5000</v>
+      </c>
+      <c r="AC88">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="89" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B89">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C89" t="s">
         <v>397</v>
@@ -10741,13 +11276,19 @@
       <c r="AA89" t="s">
         <v>633</v>
       </c>
-    </row>
-    <row r="90" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB89">
+        <v>5000</v>
+      </c>
+      <c r="AC89">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="90" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B90">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C90" t="s">
         <v>398</v>
@@ -10809,13 +11350,19 @@
       <c r="AA90" t="s">
         <v>633</v>
       </c>
-    </row>
-    <row r="91" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB90">
+        <v>5000</v>
+      </c>
+      <c r="AC90">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="91" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B91">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C91" t="s">
         <v>401</v>
@@ -10883,13 +11430,19 @@
       <c r="AA91" t="s">
         <v>633</v>
       </c>
-    </row>
-    <row r="92" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB91">
+        <v>5000</v>
+      </c>
+      <c r="AC91">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="92" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B92">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C92" t="s">
         <v>405</v>
@@ -10951,13 +11504,19 @@
       <c r="AA92" t="s">
         <v>633</v>
       </c>
-    </row>
-    <row r="93" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB92">
+        <v>5000</v>
+      </c>
+      <c r="AC92">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="93" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B93">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C93" t="s">
         <v>407</v>
@@ -11022,13 +11581,19 @@
       <c r="AA93" t="s">
         <v>633</v>
       </c>
-    </row>
-    <row r="94" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB93">
+        <v>5000</v>
+      </c>
+      <c r="AC93">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="94" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B94">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C94" t="s">
         <v>409</v>
@@ -11093,13 +11658,19 @@
       <c r="AA94" t="s">
         <v>633</v>
       </c>
-    </row>
-    <row r="95" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB94">
+        <v>5000</v>
+      </c>
+      <c r="AC94">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="95" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B95">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C95" t="s">
         <v>622</v>
@@ -11173,13 +11744,19 @@
       <c r="AA95" t="s">
         <v>633</v>
       </c>
-    </row>
-    <row r="96" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB95">
+        <v>5000</v>
+      </c>
+      <c r="AC95">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="96" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B96">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C96" t="s">
         <v>410</v>
@@ -11244,13 +11821,19 @@
       <c r="AA96" t="s">
         <v>633</v>
       </c>
-    </row>
-    <row r="97" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB96">
+        <v>5000</v>
+      </c>
+      <c r="AC96">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="97" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B97">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C97" t="s">
         <v>413</v>
@@ -11321,13 +11904,19 @@
       <c r="AA97" t="s">
         <v>633</v>
       </c>
-    </row>
-    <row r="98" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB97">
+        <v>5000</v>
+      </c>
+      <c r="AC97">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="98" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B98">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C98" t="s">
         <v>414</v>
@@ -11392,13 +11981,19 @@
       <c r="AA98" t="s">
         <v>633</v>
       </c>
-    </row>
-    <row r="99" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB98">
+        <v>5000</v>
+      </c>
+      <c r="AC98">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="99" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B99">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C99" t="s">
         <v>416</v>
@@ -11463,13 +12058,19 @@
       <c r="AA99" t="s">
         <v>633</v>
       </c>
-    </row>
-    <row r="100" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB99">
+        <v>5000</v>
+      </c>
+      <c r="AC99">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="100" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B100">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C100" t="s">
         <v>417</v>
@@ -11534,13 +12135,19 @@
       <c r="AA100" t="s">
         <v>633</v>
       </c>
-    </row>
-    <row r="101" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB100">
+        <v>5000</v>
+      </c>
+      <c r="AC100">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="101" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B101">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C101" t="s">
         <v>282</v>
@@ -11605,13 +12212,19 @@
       <c r="AA101" t="s">
         <v>633</v>
       </c>
-    </row>
-    <row r="102" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB101">
+        <v>5000</v>
+      </c>
+      <c r="AC101">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="102" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B102">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C102" t="s">
         <v>421</v>
@@ -11679,13 +12292,19 @@
       <c r="AA102" t="s">
         <v>633</v>
       </c>
-    </row>
-    <row r="103" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB102">
+        <v>5000</v>
+      </c>
+      <c r="AC102">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="103" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B103">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C103" t="s">
         <v>422</v>
@@ -11753,13 +12372,19 @@
       <c r="AA103" t="s">
         <v>633</v>
       </c>
-    </row>
-    <row r="104" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB103">
+        <v>5000</v>
+      </c>
+      <c r="AC103">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="104" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A104">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B104">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C104" t="s">
         <v>123</v>
@@ -11821,13 +12446,19 @@
       <c r="AA104" t="s">
         <v>633</v>
       </c>
-    </row>
-    <row r="105" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB104">
+        <v>5000</v>
+      </c>
+      <c r="AC104">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="105" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A105">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B105">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C105" t="s">
         <v>465</v>
@@ -11889,13 +12520,19 @@
       <c r="AA105" t="s">
         <v>633</v>
       </c>
-    </row>
-    <row r="106" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB105">
+        <v>5000</v>
+      </c>
+      <c r="AC105">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="106" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A106">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B106">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C106" t="s">
         <v>249</v>
@@ -11963,13 +12600,19 @@
       <c r="AA106" t="s">
         <v>633</v>
       </c>
-    </row>
-    <row r="107" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB106">
+        <v>5000</v>
+      </c>
+      <c r="AC106">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="107" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B107">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C107" t="s">
         <v>474</v>
@@ -12037,13 +12680,19 @@
       <c r="AA107" t="s">
         <v>633</v>
       </c>
-    </row>
-    <row r="108" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB107">
+        <v>5000</v>
+      </c>
+      <c r="AC107">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="108" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A108">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B108">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C108" t="s">
         <v>480</v>
@@ -12111,13 +12760,19 @@
       <c r="AA108" t="s">
         <v>633</v>
       </c>
-    </row>
-    <row r="109" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB108">
+        <v>5000</v>
+      </c>
+      <c r="AC108">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="109" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A109">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B109">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C109" t="s">
         <v>485</v>
@@ -12185,13 +12840,19 @@
       <c r="AA109" t="s">
         <v>633</v>
       </c>
-    </row>
-    <row r="110" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB109">
+        <v>5000</v>
+      </c>
+      <c r="AC109">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="110" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A110">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B110">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C110" t="s">
         <v>489</v>
@@ -12259,13 +12920,19 @@
       <c r="AA110" t="s">
         <v>632</v>
       </c>
-    </row>
-    <row r="111" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB110">
+        <v>5000</v>
+      </c>
+      <c r="AC110">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="111" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A111">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B111">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C111" t="s">
         <v>493</v>
@@ -12333,13 +13000,19 @@
       <c r="AA111" t="s">
         <v>632</v>
       </c>
-    </row>
-    <row r="112" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB111">
+        <v>5000</v>
+      </c>
+      <c r="AC111">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="112" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A112">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B112">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C112" t="s">
         <v>498</v>
@@ -12407,13 +13080,19 @@
       <c r="AA112" t="s">
         <v>632</v>
       </c>
-    </row>
-    <row r="113" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB112">
+        <v>5000</v>
+      </c>
+      <c r="AC112">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="113" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A113">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B113">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C113" t="s">
         <v>501</v>
@@ -12481,13 +13160,19 @@
       <c r="AA113" t="s">
         <v>632</v>
       </c>
-    </row>
-    <row r="114" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB113">
+        <v>5000</v>
+      </c>
+      <c r="AC113">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="114" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A114">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B114">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C114" t="s">
         <v>505</v>
@@ -12555,13 +13240,19 @@
       <c r="AA114" t="s">
         <v>632</v>
       </c>
-    </row>
-    <row r="115" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB114">
+        <v>5000</v>
+      </c>
+      <c r="AC114">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="115" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A115">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B115">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C115" t="s">
         <v>509</v>
@@ -12629,13 +13320,19 @@
       <c r="AA115" t="s">
         <v>632</v>
       </c>
-    </row>
-    <row r="116" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB115">
+        <v>5000</v>
+      </c>
+      <c r="AC115">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="116" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A116">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B116">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C116" t="s">
         <v>398</v>
@@ -12703,13 +13400,19 @@
       <c r="AA116" t="s">
         <v>632</v>
       </c>
-    </row>
-    <row r="117" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB116">
+        <v>5000</v>
+      </c>
+      <c r="AC116">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="117" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A117">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B117">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C117" t="s">
         <v>516</v>
@@ -12777,13 +13480,19 @@
       <c r="AA117" t="s">
         <v>632</v>
       </c>
-    </row>
-    <row r="118" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB117">
+        <v>5000</v>
+      </c>
+      <c r="AC117">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="118" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A118">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B118">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C118" t="s">
         <v>520</v>
@@ -12848,13 +13557,19 @@
       <c r="AA118" t="s">
         <v>632</v>
       </c>
-    </row>
-    <row r="119" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB118">
+        <v>5000</v>
+      </c>
+      <c r="AC118">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="119" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A119">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B119">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C119" t="s">
         <v>525</v>
@@ -12922,13 +13637,19 @@
       <c r="AA119" t="s">
         <v>632</v>
       </c>
-    </row>
-    <row r="120" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB119">
+        <v>5000</v>
+      </c>
+      <c r="AC119">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="120" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A120">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B120">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C120" t="s">
         <v>528</v>
@@ -12996,13 +13717,19 @@
       <c r="AA120" t="s">
         <v>632</v>
       </c>
-    </row>
-    <row r="121" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB120">
+        <v>5000</v>
+      </c>
+      <c r="AC120">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="121" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A121">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B121">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C121" t="s">
         <v>532</v>
@@ -13070,13 +13797,19 @@
       <c r="AA121" t="s">
         <v>632</v>
       </c>
-    </row>
-    <row r="122" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB121">
+        <v>5000</v>
+      </c>
+      <c r="AC121">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="122" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A122">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B122">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C122" t="s">
         <v>536</v>
@@ -13144,13 +13877,19 @@
       <c r="AA122" t="s">
         <v>632</v>
       </c>
-    </row>
-    <row r="123" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB122">
+        <v>5000</v>
+      </c>
+      <c r="AC122">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="123" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A123">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B123">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C123" t="s">
         <v>540</v>
@@ -13215,13 +13954,19 @@
       <c r="AA123" t="s">
         <v>632</v>
       </c>
-    </row>
-    <row r="124" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB123">
+        <v>5000</v>
+      </c>
+      <c r="AC123">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="124" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A124">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B124">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C124" t="s">
         <v>546</v>
@@ -13289,13 +14034,19 @@
       <c r="AA124" t="s">
         <v>632</v>
       </c>
-    </row>
-    <row r="125" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB124">
+        <v>5000</v>
+      </c>
+      <c r="AC124">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="125" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A125">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B125">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C125" t="s">
         <v>551</v>
@@ -13363,13 +14114,19 @@
       <c r="AA125" t="s">
         <v>632</v>
       </c>
-    </row>
-    <row r="126" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB125">
+        <v>5000</v>
+      </c>
+      <c r="AC125">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="126" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A126">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B126">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C126" t="s">
         <v>398</v>
@@ -13437,13 +14194,19 @@
       <c r="AA126" t="s">
         <v>632</v>
       </c>
-    </row>
-    <row r="127" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB126">
+        <v>5000</v>
+      </c>
+      <c r="AC126">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="127" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A127">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B127">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C127" t="s">
         <v>554</v>
@@ -13508,13 +14271,19 @@
       <c r="AA127" t="s">
         <v>632</v>
       </c>
-    </row>
-    <row r="128" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB127">
+        <v>5000</v>
+      </c>
+      <c r="AC127">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="128" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A128">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B128">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C128" t="s">
         <v>555</v>
@@ -13582,13 +14351,19 @@
       <c r="AA128" t="s">
         <v>632</v>
       </c>
-    </row>
-    <row r="129" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB128">
+        <v>5000</v>
+      </c>
+      <c r="AC128">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="129" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A129">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B129">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C129" t="s">
         <v>558</v>
@@ -13656,13 +14431,19 @@
       <c r="AA129" t="s">
         <v>632</v>
       </c>
-    </row>
-    <row r="130" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB129">
+        <v>5000</v>
+      </c>
+      <c r="AC129">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="130" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A130">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B130">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C130" t="s">
         <v>563</v>
@@ -13736,13 +14517,19 @@
       <c r="AA130" t="s">
         <v>632</v>
       </c>
-    </row>
-    <row r="131" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB130">
+        <v>5000</v>
+      </c>
+      <c r="AC130">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="131" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A131">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B131">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C131" t="s">
         <v>565</v>
@@ -13813,13 +14600,19 @@
       <c r="AA131" t="s">
         <v>632</v>
       </c>
-    </row>
-    <row r="132" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB131">
+        <v>5000</v>
+      </c>
+      <c r="AC131">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="132" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A132">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B132">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C132" t="s">
         <v>569</v>
@@ -13887,13 +14680,19 @@
       <c r="AA132" t="s">
         <v>632</v>
       </c>
-    </row>
-    <row r="133" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB132">
+        <v>5000</v>
+      </c>
+      <c r="AC132">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="133" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A133">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B133">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C133" t="s">
         <v>570</v>
@@ -13961,13 +14760,19 @@
       <c r="AA133" t="s">
         <v>632</v>
       </c>
-    </row>
-    <row r="134" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB133">
+        <v>5000</v>
+      </c>
+      <c r="AC133">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="134" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A134">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B134">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C134" t="s">
         <v>573</v>
@@ -14035,13 +14840,19 @@
       <c r="AA134" t="s">
         <v>632</v>
       </c>
-    </row>
-    <row r="135" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB134">
+        <v>5000</v>
+      </c>
+      <c r="AC134">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="135" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A135">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B135">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C135" t="s">
         <v>574</v>
@@ -14109,13 +14920,19 @@
       <c r="AA135" t="s">
         <v>632</v>
       </c>
-    </row>
-    <row r="136" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB135">
+        <v>5000</v>
+      </c>
+      <c r="AC135">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="136" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A136">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B136">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C136" t="s">
         <v>579</v>
@@ -14186,13 +15003,19 @@
       <c r="AA136" t="s">
         <v>632</v>
       </c>
-    </row>
-    <row r="137" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB136">
+        <v>5000</v>
+      </c>
+      <c r="AC136">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="137" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A137">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B137">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C137" t="s">
         <v>582</v>
@@ -14260,13 +15083,19 @@
       <c r="AA137" t="s">
         <v>632</v>
       </c>
-    </row>
-    <row r="138" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB137">
+        <v>5000</v>
+      </c>
+      <c r="AC137">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="138" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A138">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B138">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C138" t="s">
         <v>584</v>
@@ -14334,13 +15163,19 @@
       <c r="AA138" t="s">
         <v>632</v>
       </c>
-    </row>
-    <row r="139" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB138">
+        <v>5000</v>
+      </c>
+      <c r="AC138">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="139" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A139">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B139">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C139" t="s">
         <v>589</v>
@@ -14408,13 +15243,19 @@
       <c r="AA139" t="s">
         <v>632</v>
       </c>
-    </row>
-    <row r="140" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB139">
+        <v>5000</v>
+      </c>
+      <c r="AC139">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="140" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A140">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B140">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C140" t="s">
         <v>593</v>
@@ -14482,13 +15323,19 @@
       <c r="AA140" t="s">
         <v>632</v>
       </c>
-    </row>
-    <row r="141" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB140">
+        <v>5000</v>
+      </c>
+      <c r="AC140">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="141" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A141">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B141">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C141" t="s">
         <v>600</v>
@@ -14556,13 +15403,19 @@
       <c r="AA141" t="s">
         <v>632</v>
       </c>
-    </row>
-    <row r="142" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB141">
+        <v>5000</v>
+      </c>
+      <c r="AC141">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="142" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A142">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B142">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C142" t="s">
         <v>282</v>
@@ -14630,13 +15483,19 @@
       <c r="AA142" t="s">
         <v>632</v>
       </c>
-    </row>
-    <row r="143" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB142">
+        <v>5000</v>
+      </c>
+      <c r="AC142">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="143" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A143">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B143">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C143" t="s">
         <v>608</v>
@@ -14704,13 +15563,19 @@
       <c r="AA143" t="s">
         <v>632</v>
       </c>
-    </row>
-    <row r="144" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB143">
+        <v>5000</v>
+      </c>
+      <c r="AC143">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="144" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A144">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B144">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C144" t="s">
         <v>624</v>
@@ -14778,13 +15643,19 @@
       <c r="AA144" t="s">
         <v>632</v>
       </c>
-    </row>
-    <row r="145" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB144">
+        <v>5000</v>
+      </c>
+      <c r="AC144">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="145" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A145">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B145">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C145" t="s">
         <v>630</v>
@@ -14849,6 +15720,12 @@
       </c>
       <c r="AA145" t="s">
         <v>632</v>
+      </c>
+      <c r="AB145">
+        <v>5000</v>
+      </c>
+      <c r="AC145">
+        <v>3000</v>
       </c>
     </row>
   </sheetData>
@@ -16674,7 +17551,7 @@
   <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16763,9 +17640,13 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations count="1">
+  <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Error selecting a month" error="Please enter a valid month name" sqref="D1:D1048576" xr:uid="{00000000-0002-0000-0700-000000000000}">
       <formula1>$M$2:$M$13</formula1>
+    </dataValidation>
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Enter only number" sqref="F1:F1048576" xr:uid="{C46F2640-1FD7-44FF-8843-AEFBE3357728}">
+      <formula1>1</formula1>
+      <formula2>31</formula2>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/TrainersSchoolingSystem/App_Data/uploads/Template.xlsx
+++ b/TrainersSchoolingSystem/App_Data/uploads/Template.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48AD9D46-FA30-4DD0-9D00-AB6801D50F98}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2365C616-21CC-4A3A-9942-4FBA0760C38D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2685" yWindow="2685" windowWidth="21600" windowHeight="11385" tabRatio="709" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3928,8 +3928,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AL145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A122" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C133" sqref="C133"/>
+    <sheetView tabSelected="1" topLeftCell="A132" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AC145" sqref="AC145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15644,10 +15644,10 @@
         <v>632</v>
       </c>
       <c r="AB144">
-        <v>5000</v>
+        <v>2000</v>
       </c>
       <c r="AC144">
-        <v>3000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="145" spans="1:29" x14ac:dyDescent="0.25">
@@ -15722,10 +15722,10 @@
         <v>632</v>
       </c>
       <c r="AB145">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="AC145">
-        <v>3000</v>
+        <v>2000</v>
       </c>
     </row>
   </sheetData>

--- a/TrainersSchoolingSystem/App_Data/uploads/Template.xlsx
+++ b/TrainersSchoolingSystem/App_Data/uploads/Template.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2365C616-21CC-4A3A-9942-4FBA0760C38D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56C28F18-01FE-4879-9C55-4B11A92FDB38}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2685" yWindow="2685" windowWidth="21600" windowHeight="11385" tabRatio="709" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1966" uniqueCount="636">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1954" uniqueCount="636">
   <si>
     <t>Designation</t>
   </si>
@@ -2163,7 +2163,218 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="21">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -3928,8 +4139,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AL145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A132" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AC145" sqref="AC145"/>
+    <sheetView tabSelected="1" topLeftCell="A129" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E150" sqref="E150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8876,55 +9087,55 @@
         <v>59</v>
       </c>
       <c r="C60" t="s">
-        <v>616</v>
+        <v>318</v>
       </c>
       <c r="D60" t="s">
-        <v>617</v>
+        <v>319</v>
       </c>
       <c r="E60">
-        <v>114</v>
+        <v>48</v>
       </c>
       <c r="F60" t="s">
         <v>125</v>
       </c>
-      <c r="G60" s="14" t="s">
-        <v>618</v>
-      </c>
-      <c r="H60" s="13">
-        <v>43554</v>
+      <c r="H60" s="8">
+        <v>43381</v>
       </c>
       <c r="I60">
-        <v>3453791639</v>
+        <v>3122716423</v>
       </c>
       <c r="J60" t="s">
-        <v>126</v>
-      </c>
-      <c r="K60" t="s">
-        <v>619</v>
+        <v>320</v>
       </c>
       <c r="L60" t="s">
-        <v>595</v>
+        <v>321</v>
       </c>
       <c r="M60" t="s">
-        <v>620</v>
-      </c>
-      <c r="N60">
-        <v>3453791639</v>
+        <v>141</v>
+      </c>
+      <c r="N60" t="s">
+        <v>129</v>
+      </c>
+      <c r="O60">
+        <v>0</v>
       </c>
       <c r="Q60">
-        <v>20000</v>
-      </c>
-      <c r="R60">
-        <v>3453791639</v>
+        <v>15000</v>
+      </c>
+      <c r="R60" t="s">
+        <v>129</v>
       </c>
       <c r="S60">
-        <v>59</v>
+        <v>60</v>
+      </c>
+      <c r="T60">
+        <v>0</v>
       </c>
       <c r="U60" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="V60" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="W60" t="s">
         <v>42</v>
@@ -8933,7 +9144,7 @@
         <v>3000</v>
       </c>
       <c r="Y60">
-        <v>2200</v>
+        <v>1000</v>
       </c>
       <c r="Z60" t="s">
         <v>130</v>
@@ -8956,31 +9167,31 @@
         <v>60</v>
       </c>
       <c r="C61" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="D61" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="E61">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F61" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="H61" s="8">
         <v>43381</v>
       </c>
       <c r="I61">
-        <v>3122716423</v>
+        <v>3422280847</v>
       </c>
       <c r="J61" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="L61" t="s">
-        <v>321</v>
+        <v>164</v>
       </c>
       <c r="M61" t="s">
-        <v>141</v>
+        <v>325</v>
       </c>
       <c r="N61" t="s">
         <v>129</v>
@@ -8989,22 +9200,22 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>15000</v>
-      </c>
-      <c r="R61" t="s">
-        <v>129</v>
+        <v>25000</v>
+      </c>
+      <c r="R61">
+        <v>3413072430</v>
       </c>
       <c r="S61">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T61">
         <v>0</v>
       </c>
       <c r="U61" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="V61" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="W61" t="s">
         <v>42</v>
@@ -9013,7 +9224,7 @@
         <v>3000</v>
       </c>
       <c r="Y61">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="Z61" t="s">
         <v>130</v>
@@ -9036,7 +9247,7 @@
         <v>61</v>
       </c>
       <c r="C62" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="D62" t="s">
         <v>323</v>
@@ -9045,7 +9256,7 @@
         <v>49</v>
       </c>
       <c r="F62" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="H62" s="8">
         <v>43381</v>
@@ -9075,16 +9286,16 @@
         <v>3413072430</v>
       </c>
       <c r="S62">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="T62">
         <v>0</v>
       </c>
       <c r="U62" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="V62" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="W62" t="s">
         <v>42</v>
@@ -9116,13 +9327,13 @@
         <v>62</v>
       </c>
       <c r="C63" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D63" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="E63">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F63" t="s">
         <v>125</v>
@@ -9131,16 +9342,16 @@
         <v>43381</v>
       </c>
       <c r="I63">
-        <v>3422280847</v>
-      </c>
-      <c r="J63" t="s">
-        <v>324</v>
+        <v>3122515785</v>
+      </c>
+      <c r="K63" t="s">
+        <v>329</v>
       </c>
       <c r="L63" t="s">
-        <v>164</v>
+        <v>91</v>
       </c>
       <c r="M63" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="N63" t="s">
         <v>129</v>
@@ -9152,19 +9363,19 @@
         <v>25000</v>
       </c>
       <c r="R63">
-        <v>3413072430</v>
+        <v>3122515785</v>
       </c>
       <c r="S63">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T63">
         <v>0</v>
       </c>
       <c r="U63" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="V63" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="W63" t="s">
         <v>42</v>
@@ -9173,7 +9384,7 @@
         <v>3000</v>
       </c>
       <c r="Y63">
-        <v>2000</v>
+        <v>2200</v>
       </c>
       <c r="Z63" t="s">
         <v>130</v>
@@ -9196,31 +9407,28 @@
         <v>63</v>
       </c>
       <c r="C64" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="D64" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="E64">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F64" t="s">
-        <v>125</v>
+        <v>139</v>
+      </c>
+      <c r="G64" s="8">
+        <v>40739</v>
       </c>
       <c r="H64" s="8">
-        <v>43381</v>
+        <v>43391</v>
       </c>
       <c r="I64">
-        <v>3122515785</v>
-      </c>
-      <c r="K64" t="s">
-        <v>329</v>
-      </c>
-      <c r="L64" t="s">
-        <v>91</v>
+        <v>3212553507</v>
       </c>
       <c r="M64" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="N64" t="s">
         <v>129</v>
@@ -9229,22 +9437,22 @@
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>25000</v>
-      </c>
-      <c r="R64">
-        <v>3122515785</v>
+        <v>40000</v>
+      </c>
+      <c r="R64" t="s">
+        <v>129</v>
       </c>
       <c r="S64">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="T64">
         <v>0</v>
       </c>
       <c r="U64" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="V64" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="W64" t="s">
         <v>42</v>
@@ -9276,52 +9484,55 @@
         <v>64</v>
       </c>
       <c r="C65" t="s">
-        <v>331</v>
+        <v>613</v>
       </c>
       <c r="D65" t="s">
-        <v>332</v>
+        <v>614</v>
       </c>
       <c r="E65">
-        <v>51</v>
+        <v>113</v>
       </c>
       <c r="F65" t="s">
-        <v>139</v>
-      </c>
-      <c r="G65" s="8">
-        <v>40739</v>
-      </c>
-      <c r="H65" s="8">
-        <v>43391</v>
+        <v>125</v>
+      </c>
+      <c r="G65" s="13">
+        <v>40009</v>
+      </c>
+      <c r="H65" s="13">
+        <v>43550</v>
       </c>
       <c r="I65">
-        <v>3212553507</v>
+        <v>3009269474</v>
+      </c>
+      <c r="J65" t="s">
+        <v>150</v>
+      </c>
+      <c r="K65" t="s">
+        <v>134</v>
+      </c>
+      <c r="L65" t="s">
+        <v>483</v>
       </c>
       <c r="M65" t="s">
-        <v>333</v>
-      </c>
-      <c r="N65" t="s">
-        <v>129</v>
-      </c>
-      <c r="O65">
-        <v>0</v>
+        <v>615</v>
+      </c>
+      <c r="N65">
+        <v>3452668036</v>
       </c>
       <c r="Q65">
-        <v>40000</v>
-      </c>
-      <c r="R65" t="s">
-        <v>129</v>
+        <v>22000</v>
+      </c>
+      <c r="R65">
+        <v>3452668036</v>
       </c>
       <c r="S65">
-        <v>64</v>
-      </c>
-      <c r="T65">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="U65" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="V65" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="W65" t="s">
         <v>42</v>
@@ -9353,55 +9564,52 @@
         <v>65</v>
       </c>
       <c r="C66" t="s">
-        <v>613</v>
+        <v>334</v>
       </c>
       <c r="D66" t="s">
-        <v>614</v>
+        <v>335</v>
       </c>
       <c r="E66">
-        <v>113</v>
+        <v>53</v>
       </c>
       <c r="F66" t="s">
-        <v>125</v>
-      </c>
-      <c r="G66" s="13">
-        <v>40009</v>
-      </c>
-      <c r="H66" s="13">
-        <v>43550</v>
+        <v>139</v>
+      </c>
+      <c r="G66" s="8">
+        <v>42621</v>
+      </c>
+      <c r="H66" s="8">
+        <v>43410</v>
       </c>
       <c r="I66">
-        <v>3009269474</v>
-      </c>
-      <c r="J66" t="s">
-        <v>150</v>
-      </c>
-      <c r="K66" t="s">
-        <v>134</v>
-      </c>
-      <c r="L66" t="s">
-        <v>483</v>
+        <v>3432397871</v>
       </c>
       <c r="M66" t="s">
-        <v>615</v>
-      </c>
-      <c r="N66">
-        <v>3452668036</v>
+        <v>141</v>
+      </c>
+      <c r="N66" t="s">
+        <v>129</v>
+      </c>
+      <c r="O66">
+        <v>0</v>
       </c>
       <c r="Q66">
-        <v>22000</v>
+        <v>0</v>
       </c>
       <c r="R66">
-        <v>3452668036</v>
+        <v>3212318038</v>
       </c>
       <c r="S66">
-        <v>65</v>
+        <v>66</v>
+      </c>
+      <c r="T66">
+        <v>0</v>
       </c>
       <c r="U66" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="V66" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="W66" t="s">
         <v>42</v>
@@ -9433,25 +9641,25 @@
         <v>66</v>
       </c>
       <c r="C67" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="D67" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="E67">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F67" t="s">
         <v>139</v>
       </c>
       <c r="G67" s="8">
-        <v>42621</v>
+        <v>41355</v>
       </c>
       <c r="H67" s="8">
-        <v>43410</v>
-      </c>
-      <c r="I67">
-        <v>3432397871</v>
+        <v>43418</v>
+      </c>
+      <c r="I67" t="s">
+        <v>129</v>
       </c>
       <c r="M67" t="s">
         <v>141</v>
@@ -9465,20 +9673,20 @@
       <c r="Q67">
         <v>0</v>
       </c>
-      <c r="R67">
-        <v>3212318038</v>
+      <c r="R67" t="s">
+        <v>129</v>
       </c>
       <c r="S67">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="T67">
         <v>0</v>
       </c>
       <c r="U67" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="V67" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="W67" t="s">
         <v>42</v>
@@ -9510,25 +9718,31 @@
         <v>67</v>
       </c>
       <c r="C68" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="D68" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="E68">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F68" t="s">
         <v>139</v>
       </c>
       <c r="G68" s="8">
-        <v>41355</v>
+        <v>42307</v>
       </c>
       <c r="H68" s="8">
-        <v>43418</v>
-      </c>
-      <c r="I68" t="s">
-        <v>129</v>
+        <v>43472</v>
+      </c>
+      <c r="I68">
+        <v>3144770334</v>
+      </c>
+      <c r="K68" t="s">
+        <v>340</v>
+      </c>
+      <c r="L68" t="s">
+        <v>91</v>
       </c>
       <c r="M68" t="s">
         <v>141</v>
@@ -9540,22 +9754,22 @@
         <v>0</v>
       </c>
       <c r="Q68">
-        <v>0</v>
-      </c>
-      <c r="R68" t="s">
-        <v>129</v>
+        <v>23000</v>
+      </c>
+      <c r="R68">
+        <v>3321128987</v>
       </c>
       <c r="S68">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="T68">
         <v>0</v>
       </c>
       <c r="U68" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="V68" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="W68" t="s">
         <v>42</v>
@@ -9587,34 +9801,34 @@
         <v>68</v>
       </c>
       <c r="C69" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="D69" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="E69">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F69" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="G69" s="8">
-        <v>42307</v>
+        <v>41338</v>
       </c>
       <c r="H69" s="8">
-        <v>43472</v>
+        <v>43494</v>
       </c>
       <c r="I69">
-        <v>3144770334</v>
-      </c>
-      <c r="K69" t="s">
-        <v>340</v>
+        <v>3232003958</v>
+      </c>
+      <c r="J69" t="s">
+        <v>187</v>
       </c>
       <c r="L69" t="s">
         <v>91</v>
       </c>
       <c r="M69" t="s">
-        <v>141</v>
+        <v>343</v>
       </c>
       <c r="N69" t="s">
         <v>129</v>
@@ -9623,22 +9837,22 @@
         <v>0</v>
       </c>
       <c r="Q69">
-        <v>23000</v>
-      </c>
-      <c r="R69">
-        <v>3321128987</v>
+        <v>19000</v>
+      </c>
+      <c r="R69" t="s">
+        <v>129</v>
       </c>
       <c r="S69">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="T69">
         <v>0</v>
       </c>
       <c r="U69" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="V69" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="W69" t="s">
         <v>42</v>
@@ -9670,34 +9884,37 @@
         <v>69</v>
       </c>
       <c r="C70" t="s">
-        <v>341</v>
+        <v>282</v>
       </c>
       <c r="D70" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="E70">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F70" t="s">
         <v>125</v>
       </c>
       <c r="G70" s="8">
-        <v>41338</v>
+        <v>40896</v>
       </c>
       <c r="H70" s="8">
         <v>43494</v>
       </c>
       <c r="I70">
-        <v>3232003958</v>
+        <v>3232385143</v>
       </c>
       <c r="J70" t="s">
-        <v>187</v>
+        <v>345</v>
+      </c>
+      <c r="K70" t="s">
+        <v>346</v>
       </c>
       <c r="L70" t="s">
-        <v>91</v>
+        <v>59</v>
       </c>
       <c r="M70" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="N70" t="s">
         <v>129</v>
@@ -9706,22 +9923,22 @@
         <v>0</v>
       </c>
       <c r="Q70">
-        <v>19000</v>
-      </c>
-      <c r="R70" t="s">
-        <v>129</v>
+        <v>60000</v>
+      </c>
+      <c r="R70">
+        <v>3150285026</v>
       </c>
       <c r="S70">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="T70">
         <v>0</v>
       </c>
       <c r="U70" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="V70" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="W70" t="s">
         <v>42</v>
@@ -9753,7 +9970,7 @@
         <v>70</v>
       </c>
       <c r="C71" t="s">
-        <v>282</v>
+        <v>348</v>
       </c>
       <c r="D71" t="s">
         <v>344</v>
@@ -9765,7 +9982,7 @@
         <v>125</v>
       </c>
       <c r="G71" s="8">
-        <v>40896</v>
+        <v>41956</v>
       </c>
       <c r="H71" s="8">
         <v>43494</v>
@@ -9798,16 +10015,16 @@
         <v>3150285026</v>
       </c>
       <c r="S71">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T71">
         <v>0</v>
       </c>
       <c r="U71" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="V71" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="W71" t="s">
         <v>42</v>
@@ -9839,37 +10056,28 @@
         <v>71</v>
       </c>
       <c r="C72" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D72" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="E72">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F72" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="G72" s="8">
-        <v>41956</v>
+        <v>40159</v>
       </c>
       <c r="H72" s="8">
         <v>43494</v>
       </c>
-      <c r="I72">
-        <v>3232385143</v>
-      </c>
-      <c r="J72" t="s">
-        <v>345</v>
-      </c>
-      <c r="K72" t="s">
-        <v>346</v>
-      </c>
-      <c r="L72" t="s">
-        <v>59</v>
+      <c r="I72" t="s">
+        <v>129</v>
       </c>
       <c r="M72" t="s">
-        <v>347</v>
+        <v>141</v>
       </c>
       <c r="N72" t="s">
         <v>129</v>
@@ -9878,22 +10086,22 @@
         <v>0</v>
       </c>
       <c r="Q72">
-        <v>60000</v>
+        <v>0</v>
       </c>
       <c r="R72">
-        <v>3150285026</v>
+        <v>3452815708</v>
       </c>
       <c r="S72">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T72">
         <v>0</v>
       </c>
       <c r="U72" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="V72" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="W72" t="s">
         <v>42</v>
@@ -9902,7 +10110,7 @@
         <v>3000</v>
       </c>
       <c r="Y72">
-        <v>2200</v>
+        <v>1800</v>
       </c>
       <c r="Z72" t="s">
         <v>130</v>
@@ -9925,28 +10133,25 @@
         <v>72</v>
       </c>
       <c r="C73" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="D73" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="E73">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F73" t="s">
-        <v>139</v>
-      </c>
-      <c r="G73" s="8">
-        <v>40159</v>
+        <v>125</v>
       </c>
       <c r="H73" s="8">
-        <v>43494</v>
+        <v>43498</v>
       </c>
       <c r="I73" t="s">
         <v>129</v>
       </c>
       <c r="M73" t="s">
-        <v>141</v>
+        <v>353</v>
       </c>
       <c r="N73" t="s">
         <v>129</v>
@@ -9957,20 +10162,20 @@
       <c r="Q73">
         <v>0</v>
       </c>
-      <c r="R73">
-        <v>3452815708</v>
+      <c r="R73" t="s">
+        <v>129</v>
       </c>
       <c r="S73">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T73">
         <v>0</v>
       </c>
       <c r="U73" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="V73" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="W73" t="s">
         <v>42</v>
@@ -9979,7 +10184,7 @@
         <v>3000</v>
       </c>
       <c r="Y73">
-        <v>1800</v>
+        <v>2200</v>
       </c>
       <c r="Z73" t="s">
         <v>130</v>
@@ -10002,25 +10207,28 @@
         <v>73</v>
       </c>
       <c r="C74" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="D74" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="E74">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F74" t="s">
-        <v>125</v>
+        <v>139</v>
+      </c>
+      <c r="G74" s="8">
+        <v>40516</v>
       </c>
       <c r="H74" s="8">
-        <v>43498</v>
-      </c>
-      <c r="I74" t="s">
-        <v>129</v>
+        <v>43502</v>
+      </c>
+      <c r="I74">
+        <v>3002283857</v>
       </c>
       <c r="M74" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="N74" t="s">
         <v>129</v>
@@ -10035,16 +10243,16 @@
         <v>129</v>
       </c>
       <c r="S74">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T74">
         <v>0</v>
       </c>
       <c r="U74" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="V74" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="W74" t="s">
         <v>42</v>
@@ -10076,28 +10284,34 @@
         <v>74</v>
       </c>
       <c r="C75" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="D75" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="E75">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F75" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="G75" s="8">
-        <v>40516</v>
+        <v>41599</v>
       </c>
       <c r="H75" s="8">
-        <v>43502</v>
-      </c>
-      <c r="I75">
-        <v>3002283857</v>
+        <v>43505</v>
+      </c>
+      <c r="I75" t="s">
+        <v>129</v>
+      </c>
+      <c r="J75" t="s">
+        <v>359</v>
+      </c>
+      <c r="L75" t="s">
+        <v>59</v>
       </c>
       <c r="M75" t="s">
-        <v>356</v>
+        <v>141</v>
       </c>
       <c r="N75" t="s">
         <v>129</v>
@@ -10106,22 +10320,22 @@
         <v>0</v>
       </c>
       <c r="Q75">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="R75" t="s">
         <v>129</v>
       </c>
       <c r="S75">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T75">
         <v>0</v>
       </c>
       <c r="U75" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="V75" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="W75" t="s">
         <v>42</v>
@@ -10153,34 +10367,37 @@
         <v>75</v>
       </c>
       <c r="C76" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="D76" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="E76">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F76" t="s">
         <v>125</v>
       </c>
       <c r="G76" s="8">
-        <v>41599</v>
+        <v>39450</v>
       </c>
       <c r="H76" s="8">
-        <v>43505</v>
-      </c>
-      <c r="I76" t="s">
-        <v>129</v>
+        <v>43508</v>
+      </c>
+      <c r="I76">
+        <v>3218757083</v>
       </c>
       <c r="J76" t="s">
-        <v>359</v>
+        <v>362</v>
+      </c>
+      <c r="K76" t="s">
+        <v>363</v>
       </c>
       <c r="L76" t="s">
-        <v>59</v>
+        <v>364</v>
       </c>
       <c r="M76" t="s">
-        <v>141</v>
+        <v>365</v>
       </c>
       <c r="N76" t="s">
         <v>129</v>
@@ -10189,22 +10406,22 @@
         <v>0</v>
       </c>
       <c r="Q76">
-        <v>30000</v>
-      </c>
-      <c r="R76" t="s">
-        <v>129</v>
+        <v>60000</v>
+      </c>
+      <c r="R76">
+        <v>3432576434</v>
       </c>
       <c r="S76">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T76">
         <v>0</v>
       </c>
       <c r="U76" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="V76" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="W76" t="s">
         <v>42</v>
@@ -10236,37 +10453,31 @@
         <v>76</v>
       </c>
       <c r="C77" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="D77" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="E77">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F77" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="G77" s="8">
-        <v>39450</v>
+        <v>39707</v>
       </c>
       <c r="H77" s="8">
-        <v>43508</v>
+        <v>43498</v>
       </c>
       <c r="I77">
-        <v>3218757083</v>
+        <v>3002598197</v>
       </c>
       <c r="J77" t="s">
-        <v>362</v>
-      </c>
-      <c r="K77" t="s">
-        <v>363</v>
-      </c>
-      <c r="L77" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="M77" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="N77" t="s">
         <v>129</v>
@@ -10275,13 +10486,13 @@
         <v>0</v>
       </c>
       <c r="Q77">
-        <v>60000</v>
+        <v>30000</v>
       </c>
       <c r="R77">
-        <v>3432576434</v>
+        <v>3435746313</v>
       </c>
       <c r="S77">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T77">
         <v>0</v>
@@ -10322,7 +10533,7 @@
         <v>77</v>
       </c>
       <c r="C78" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="D78" t="s">
         <v>367</v>
@@ -10333,9 +10544,6 @@
       <c r="F78" t="s">
         <v>139</v>
       </c>
-      <c r="G78" s="8">
-        <v>39707</v>
-      </c>
       <c r="H78" s="8">
         <v>43498</v>
       </c>
@@ -10361,16 +10569,16 @@
         <v>3435746313</v>
       </c>
       <c r="S78">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T78">
         <v>0</v>
       </c>
       <c r="U78" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="V78" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="W78" t="s">
         <v>42</v>
@@ -10402,28 +10610,31 @@
         <v>78</v>
       </c>
       <c r="C79" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D79" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="E79">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F79" t="s">
         <v>139</v>
       </c>
+      <c r="G79" s="8">
+        <v>41480</v>
+      </c>
       <c r="H79" s="8">
-        <v>43498</v>
+        <v>43508</v>
       </c>
       <c r="I79">
-        <v>3002598197</v>
-      </c>
-      <c r="J79" t="s">
-        <v>368</v>
+        <v>3219814873</v>
+      </c>
+      <c r="K79" t="s">
+        <v>373</v>
       </c>
       <c r="M79" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="N79" t="s">
         <v>129</v>
@@ -10438,16 +10649,16 @@
         <v>3435746313</v>
       </c>
       <c r="S79">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T79">
         <v>0</v>
       </c>
       <c r="U79" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="V79" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="W79" t="s">
         <v>42</v>
@@ -10479,31 +10690,34 @@
         <v>79</v>
       </c>
       <c r="C80" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="D80" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="E80">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F80" t="s">
         <v>139</v>
       </c>
       <c r="G80" s="8">
-        <v>41480</v>
+        <v>40900</v>
       </c>
       <c r="H80" s="8">
-        <v>43508</v>
+        <v>43510</v>
       </c>
       <c r="I80">
-        <v>3219814873</v>
-      </c>
-      <c r="K80" t="s">
-        <v>373</v>
+        <v>3412533533</v>
+      </c>
+      <c r="J80" t="s">
+        <v>377</v>
+      </c>
+      <c r="L80" t="s">
+        <v>378</v>
       </c>
       <c r="M80" t="s">
-        <v>374</v>
+        <v>141</v>
       </c>
       <c r="N80" t="s">
         <v>129</v>
@@ -10512,22 +10726,22 @@
         <v>0</v>
       </c>
       <c r="Q80">
-        <v>30000</v>
+        <v>20000</v>
       </c>
       <c r="R80">
-        <v>3435746313</v>
+        <v>3442169050</v>
       </c>
       <c r="S80">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T80">
         <v>0</v>
       </c>
       <c r="U80" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="V80" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="W80" t="s">
         <v>42</v>
@@ -10559,7 +10773,7 @@
         <v>80</v>
       </c>
       <c r="C81" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="D81" t="s">
         <v>376</v>
@@ -10571,7 +10785,7 @@
         <v>139</v>
       </c>
       <c r="G81" s="8">
-        <v>40900</v>
+        <v>41631</v>
       </c>
       <c r="H81" s="8">
         <v>43510</v>
@@ -10601,16 +10815,16 @@
         <v>3442169050</v>
       </c>
       <c r="S81">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="T81">
         <v>0</v>
       </c>
       <c r="U81" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="V81" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="W81" t="s">
         <v>42</v>
@@ -10619,7 +10833,7 @@
         <v>3000</v>
       </c>
       <c r="Y81">
-        <v>2200</v>
+        <v>3000</v>
       </c>
       <c r="Z81" t="s">
         <v>130</v>
@@ -10642,31 +10856,25 @@
         <v>81</v>
       </c>
       <c r="C82" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="D82" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="E82">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F82" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="G82" s="8">
-        <v>41631</v>
+        <v>42335</v>
       </c>
       <c r="H82" s="8">
         <v>43510</v>
       </c>
       <c r="I82">
-        <v>3412533533</v>
-      </c>
-      <c r="J82" t="s">
-        <v>377</v>
-      </c>
-      <c r="L82" t="s">
-        <v>378</v>
+        <v>3152839498</v>
       </c>
       <c r="M82" t="s">
         <v>141</v>
@@ -10678,22 +10886,22 @@
         <v>0</v>
       </c>
       <c r="Q82">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="R82">
-        <v>3442169050</v>
+        <v>3162201036</v>
       </c>
       <c r="S82">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="T82">
         <v>0</v>
       </c>
       <c r="U82" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="V82" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="W82" t="s">
         <v>42</v>
@@ -10702,7 +10910,7 @@
         <v>3000</v>
       </c>
       <c r="Y82">
-        <v>3000</v>
+        <v>2200</v>
       </c>
       <c r="Z82" t="s">
         <v>130</v>
@@ -10725,28 +10933,37 @@
         <v>82</v>
       </c>
       <c r="C83" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="D83" t="s">
-        <v>381</v>
+        <v>123</v>
       </c>
       <c r="E83">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F83" t="s">
         <v>125</v>
       </c>
       <c r="G83" s="8">
-        <v>42335</v>
+        <v>42375</v>
       </c>
       <c r="H83" s="8">
-        <v>43510</v>
+        <v>43512</v>
       </c>
       <c r="I83">
-        <v>3152839498</v>
+        <v>3122722646</v>
+      </c>
+      <c r="J83" t="s">
+        <v>136</v>
+      </c>
+      <c r="K83" t="s">
+        <v>383</v>
+      </c>
+      <c r="L83" t="s">
+        <v>59</v>
       </c>
       <c r="M83" t="s">
-        <v>141</v>
+        <v>384</v>
       </c>
       <c r="N83" t="s">
         <v>129</v>
@@ -10755,13 +10972,13 @@
         <v>0</v>
       </c>
       <c r="Q83">
-        <v>30000</v>
+        <v>20000</v>
       </c>
       <c r="R83">
-        <v>3162201036</v>
+        <v>3102823285</v>
       </c>
       <c r="S83">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="T83">
         <v>0</v>
@@ -10802,37 +11019,28 @@
         <v>83</v>
       </c>
       <c r="C84" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="D84" t="s">
-        <v>123</v>
+        <v>386</v>
       </c>
       <c r="E84">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F84" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="G84" s="8">
-        <v>42375</v>
+        <v>42262</v>
       </c>
       <c r="H84" s="8">
-        <v>43512</v>
+        <v>43521</v>
       </c>
       <c r="I84">
-        <v>3122722646</v>
-      </c>
-      <c r="J84" t="s">
-        <v>136</v>
-      </c>
-      <c r="K84" t="s">
-        <v>383</v>
-      </c>
-      <c r="L84" t="s">
-        <v>59</v>
+        <v>3453349155</v>
       </c>
       <c r="M84" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="N84" t="s">
         <v>129</v>
@@ -10841,13 +11049,13 @@
         <v>0</v>
       </c>
       <c r="Q84">
-        <v>20000</v>
+        <v>38000</v>
       </c>
       <c r="R84">
-        <v>3102823285</v>
+        <v>3172886063</v>
       </c>
       <c r="S84">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="T84">
         <v>0</v>
@@ -10888,28 +11096,31 @@
         <v>84</v>
       </c>
       <c r="C85" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="D85" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="E85">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F85" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="G85" s="8">
-        <v>42262</v>
+        <v>42348</v>
       </c>
       <c r="H85" s="8">
-        <v>43521</v>
+        <v>43522</v>
       </c>
       <c r="I85">
-        <v>3453349155</v>
+        <v>3212464113</v>
+      </c>
+      <c r="J85" t="s">
+        <v>126</v>
       </c>
       <c r="M85" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="N85" t="s">
         <v>129</v>
@@ -10918,13 +11129,13 @@
         <v>0</v>
       </c>
       <c r="Q85">
-        <v>38000</v>
-      </c>
-      <c r="R85">
-        <v>3172886063</v>
+        <v>50000</v>
+      </c>
+      <c r="R85" t="s">
+        <v>129</v>
       </c>
       <c r="S85">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="T85">
         <v>0</v>
@@ -10965,31 +11176,31 @@
         <v>85</v>
       </c>
       <c r="C86" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="D86" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="E86">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F86" t="s">
         <v>125</v>
       </c>
       <c r="G86" s="8">
-        <v>42348</v>
+        <v>42283</v>
       </c>
       <c r="H86" s="8">
         <v>43522</v>
       </c>
       <c r="I86">
-        <v>3212464113</v>
-      </c>
-      <c r="J86" t="s">
-        <v>126</v>
+        <v>3212433719</v>
+      </c>
+      <c r="L86" t="s">
+        <v>59</v>
       </c>
       <c r="M86" t="s">
-        <v>390</v>
+        <v>141</v>
       </c>
       <c r="N86" t="s">
         <v>129</v>
@@ -10998,13 +11209,13 @@
         <v>0</v>
       </c>
       <c r="Q86">
-        <v>50000</v>
+        <v>40000</v>
       </c>
       <c r="R86" t="s">
         <v>129</v>
       </c>
       <c r="S86">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="T86">
         <v>0</v>
@@ -11045,28 +11256,31 @@
         <v>86</v>
       </c>
       <c r="C87" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="D87" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="E87">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F87" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="G87" s="8">
-        <v>42283</v>
+        <v>41702</v>
       </c>
       <c r="H87" s="8">
         <v>43522</v>
       </c>
       <c r="I87">
-        <v>3212433719</v>
+        <v>3408731930</v>
+      </c>
+      <c r="J87" t="s">
+        <v>395</v>
       </c>
       <c r="L87" t="s">
-        <v>59</v>
+        <v>396</v>
       </c>
       <c r="M87" t="s">
         <v>141</v>
@@ -11078,22 +11292,22 @@
         <v>0</v>
       </c>
       <c r="Q87">
-        <v>40000</v>
+        <v>35000</v>
       </c>
       <c r="R87" t="s">
         <v>129</v>
       </c>
       <c r="S87">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="T87">
         <v>0</v>
       </c>
       <c r="U87" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="V87" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="W87" t="s">
         <v>42</v>
@@ -11125,58 +11339,58 @@
         <v>87</v>
       </c>
       <c r="C88" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="D88" t="s">
-        <v>394</v>
+        <v>149</v>
       </c>
       <c r="E88">
-        <v>71</v>
+        <v>7</v>
       </c>
       <c r="F88" t="s">
         <v>139</v>
       </c>
       <c r="G88" s="8">
-        <v>41702</v>
+        <v>42599</v>
       </c>
       <c r="H88" s="8">
         <v>43522</v>
       </c>
       <c r="I88">
-        <v>3408731930</v>
+        <v>3333407729</v>
       </c>
       <c r="J88" t="s">
-        <v>395</v>
+        <v>150</v>
       </c>
       <c r="L88" t="s">
-        <v>396</v>
+        <v>127</v>
       </c>
       <c r="M88" t="s">
-        <v>141</v>
-      </c>
-      <c r="N88" t="s">
-        <v>129</v>
+        <v>151</v>
+      </c>
+      <c r="N88">
+        <v>2135044172</v>
       </c>
       <c r="O88">
         <v>0</v>
       </c>
       <c r="Q88">
-        <v>35000</v>
-      </c>
-      <c r="R88" t="s">
-        <v>129</v>
+        <v>20000</v>
+      </c>
+      <c r="R88">
+        <v>3333407729</v>
       </c>
       <c r="S88">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="T88">
         <v>0</v>
       </c>
       <c r="U88" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="V88" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="W88" t="s">
         <v>42</v>
@@ -11208,49 +11422,40 @@
         <v>88</v>
       </c>
       <c r="C89" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="D89" t="s">
-        <v>149</v>
+        <v>399</v>
       </c>
       <c r="E89">
-        <v>7</v>
+        <v>72</v>
       </c>
       <c r="F89" t="s">
-        <v>139</v>
-      </c>
-      <c r="G89" s="8">
-        <v>42599</v>
+        <v>125</v>
       </c>
       <c r="H89" s="8">
         <v>43522</v>
       </c>
       <c r="I89">
-        <v>3333407729</v>
-      </c>
-      <c r="J89" t="s">
-        <v>150</v>
-      </c>
-      <c r="L89" t="s">
-        <v>127</v>
+        <v>3121002411</v>
       </c>
       <c r="M89" t="s">
-        <v>151</v>
-      </c>
-      <c r="N89">
-        <v>2135044172</v>
+        <v>400</v>
+      </c>
+      <c r="N89" t="s">
+        <v>129</v>
       </c>
       <c r="O89">
         <v>0</v>
       </c>
       <c r="Q89">
-        <v>20000</v>
+        <v>35000</v>
       </c>
       <c r="R89">
-        <v>3333407729</v>
+        <v>3121002412</v>
       </c>
       <c r="S89">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="T89">
         <v>0</v>
@@ -11291,25 +11496,31 @@
         <v>89</v>
       </c>
       <c r="C90" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="D90" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="E90">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F90" t="s">
-        <v>125</v>
+        <v>139</v>
+      </c>
+      <c r="G90" s="8">
+        <v>39596</v>
       </c>
       <c r="H90" s="8">
         <v>43522</v>
       </c>
       <c r="I90">
-        <v>3121002411</v>
+        <v>3463156600</v>
+      </c>
+      <c r="L90" t="s">
+        <v>403</v>
       </c>
       <c r="M90" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="N90" t="s">
         <v>129</v>
@@ -11318,22 +11529,22 @@
         <v>0</v>
       </c>
       <c r="Q90">
-        <v>35000</v>
+        <v>50000</v>
       </c>
       <c r="R90">
-        <v>3121002412</v>
+        <v>3222726254</v>
       </c>
       <c r="S90">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="T90">
         <v>0</v>
       </c>
       <c r="U90" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="V90" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="W90" t="s">
         <v>42</v>
@@ -11365,31 +11576,25 @@
         <v>90</v>
       </c>
       <c r="C91" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="D91" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="E91">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F91" t="s">
-        <v>139</v>
-      </c>
-      <c r="G91" s="8">
-        <v>39596</v>
+        <v>125</v>
       </c>
       <c r="H91" s="8">
         <v>43522</v>
       </c>
       <c r="I91">
-        <v>3463156600</v>
-      </c>
-      <c r="L91" t="s">
-        <v>403</v>
+        <v>3168636194</v>
       </c>
       <c r="M91" t="s">
-        <v>404</v>
+        <v>141</v>
       </c>
       <c r="N91" t="s">
         <v>129</v>
@@ -11398,22 +11603,22 @@
         <v>0</v>
       </c>
       <c r="Q91">
-        <v>50000</v>
-      </c>
-      <c r="R91">
-        <v>3222726254</v>
+        <v>35000</v>
+      </c>
+      <c r="R91" t="s">
+        <v>129</v>
       </c>
       <c r="S91">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="T91">
         <v>0</v>
       </c>
       <c r="U91" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="V91" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="W91" t="s">
         <v>42</v>
@@ -11445,22 +11650,25 @@
         <v>91</v>
       </c>
       <c r="C92" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="D92" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="E92">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F92" t="s">
-        <v>125</v>
+        <v>139</v>
+      </c>
+      <c r="G92" s="8">
+        <v>41233</v>
       </c>
       <c r="H92" s="8">
         <v>43522</v>
       </c>
       <c r="I92">
-        <v>3168636194</v>
+        <v>3360829567</v>
       </c>
       <c r="M92" t="s">
         <v>141</v>
@@ -11472,22 +11680,22 @@
         <v>0</v>
       </c>
       <c r="Q92">
-        <v>35000</v>
+        <v>0</v>
       </c>
       <c r="R92" t="s">
         <v>129</v>
       </c>
       <c r="S92">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="T92">
         <v>0</v>
       </c>
       <c r="U92" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="V92" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="W92" t="s">
         <v>42</v>
@@ -11519,7 +11727,7 @@
         <v>92</v>
       </c>
       <c r="C93" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="D93" t="s">
         <v>408</v>
@@ -11531,7 +11739,7 @@
         <v>139</v>
       </c>
       <c r="G93" s="8">
-        <v>41233</v>
+        <v>42104</v>
       </c>
       <c r="H93" s="8">
         <v>43522</v>
@@ -11555,16 +11763,16 @@
         <v>129</v>
       </c>
       <c r="S93">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="T93">
         <v>0</v>
       </c>
       <c r="U93" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="V93" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="W93" t="s">
         <v>42</v>
@@ -11596,52 +11804,61 @@
         <v>93</v>
       </c>
       <c r="C94" t="s">
-        <v>409</v>
+        <v>622</v>
       </c>
       <c r="D94" t="s">
-        <v>408</v>
+        <v>186</v>
       </c>
       <c r="E94">
-        <v>75</v>
+        <v>15</v>
       </c>
       <c r="F94" t="s">
         <v>139</v>
       </c>
       <c r="G94" s="8">
-        <v>42104</v>
+        <v>40646</v>
       </c>
       <c r="H94" s="8">
         <v>43522</v>
       </c>
       <c r="I94">
-        <v>3360829567</v>
+        <v>3082398871</v>
+      </c>
+      <c r="J94" t="s">
+        <v>187</v>
+      </c>
+      <c r="K94" t="s">
+        <v>188</v>
+      </c>
+      <c r="L94" t="s">
+        <v>189</v>
       </c>
       <c r="M94" t="s">
-        <v>141</v>
-      </c>
-      <c r="N94" t="s">
-        <v>129</v>
+        <v>190</v>
+      </c>
+      <c r="N94">
+        <v>3082398871</v>
       </c>
       <c r="O94">
         <v>0</v>
       </c>
       <c r="Q94">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="R94" t="s">
         <v>129</v>
       </c>
       <c r="S94">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="T94">
         <v>0</v>
       </c>
       <c r="U94" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="V94" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="W94" t="s">
         <v>42</v>
@@ -11673,61 +11890,52 @@
         <v>94</v>
       </c>
       <c r="C95" t="s">
-        <v>622</v>
+        <v>410</v>
       </c>
       <c r="D95" t="s">
-        <v>186</v>
+        <v>411</v>
       </c>
       <c r="E95">
-        <v>15</v>
+        <v>76</v>
       </c>
       <c r="F95" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="G95" s="8">
-        <v>40646</v>
+        <v>38198</v>
       </c>
       <c r="H95" s="8">
         <v>43522</v>
       </c>
       <c r="I95">
-        <v>3082398871</v>
-      </c>
-      <c r="J95" t="s">
-        <v>187</v>
-      </c>
-      <c r="K95" t="s">
-        <v>188</v>
-      </c>
-      <c r="L95" t="s">
-        <v>189</v>
+        <v>3116499959</v>
       </c>
       <c r="M95" t="s">
-        <v>190</v>
-      </c>
-      <c r="N95">
-        <v>3082398871</v>
+        <v>412</v>
+      </c>
+      <c r="N95" t="s">
+        <v>129</v>
       </c>
       <c r="O95">
         <v>0</v>
       </c>
       <c r="Q95">
-        <v>15000</v>
-      </c>
-      <c r="R95" t="s">
-        <v>129</v>
+        <v>25000</v>
+      </c>
+      <c r="R95">
+        <v>3132915104</v>
       </c>
       <c r="S95">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="T95">
         <v>0</v>
       </c>
       <c r="U95" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="V95" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="W95" t="s">
         <v>42</v>
@@ -11759,52 +11967,58 @@
         <v>95</v>
       </c>
       <c r="C96" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="D96" t="s">
-        <v>411</v>
+        <v>237</v>
       </c>
       <c r="E96">
-        <v>76</v>
+        <v>26</v>
       </c>
       <c r="F96" t="s">
         <v>125</v>
       </c>
       <c r="G96" s="8">
-        <v>38198</v>
+        <v>39160</v>
       </c>
       <c r="H96" s="8">
         <v>43522</v>
       </c>
       <c r="I96">
-        <v>3116499959</v>
+        <v>3463548033</v>
+      </c>
+      <c r="J96" t="s">
+        <v>238</v>
+      </c>
+      <c r="L96" t="s">
+        <v>184</v>
       </c>
       <c r="M96" t="s">
-        <v>412</v>
-      </c>
-      <c r="N96" t="s">
+        <v>239</v>
+      </c>
+      <c r="N96">
+        <v>3112571174</v>
+      </c>
+      <c r="O96">
+        <v>0</v>
+      </c>
+      <c r="Q96">
+        <v>0</v>
+      </c>
+      <c r="R96" t="s">
         <v>129</v>
       </c>
-      <c r="O96">
-        <v>0</v>
-      </c>
-      <c r="Q96">
-        <v>25000</v>
-      </c>
-      <c r="R96">
-        <v>3132915104</v>
-      </c>
       <c r="S96">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="T96">
         <v>0</v>
       </c>
       <c r="U96" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="V96" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="W96" t="s">
         <v>42</v>
@@ -11836,37 +12050,31 @@
         <v>96</v>
       </c>
       <c r="C97" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="D97" t="s">
-        <v>237</v>
+        <v>415</v>
       </c>
       <c r="E97">
-        <v>26</v>
+        <v>77</v>
       </c>
       <c r="F97" t="s">
         <v>125</v>
       </c>
       <c r="G97" s="8">
-        <v>39160</v>
+        <v>41456</v>
       </c>
       <c r="H97" s="8">
         <v>43522</v>
       </c>
       <c r="I97">
-        <v>3463548033</v>
-      </c>
-      <c r="J97" t="s">
-        <v>238</v>
-      </c>
-      <c r="L97" t="s">
-        <v>184</v>
+        <v>3112516404</v>
       </c>
       <c r="M97" t="s">
-        <v>239</v>
-      </c>
-      <c r="N97">
-        <v>3112571174</v>
+        <v>141</v>
+      </c>
+      <c r="N97" t="s">
+        <v>129</v>
       </c>
       <c r="O97">
         <v>0</v>
@@ -11878,16 +12086,16 @@
         <v>129</v>
       </c>
       <c r="S97">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="T97">
         <v>0</v>
       </c>
       <c r="U97" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="V97" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="W97" t="s">
         <v>42</v>
@@ -11919,28 +12127,28 @@
         <v>97</v>
       </c>
       <c r="C98" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="D98" t="s">
-        <v>415</v>
+        <v>246</v>
       </c>
       <c r="E98">
-        <v>77</v>
+        <v>28</v>
       </c>
       <c r="F98" t="s">
-        <v>125</v>
-      </c>
-      <c r="G98" s="8">
-        <v>41456</v>
+        <v>139</v>
       </c>
       <c r="H98" s="8">
-        <v>43522</v>
+        <v>43523</v>
       </c>
       <c r="I98">
-        <v>3112516404</v>
+        <v>3162313849</v>
+      </c>
+      <c r="J98" t="s">
+        <v>247</v>
       </c>
       <c r="M98" t="s">
-        <v>141</v>
+        <v>248</v>
       </c>
       <c r="N98" t="s">
         <v>129</v>
@@ -11955,16 +12163,16 @@
         <v>129</v>
       </c>
       <c r="S98">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="T98">
         <v>0</v>
       </c>
       <c r="U98" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="V98" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="W98" t="s">
         <v>42</v>
@@ -11996,7 +12204,7 @@
         <v>98</v>
       </c>
       <c r="C99" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="D99" t="s">
         <v>246</v>
@@ -12005,7 +12213,7 @@
         <v>28</v>
       </c>
       <c r="F99" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="H99" s="8">
         <v>43523</v>
@@ -12032,16 +12240,16 @@
         <v>129</v>
       </c>
       <c r="S99">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="T99">
         <v>0</v>
       </c>
       <c r="U99" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="V99" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="W99" t="s">
         <v>42</v>
@@ -12073,28 +12281,31 @@
         <v>99</v>
       </c>
       <c r="C100" t="s">
-        <v>417</v>
+        <v>282</v>
       </c>
       <c r="D100" t="s">
-        <v>246</v>
+        <v>418</v>
       </c>
       <c r="E100">
-        <v>28</v>
+        <v>78</v>
       </c>
       <c r="F100" t="s">
         <v>125</v>
       </c>
+      <c r="G100" s="8">
+        <v>39021</v>
+      </c>
       <c r="H100" s="8">
         <v>43523</v>
       </c>
       <c r="I100">
-        <v>3162313849</v>
-      </c>
-      <c r="J100" t="s">
-        <v>247</v>
+        <v>3212889437</v>
+      </c>
+      <c r="K100" t="s">
+        <v>419</v>
       </c>
       <c r="M100" t="s">
-        <v>248</v>
+        <v>420</v>
       </c>
       <c r="N100" t="s">
         <v>129</v>
@@ -12103,22 +12314,19 @@
         <v>0</v>
       </c>
       <c r="Q100">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="R100" t="s">
         <v>129</v>
       </c>
       <c r="S100">
-        <v>99</v>
-      </c>
-      <c r="T100">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U100" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="V100" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="W100" t="s">
         <v>42</v>
@@ -12150,7 +12358,7 @@
         <v>100</v>
       </c>
       <c r="C101" t="s">
-        <v>282</v>
+        <v>421</v>
       </c>
       <c r="D101" t="s">
         <v>418</v>
@@ -12159,10 +12367,10 @@
         <v>78</v>
       </c>
       <c r="F101" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="G101" s="8">
-        <v>39021</v>
+        <v>41963</v>
       </c>
       <c r="H101" s="8">
         <v>43523</v>
@@ -12189,13 +12397,16 @@
         <v>129</v>
       </c>
       <c r="S101">
-        <v>100</v>
+        <v>101</v>
+      </c>
+      <c r="T101">
+        <v>0</v>
       </c>
       <c r="U101" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="V101" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="W101" t="s">
         <v>42</v>
@@ -12204,7 +12415,7 @@
         <v>3000</v>
       </c>
       <c r="Y101">
-        <v>2200</v>
+        <v>2000</v>
       </c>
       <c r="Z101" t="s">
         <v>130</v>
@@ -12227,7 +12438,7 @@
         <v>101</v>
       </c>
       <c r="C102" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="D102" t="s">
         <v>418</v>
@@ -12236,10 +12447,10 @@
         <v>78</v>
       </c>
       <c r="F102" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="G102" s="8">
-        <v>41963</v>
+        <v>39880</v>
       </c>
       <c r="H102" s="8">
         <v>43523</v>
@@ -12266,16 +12477,16 @@
         <v>129</v>
       </c>
       <c r="S102">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="T102">
         <v>0</v>
       </c>
       <c r="U102" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="V102" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="W102" t="s">
         <v>42</v>
@@ -12284,7 +12495,7 @@
         <v>3000</v>
       </c>
       <c r="Y102">
-        <v>2000</v>
+        <v>2200</v>
       </c>
       <c r="Z102" t="s">
         <v>130</v>
@@ -12307,31 +12518,25 @@
         <v>102</v>
       </c>
       <c r="C103" t="s">
-        <v>422</v>
+        <v>123</v>
       </c>
       <c r="D103" t="s">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="E103">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F103" t="s">
         <v>125</v>
       </c>
-      <c r="G103" s="8">
-        <v>39880</v>
-      </c>
       <c r="H103" s="8">
-        <v>43523</v>
-      </c>
-      <c r="I103">
-        <v>3212889437</v>
-      </c>
-      <c r="K103" t="s">
-        <v>419</v>
+        <v>43529</v>
+      </c>
+      <c r="I103" t="s">
+        <v>129</v>
       </c>
       <c r="M103" t="s">
-        <v>420</v>
+        <v>141</v>
       </c>
       <c r="N103" t="s">
         <v>129</v>
@@ -12340,22 +12545,22 @@
         <v>0</v>
       </c>
       <c r="Q103">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="R103" t="s">
         <v>129</v>
       </c>
       <c r="S103">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="T103">
         <v>0</v>
       </c>
       <c r="U103" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="V103" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="W103" t="s">
         <v>42</v>
@@ -12364,7 +12569,7 @@
         <v>3000</v>
       </c>
       <c r="Y103">
-        <v>2200</v>
+        <v>900</v>
       </c>
       <c r="Z103" t="s">
         <v>130</v>
@@ -12387,43 +12592,43 @@
         <v>103</v>
       </c>
       <c r="C104" t="s">
-        <v>123</v>
+        <v>465</v>
       </c>
       <c r="D104" t="s">
-        <v>423</v>
+        <v>358</v>
       </c>
       <c r="E104">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F104" t="s">
-        <v>125</v>
-      </c>
-      <c r="H104" s="8">
-        <v>43529</v>
-      </c>
-      <c r="I104" t="s">
-        <v>129</v>
+        <v>139</v>
+      </c>
+      <c r="G104" s="14" t="s">
+        <v>466</v>
+      </c>
+      <c r="H104" s="13">
+        <v>43560</v>
+      </c>
+      <c r="I104" s="14">
+        <v>3002884096</v>
+      </c>
+      <c r="J104" t="s">
+        <v>467</v>
+      </c>
+      <c r="K104" t="s">
+        <v>468</v>
+      </c>
+      <c r="L104" t="s">
+        <v>469</v>
       </c>
       <c r="M104" t="s">
-        <v>141</v>
-      </c>
-      <c r="N104" t="s">
-        <v>129</v>
-      </c>
-      <c r="O104">
-        <v>0</v>
+        <v>470</v>
       </c>
       <c r="Q104">
-        <v>0</v>
-      </c>
-      <c r="R104" t="s">
-        <v>129</v>
+        <v>50000</v>
       </c>
       <c r="S104">
-        <v>103</v>
-      </c>
-      <c r="T104">
-        <v>0</v>
+        <v>104</v>
       </c>
       <c r="U104" t="s">
         <v>15</v>
@@ -12438,7 +12643,7 @@
         <v>3000</v>
       </c>
       <c r="Y104">
-        <v>900</v>
+        <v>2200</v>
       </c>
       <c r="Z104" t="s">
         <v>130</v>
@@ -12461,43 +12666,49 @@
         <v>104</v>
       </c>
       <c r="C105" t="s">
-        <v>465</v>
+        <v>249</v>
       </c>
       <c r="D105" t="s">
-        <v>358</v>
+        <v>471</v>
       </c>
       <c r="E105">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F105" t="s">
         <v>139</v>
       </c>
-      <c r="G105" s="14" t="s">
-        <v>466</v>
+      <c r="G105" s="13">
+        <v>42255</v>
       </c>
       <c r="H105" s="13">
         <v>43560</v>
       </c>
-      <c r="I105" s="14">
-        <v>3002884096</v>
+      <c r="I105">
+        <v>3212255107</v>
       </c>
       <c r="J105" t="s">
-        <v>467</v>
+        <v>238</v>
       </c>
       <c r="K105" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="L105" t="s">
-        <v>469</v>
+        <v>164</v>
       </c>
       <c r="M105" t="s">
-        <v>470</v>
+        <v>473</v>
+      </c>
+      <c r="N105">
+        <v>3212255107</v>
       </c>
       <c r="Q105">
-        <v>50000</v>
+        <v>20000</v>
+      </c>
+      <c r="R105">
+        <v>3212255107</v>
       </c>
       <c r="S105">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="U105" t="s">
         <v>15</v>
@@ -12535,49 +12746,49 @@
         <v>105</v>
       </c>
       <c r="C106" t="s">
-        <v>249</v>
+        <v>474</v>
       </c>
       <c r="D106" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="E106">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F106" t="s">
         <v>139</v>
       </c>
       <c r="G106" s="13">
-        <v>42255</v>
+        <v>42578</v>
       </c>
       <c r="H106" s="13">
-        <v>43560</v>
+        <v>43554</v>
       </c>
       <c r="I106">
-        <v>3212255107</v>
+        <v>3118250240</v>
       </c>
       <c r="J106" t="s">
-        <v>238</v>
+        <v>476</v>
       </c>
       <c r="K106" t="s">
-        <v>472</v>
+        <v>477</v>
       </c>
       <c r="L106" t="s">
-        <v>164</v>
+        <v>478</v>
       </c>
       <c r="M106" t="s">
-        <v>473</v>
+        <v>479</v>
       </c>
       <c r="N106">
-        <v>3212255107</v>
+        <v>3118988203</v>
       </c>
       <c r="Q106">
-        <v>20000</v>
+        <v>100000</v>
       </c>
       <c r="R106">
-        <v>3212255107</v>
+        <v>3118988203</v>
       </c>
       <c r="S106">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="U106" t="s">
         <v>15</v>
@@ -12615,49 +12826,49 @@
         <v>106</v>
       </c>
       <c r="C107" t="s">
-        <v>474</v>
+        <v>480</v>
       </c>
       <c r="D107" t="s">
-        <v>475</v>
+        <v>481</v>
       </c>
       <c r="E107">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F107" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="G107" s="13">
-        <v>42578</v>
+        <v>42258</v>
       </c>
       <c r="H107" s="13">
         <v>43554</v>
       </c>
       <c r="I107">
-        <v>3118250240</v>
+        <v>3332209679</v>
       </c>
       <c r="J107" t="s">
-        <v>476</v>
+        <v>168</v>
       </c>
       <c r="K107" t="s">
-        <v>477</v>
+        <v>482</v>
       </c>
       <c r="L107" t="s">
-        <v>478</v>
+        <v>483</v>
       </c>
       <c r="M107" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="N107">
-        <v>3118988203</v>
+        <v>3332209679</v>
       </c>
       <c r="Q107">
-        <v>100000</v>
+        <v>30000</v>
       </c>
       <c r="R107">
-        <v>3118988203</v>
+        <v>3112302507</v>
       </c>
       <c r="S107">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="U107" t="s">
         <v>15</v>
@@ -12695,49 +12906,49 @@
         <v>107</v>
       </c>
       <c r="C108" t="s">
-        <v>480</v>
+        <v>485</v>
       </c>
       <c r="D108" t="s">
-        <v>481</v>
+        <v>486</v>
       </c>
       <c r="E108">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F108" t="s">
         <v>125</v>
       </c>
       <c r="G108" s="13">
-        <v>42258</v>
+        <v>42136</v>
       </c>
       <c r="H108" s="13">
-        <v>43554</v>
+        <v>43560</v>
       </c>
       <c r="I108">
-        <v>3332209679</v>
+        <v>3172052135</v>
       </c>
       <c r="J108" t="s">
-        <v>168</v>
+        <v>187</v>
       </c>
       <c r="K108" t="s">
-        <v>482</v>
+        <v>491</v>
       </c>
       <c r="L108" t="s">
-        <v>483</v>
+        <v>91</v>
       </c>
       <c r="M108" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="N108">
-        <v>3332209679</v>
+        <v>3172052135</v>
       </c>
       <c r="Q108">
-        <v>30000</v>
+        <v>20000</v>
       </c>
       <c r="R108">
-        <v>3112302507</v>
+        <v>3142105636</v>
       </c>
       <c r="S108">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="U108" t="s">
         <v>15</v>
@@ -12775,49 +12986,49 @@
         <v>108</v>
       </c>
       <c r="C109" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="D109" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="E109">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F109" t="s">
         <v>125</v>
       </c>
       <c r="G109" s="13">
-        <v>42136</v>
+        <v>42285</v>
       </c>
       <c r="H109" s="13">
-        <v>43560</v>
+        <v>43558</v>
       </c>
       <c r="I109">
-        <v>3172052135</v>
+        <v>3482118255</v>
       </c>
       <c r="J109" t="s">
-        <v>187</v>
+        <v>126</v>
       </c>
       <c r="K109" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="L109" t="s">
-        <v>91</v>
+        <v>364</v>
       </c>
       <c r="M109" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="N109">
-        <v>3172052135</v>
+        <v>3332212885</v>
       </c>
       <c r="Q109">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="R109">
         <v>3142105636</v>
       </c>
       <c r="S109">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="U109" t="s">
         <v>15</v>
@@ -12838,7 +13049,7 @@
         <v>130</v>
       </c>
       <c r="AA109" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="AB109">
         <v>5000</v>
@@ -12855,49 +13066,49 @@
         <v>109</v>
       </c>
       <c r="C110" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="D110" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="E110">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F110" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="G110" s="13">
-        <v>42285</v>
+        <v>42284</v>
       </c>
       <c r="H110" s="13">
-        <v>43558</v>
+        <v>43544</v>
       </c>
       <c r="I110">
-        <v>3482118255</v>
+        <v>3162166627</v>
       </c>
       <c r="J110" t="s">
-        <v>126</v>
+        <v>495</v>
       </c>
       <c r="K110" t="s">
-        <v>487</v>
+        <v>496</v>
       </c>
       <c r="L110" t="s">
-        <v>364</v>
+        <v>91</v>
       </c>
       <c r="M110" t="s">
-        <v>492</v>
+        <v>497</v>
       </c>
       <c r="N110">
-        <v>3332212885</v>
+        <v>3172896840</v>
       </c>
       <c r="Q110">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="R110">
-        <v>3142105636</v>
+        <v>3162166627</v>
       </c>
       <c r="S110">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="U110" t="s">
         <v>15</v>
@@ -12935,49 +13146,49 @@
         <v>110</v>
       </c>
       <c r="C111" t="s">
-        <v>493</v>
+        <v>498</v>
       </c>
       <c r="D111" t="s">
-        <v>494</v>
+        <v>499</v>
       </c>
       <c r="E111">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F111" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="G111" s="13">
-        <v>42284</v>
+        <v>42670</v>
       </c>
       <c r="H111" s="13">
-        <v>43544</v>
+        <v>43574</v>
       </c>
       <c r="I111">
-        <v>3162166627</v>
+        <v>3422524881</v>
       </c>
       <c r="J111" t="s">
-        <v>495</v>
+        <v>140</v>
       </c>
       <c r="K111" t="s">
-        <v>496</v>
+        <v>260</v>
       </c>
       <c r="L111" t="s">
-        <v>91</v>
+        <v>59</v>
       </c>
       <c r="M111" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="N111">
-        <v>3172896840</v>
+        <v>3422524881</v>
       </c>
       <c r="Q111">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="R111">
-        <v>3162166627</v>
+        <v>3422524881</v>
       </c>
       <c r="S111">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="U111" t="s">
         <v>15</v>
@@ -13015,25 +13226,25 @@
         <v>111</v>
       </c>
       <c r="C112" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="D112" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="E112">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F112" t="s">
         <v>125</v>
       </c>
       <c r="G112" s="13">
-        <v>42670</v>
+        <v>42323</v>
       </c>
       <c r="H112" s="13">
-        <v>43574</v>
+        <v>43568</v>
       </c>
       <c r="I112">
-        <v>3422524881</v>
+        <v>3463264087</v>
       </c>
       <c r="J112" t="s">
         <v>140</v>
@@ -13042,22 +13253,22 @@
         <v>260</v>
       </c>
       <c r="L112" t="s">
-        <v>59</v>
+        <v>503</v>
       </c>
       <c r="M112" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="N112">
-        <v>3422524881</v>
+        <v>3411283938</v>
       </c>
       <c r="Q112">
-        <v>30000</v>
+        <v>50000</v>
       </c>
       <c r="R112">
-        <v>3422524881</v>
+        <v>3463264087</v>
       </c>
       <c r="S112">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="U112" t="s">
         <v>15</v>
@@ -13095,49 +13306,49 @@
         <v>112</v>
       </c>
       <c r="C113" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="D113" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="E113">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F113" t="s">
         <v>125</v>
       </c>
       <c r="G113" s="13">
-        <v>42323</v>
+        <v>42327</v>
       </c>
       <c r="H113" s="13">
-        <v>43568</v>
+        <v>43604</v>
       </c>
       <c r="I113">
-        <v>3463264087</v>
+        <v>3232496936</v>
       </c>
       <c r="J113" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="K113" t="s">
-        <v>260</v>
+        <v>507</v>
       </c>
       <c r="L113" t="s">
-        <v>503</v>
+        <v>164</v>
       </c>
       <c r="M113" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="N113">
-        <v>3411283938</v>
+        <v>3222647078</v>
       </c>
       <c r="Q113">
-        <v>50000</v>
+        <v>40000</v>
       </c>
       <c r="R113">
-        <v>3463264087</v>
+        <v>3222647078</v>
       </c>
       <c r="S113">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="U113" t="s">
         <v>15</v>
@@ -13175,49 +13386,49 @@
         <v>113</v>
       </c>
       <c r="C114" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="D114" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="E114">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F114" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="G114" s="13">
-        <v>42327</v>
+        <v>42062</v>
       </c>
       <c r="H114" s="13">
-        <v>43604</v>
+        <v>43603</v>
       </c>
       <c r="I114">
-        <v>3232496936</v>
+        <v>3152161072</v>
       </c>
       <c r="J114" t="s">
-        <v>126</v>
+        <v>203</v>
       </c>
       <c r="K114" t="s">
-        <v>507</v>
+        <v>183</v>
       </c>
       <c r="L114" t="s">
         <v>164</v>
       </c>
       <c r="M114" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="N114">
-        <v>3222647078</v>
+        <v>3142273561</v>
       </c>
       <c r="Q114">
-        <v>40000</v>
+        <v>55000</v>
       </c>
       <c r="R114">
-        <v>3222647078</v>
+        <v>3152161072</v>
       </c>
       <c r="S114">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="U114" t="s">
         <v>15</v>
@@ -13255,55 +13466,55 @@
         <v>114</v>
       </c>
       <c r="C115" t="s">
-        <v>509</v>
+        <v>398</v>
       </c>
       <c r="D115" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="E115">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F115" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="G115" s="13">
-        <v>42062</v>
+        <v>42226</v>
       </c>
       <c r="H115" s="13">
-        <v>43603</v>
+        <v>43554</v>
       </c>
       <c r="I115">
-        <v>3152161072</v>
+        <v>3333774943</v>
       </c>
       <c r="J115" t="s">
-        <v>203</v>
+        <v>150</v>
       </c>
       <c r="K115" t="s">
-        <v>183</v>
+        <v>513</v>
       </c>
       <c r="L115" t="s">
-        <v>164</v>
+        <v>514</v>
       </c>
       <c r="M115" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="N115">
-        <v>3142273561</v>
+        <v>3333774943</v>
       </c>
       <c r="Q115">
-        <v>55000</v>
+        <v>20000</v>
       </c>
       <c r="R115">
-        <v>3152161072</v>
+        <v>3333445294</v>
       </c>
       <c r="S115">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="U115" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="V115" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="W115" t="s">
         <v>42</v>
@@ -13335,49 +13546,49 @@
         <v>115</v>
       </c>
       <c r="C116" t="s">
-        <v>398</v>
+        <v>516</v>
       </c>
       <c r="D116" t="s">
-        <v>512</v>
+        <v>517</v>
       </c>
       <c r="E116">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F116" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="G116" s="13">
-        <v>42226</v>
+        <v>42091</v>
       </c>
       <c r="H116" s="13">
-        <v>43554</v>
+        <v>43561</v>
       </c>
       <c r="I116">
-        <v>3333774943</v>
+        <v>3222199744</v>
       </c>
       <c r="J116" t="s">
         <v>150</v>
       </c>
       <c r="K116" t="s">
-        <v>513</v>
+        <v>518</v>
       </c>
       <c r="L116" t="s">
-        <v>514</v>
+        <v>78</v>
       </c>
       <c r="M116" t="s">
-        <v>515</v>
+        <v>519</v>
       </c>
       <c r="N116">
-        <v>3333774943</v>
+        <v>3126692513</v>
       </c>
       <c r="Q116">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="R116">
-        <v>3333445294</v>
+        <v>3222199744</v>
       </c>
       <c r="S116">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="U116" t="s">
         <v>16</v>
@@ -13415,49 +13626,46 @@
         <v>116</v>
       </c>
       <c r="C117" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="D117" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="E117">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F117" t="s">
         <v>139</v>
       </c>
       <c r="G117" s="13">
-        <v>42091</v>
+        <v>42400</v>
       </c>
       <c r="H117" s="13">
         <v>43561</v>
       </c>
-      <c r="I117">
-        <v>3222199744</v>
-      </c>
       <c r="J117" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
       <c r="K117" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="L117" t="s">
-        <v>78</v>
+        <v>523</v>
       </c>
       <c r="M117" t="s">
-        <v>519</v>
+        <v>524</v>
       </c>
       <c r="N117">
-        <v>3126692513</v>
+        <v>3312116738</v>
       </c>
       <c r="Q117">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="R117">
-        <v>3222199744</v>
+        <v>3453128213</v>
       </c>
       <c r="S117">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="U117" t="s">
         <v>16</v>
@@ -13495,46 +13703,49 @@
         <v>117</v>
       </c>
       <c r="C118" t="s">
-        <v>520</v>
+        <v>525</v>
       </c>
       <c r="D118" t="s">
-        <v>521</v>
+        <v>526</v>
       </c>
       <c r="E118">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F118" t="s">
         <v>139</v>
       </c>
       <c r="G118" s="13">
-        <v>42400</v>
+        <v>42074</v>
       </c>
       <c r="H118" s="13">
-        <v>43561</v>
+        <v>43552</v>
+      </c>
+      <c r="I118">
+        <v>3432834288</v>
       </c>
       <c r="J118" t="s">
-        <v>133</v>
+        <v>150</v>
       </c>
       <c r="K118" t="s">
-        <v>522</v>
+        <v>491</v>
       </c>
       <c r="L118" t="s">
-        <v>523</v>
+        <v>91</v>
       </c>
       <c r="M118" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="N118">
-        <v>3312116738</v>
+        <v>3172008925</v>
       </c>
       <c r="Q118">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="R118">
-        <v>3453128213</v>
+        <v>3132205378</v>
       </c>
       <c r="S118">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="U118" t="s">
         <v>16</v>
@@ -13572,49 +13783,49 @@
         <v>118</v>
       </c>
       <c r="C119" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="D119" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="E119">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F119" t="s">
         <v>139</v>
       </c>
       <c r="G119" s="13">
-        <v>42074</v>
+        <v>42004</v>
       </c>
       <c r="H119" s="13">
-        <v>43552</v>
+        <v>43549</v>
       </c>
       <c r="I119">
-        <v>3432834288</v>
+        <v>3012655386</v>
       </c>
       <c r="J119" t="s">
         <v>150</v>
       </c>
       <c r="K119" t="s">
-        <v>491</v>
+        <v>530</v>
       </c>
       <c r="L119" t="s">
         <v>91</v>
       </c>
       <c r="M119" t="s">
-        <v>527</v>
+        <v>531</v>
       </c>
       <c r="N119">
-        <v>3172008925</v>
+        <v>3132353853</v>
       </c>
       <c r="Q119">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="R119">
-        <v>3132205378</v>
+        <v>3132353853</v>
       </c>
       <c r="S119">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="U119" t="s">
         <v>16</v>
@@ -13652,49 +13863,49 @@
         <v>119</v>
       </c>
       <c r="C120" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="D120" t="s">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="E120">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F120" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="G120" s="13">
-        <v>42004</v>
+        <v>41619</v>
       </c>
       <c r="H120" s="13">
-        <v>43549</v>
+        <v>43574</v>
       </c>
       <c r="I120">
-        <v>3012655386</v>
+        <v>3322047427</v>
       </c>
       <c r="J120" t="s">
-        <v>150</v>
+        <v>269</v>
       </c>
       <c r="K120" t="s">
-        <v>530</v>
+        <v>535</v>
       </c>
       <c r="L120" t="s">
         <v>91</v>
       </c>
       <c r="M120" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="N120">
-        <v>3132353853</v>
+        <v>3333096024</v>
       </c>
       <c r="Q120">
-        <v>25000</v>
+        <v>15000</v>
       </c>
       <c r="R120">
-        <v>3132353853</v>
+        <v>3322047427</v>
       </c>
       <c r="S120">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="U120" t="s">
         <v>16</v>
@@ -13732,55 +13943,55 @@
         <v>120</v>
       </c>
       <c r="C121" t="s">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="D121" t="s">
-        <v>533</v>
+        <v>537</v>
       </c>
       <c r="E121">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F121" t="s">
         <v>125</v>
       </c>
       <c r="G121" s="13">
-        <v>41619</v>
+        <v>41466</v>
       </c>
       <c r="H121" s="13">
-        <v>43574</v>
+        <v>43561</v>
       </c>
       <c r="I121">
-        <v>3322047427</v>
+        <v>3131186218</v>
       </c>
       <c r="J121" t="s">
-        <v>269</v>
+        <v>150</v>
       </c>
       <c r="K121" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="L121" t="s">
-        <v>91</v>
+        <v>523</v>
       </c>
       <c r="M121" t="s">
-        <v>534</v>
+        <v>539</v>
       </c>
       <c r="N121">
-        <v>3333096024</v>
+        <v>3018726840</v>
       </c>
       <c r="Q121">
-        <v>15000</v>
+        <v>50000</v>
       </c>
       <c r="R121">
-        <v>3322047427</v>
+        <v>3018726840</v>
       </c>
       <c r="S121">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="U121" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="V121" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="W121" t="s">
         <v>42</v>
@@ -13789,7 +14000,7 @@
         <v>3000</v>
       </c>
       <c r="Y121">
-        <v>2200</v>
+        <v>1800</v>
       </c>
       <c r="Z121" t="s">
         <v>130</v>
@@ -13812,49 +14023,46 @@
         <v>121</v>
       </c>
       <c r="C122" t="s">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="D122" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="E122">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F122" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="G122" s="13">
-        <v>41466</v>
+        <v>41617</v>
       </c>
       <c r="H122" s="13">
-        <v>43561</v>
-      </c>
-      <c r="I122">
-        <v>3131186218</v>
+        <v>43601</v>
       </c>
       <c r="J122" t="s">
-        <v>150</v>
+        <v>542</v>
       </c>
       <c r="K122" t="s">
-        <v>538</v>
+        <v>543</v>
       </c>
       <c r="L122" t="s">
-        <v>523</v>
+        <v>544</v>
       </c>
       <c r="M122" t="s">
-        <v>539</v>
+        <v>545</v>
       </c>
       <c r="N122">
-        <v>3018726840</v>
+        <v>3232880251</v>
       </c>
       <c r="Q122">
-        <v>50000</v>
+        <v>40000</v>
       </c>
       <c r="R122">
-        <v>3018726840</v>
+        <v>3432528842</v>
       </c>
       <c r="S122">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="U122" t="s">
         <v>17</v>
@@ -13869,7 +14077,7 @@
         <v>3000</v>
       </c>
       <c r="Y122">
-        <v>1800</v>
+        <v>2200</v>
       </c>
       <c r="Z122" t="s">
         <v>130</v>
@@ -13892,46 +14100,49 @@
         <v>122</v>
       </c>
       <c r="C123" t="s">
-        <v>540</v>
+        <v>546</v>
       </c>
       <c r="D123" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
       <c r="E123">
-        <v>98</v>
+        <v>25</v>
       </c>
       <c r="F123" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="G123" s="13">
-        <v>41617</v>
+        <v>41654</v>
       </c>
       <c r="H123" s="13">
-        <v>43601</v>
+        <v>43556</v>
+      </c>
+      <c r="I123">
+        <v>312009969</v>
       </c>
       <c r="J123" t="s">
-        <v>542</v>
+        <v>150</v>
       </c>
       <c r="K123" t="s">
-        <v>543</v>
+        <v>548</v>
       </c>
       <c r="L123" t="s">
-        <v>544</v>
+        <v>59</v>
       </c>
       <c r="M123" t="s">
-        <v>545</v>
+        <v>235</v>
       </c>
       <c r="N123">
-        <v>3232880251</v>
+        <v>3120009969</v>
       </c>
       <c r="Q123">
         <v>40000</v>
       </c>
       <c r="R123">
-        <v>3432528842</v>
+        <v>3218202799</v>
       </c>
       <c r="S123">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="U123" t="s">
         <v>17</v>
@@ -13969,31 +14180,31 @@
         <v>123</v>
       </c>
       <c r="C124" t="s">
-        <v>546</v>
+        <v>551</v>
       </c>
       <c r="D124" t="s">
-        <v>547</v>
+        <v>552</v>
       </c>
       <c r="E124">
-        <v>25</v>
+        <v>99</v>
       </c>
       <c r="F124" t="s">
         <v>125</v>
       </c>
       <c r="G124" s="13">
-        <v>41654</v>
+        <v>41832</v>
       </c>
       <c r="H124" s="13">
         <v>43556</v>
       </c>
       <c r="I124">
-        <v>312009969</v>
+        <v>3310263974</v>
       </c>
       <c r="J124" t="s">
         <v>150</v>
       </c>
       <c r="K124" t="s">
-        <v>548</v>
+        <v>553</v>
       </c>
       <c r="L124" t="s">
         <v>59</v>
@@ -14011,7 +14222,7 @@
         <v>3218202799</v>
       </c>
       <c r="S124">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="U124" t="s">
         <v>17</v>
@@ -14049,55 +14260,55 @@
         <v>124</v>
       </c>
       <c r="C125" t="s">
-        <v>551</v>
+        <v>398</v>
       </c>
       <c r="D125" t="s">
-        <v>552</v>
+        <v>597</v>
       </c>
       <c r="E125">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F125" t="s">
         <v>125</v>
       </c>
       <c r="G125" s="13">
-        <v>41832</v>
+        <v>40078</v>
       </c>
       <c r="H125" s="13">
-        <v>43556</v>
+        <v>43519</v>
       </c>
       <c r="I125">
-        <v>3310263974</v>
+        <v>3460137132</v>
       </c>
       <c r="J125" t="s">
-        <v>150</v>
+        <v>598</v>
       </c>
       <c r="K125" t="s">
-        <v>553</v>
+        <v>329</v>
       </c>
       <c r="L125" t="s">
         <v>59</v>
       </c>
       <c r="M125" t="s">
-        <v>235</v>
+        <v>599</v>
       </c>
       <c r="N125">
-        <v>3120009969</v>
+        <v>3460137132</v>
       </c>
       <c r="Q125">
-        <v>40000</v>
+        <v>22000</v>
       </c>
       <c r="R125">
-        <v>3218202799</v>
+        <v>3460137132</v>
       </c>
       <c r="S125">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="U125" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="V125" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="W125" t="s">
         <v>42</v>
@@ -14129,55 +14340,52 @@
         <v>125</v>
       </c>
       <c r="C126" t="s">
-        <v>398</v>
+        <v>554</v>
       </c>
       <c r="D126" t="s">
-        <v>597</v>
+        <v>541</v>
       </c>
       <c r="E126">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F126" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="G126" s="13">
-        <v>40078</v>
+        <v>40707</v>
       </c>
       <c r="H126" s="13">
-        <v>43519</v>
-      </c>
-      <c r="I126">
-        <v>3460137132</v>
+        <v>43601</v>
       </c>
       <c r="J126" t="s">
-        <v>598</v>
+        <v>542</v>
       </c>
       <c r="K126" t="s">
-        <v>329</v>
+        <v>543</v>
       </c>
       <c r="L126" t="s">
-        <v>59</v>
+        <v>544</v>
       </c>
       <c r="M126" t="s">
-        <v>599</v>
+        <v>545</v>
       </c>
       <c r="N126">
-        <v>3460137132</v>
+        <v>3232880251</v>
       </c>
       <c r="Q126">
-        <v>22000</v>
+        <v>40000</v>
       </c>
       <c r="R126">
-        <v>3460137132</v>
+        <v>3432528842</v>
       </c>
       <c r="S126">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="U126" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="V126" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="W126" t="s">
         <v>42</v>
@@ -14209,46 +14417,49 @@
         <v>126</v>
       </c>
       <c r="C127" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="D127" t="s">
-        <v>541</v>
+        <v>556</v>
       </c>
       <c r="E127">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="F127" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="G127" s="13">
-        <v>40707</v>
+        <v>40325</v>
       </c>
       <c r="H127" s="13">
-        <v>43601</v>
+        <v>43570</v>
+      </c>
+      <c r="I127">
+        <v>3433010491</v>
       </c>
       <c r="J127" t="s">
-        <v>542</v>
+        <v>168</v>
       </c>
       <c r="K127" t="s">
-        <v>543</v>
+        <v>472</v>
       </c>
       <c r="L127" t="s">
-        <v>544</v>
+        <v>91</v>
       </c>
       <c r="M127" t="s">
-        <v>545</v>
+        <v>557</v>
       </c>
       <c r="N127">
-        <v>3232880251</v>
+        <v>3433010491</v>
       </c>
       <c r="Q127">
-        <v>40000</v>
+        <v>20000</v>
       </c>
       <c r="R127">
-        <v>3432528842</v>
+        <v>3490235378</v>
       </c>
       <c r="S127">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="U127" t="s">
         <v>14</v>
@@ -14286,55 +14497,55 @@
         <v>127</v>
       </c>
       <c r="C128" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="D128" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="E128">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F128" t="s">
         <v>125</v>
       </c>
       <c r="G128" s="13">
-        <v>40325</v>
+        <v>41174</v>
       </c>
       <c r="H128" s="13">
-        <v>43570</v>
+        <v>43561</v>
       </c>
       <c r="I128">
-        <v>3433010491</v>
+        <v>3343577917</v>
       </c>
       <c r="J128" t="s">
-        <v>168</v>
+        <v>150</v>
       </c>
       <c r="K128" t="s">
-        <v>472</v>
+        <v>560</v>
       </c>
       <c r="L128" t="s">
-        <v>91</v>
+        <v>561</v>
       </c>
       <c r="M128" t="s">
-        <v>557</v>
+        <v>562</v>
       </c>
       <c r="N128">
-        <v>3433010491</v>
+        <v>3343577917</v>
       </c>
       <c r="Q128">
         <v>20000</v>
       </c>
       <c r="R128">
-        <v>3490235378</v>
+        <v>3343577179</v>
       </c>
       <c r="S128">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="U128" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="V128" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="W128" t="s">
         <v>42</v>
@@ -14366,49 +14577,55 @@
         <v>128</v>
       </c>
       <c r="C129" t="s">
-        <v>558</v>
+        <v>563</v>
       </c>
       <c r="D129" t="s">
-        <v>559</v>
+        <v>316</v>
       </c>
       <c r="E129">
-        <v>102</v>
+        <v>46</v>
       </c>
       <c r="F129" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="G129" s="13">
-        <v>41174</v>
+        <v>41343</v>
       </c>
       <c r="H129" s="13">
-        <v>43561</v>
+        <v>43566</v>
       </c>
       <c r="I129">
-        <v>3343577917</v>
+        <v>3453018263</v>
       </c>
       <c r="J129" t="s">
         <v>150</v>
       </c>
       <c r="K129" t="s">
-        <v>560</v>
+        <v>491</v>
       </c>
       <c r="L129" t="s">
-        <v>561</v>
+        <v>91</v>
       </c>
       <c r="M129" t="s">
-        <v>562</v>
+        <v>317</v>
       </c>
       <c r="N129">
-        <v>3343577917</v>
+        <v>3453018263</v>
+      </c>
+      <c r="O129">
+        <v>0</v>
       </c>
       <c r="Q129">
         <v>20000</v>
       </c>
       <c r="R129">
-        <v>3343577179</v>
+        <v>3422629661</v>
       </c>
       <c r="S129">
-        <v>128</v>
+        <v>129</v>
+      </c>
+      <c r="T129">
+        <v>0</v>
       </c>
       <c r="U129" t="s">
         <v>12</v>
@@ -14423,7 +14640,7 @@
         <v>3000</v>
       </c>
       <c r="Y129">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="Z129" t="s">
         <v>130</v>
@@ -14446,40 +14663,40 @@
         <v>129</v>
       </c>
       <c r="C130" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="D130" t="s">
-        <v>316</v>
+        <v>566</v>
       </c>
       <c r="E130">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F130" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="G130" s="13">
-        <v>41343</v>
+        <v>41143</v>
       </c>
       <c r="H130" s="13">
-        <v>43566</v>
+        <v>43519</v>
       </c>
       <c r="I130">
-        <v>3453018263</v>
+        <v>3222971654</v>
       </c>
       <c r="J130" t="s">
-        <v>150</v>
+        <v>476</v>
       </c>
       <c r="K130" t="s">
-        <v>491</v>
+        <v>567</v>
       </c>
       <c r="L130" t="s">
-        <v>91</v>
+        <v>568</v>
       </c>
       <c r="M130" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="N130">
-        <v>3453018263</v>
+        <v>3222971654</v>
       </c>
       <c r="O130">
         <v>0</v>
@@ -14488,13 +14705,10 @@
         <v>20000</v>
       </c>
       <c r="R130">
-        <v>3422629661</v>
+        <v>3222905488</v>
       </c>
       <c r="S130">
-        <v>129</v>
-      </c>
-      <c r="T130">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="U130" t="s">
         <v>12</v>
@@ -14509,7 +14723,7 @@
         <v>3000</v>
       </c>
       <c r="Y130">
-        <v>2100</v>
+        <v>2200</v>
       </c>
       <c r="Z130" t="s">
         <v>130</v>
@@ -14532,58 +14746,55 @@
         <v>130</v>
       </c>
       <c r="C131" t="s">
-        <v>565</v>
+        <v>569</v>
       </c>
       <c r="D131" t="s">
-        <v>566</v>
+        <v>517</v>
       </c>
       <c r="E131">
-        <v>42</v>
+        <v>92</v>
       </c>
       <c r="F131" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="G131" s="13">
-        <v>41143</v>
+        <v>40817</v>
       </c>
       <c r="H131" s="13">
-        <v>43519</v>
+        <v>43561</v>
       </c>
       <c r="I131">
-        <v>3222971654</v>
+        <v>3222199744</v>
       </c>
       <c r="J131" t="s">
-        <v>476</v>
+        <v>150</v>
       </c>
       <c r="K131" t="s">
-        <v>567</v>
+        <v>518</v>
       </c>
       <c r="L131" t="s">
-        <v>568</v>
+        <v>78</v>
       </c>
       <c r="M131" t="s">
-        <v>307</v>
+        <v>519</v>
       </c>
       <c r="N131">
-        <v>3222971654</v>
-      </c>
-      <c r="O131">
-        <v>0</v>
+        <v>3126692513</v>
       </c>
       <c r="Q131">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="R131">
-        <v>3222905488</v>
+        <v>3222199744</v>
       </c>
       <c r="S131">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="U131" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="V131" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="W131" t="s">
         <v>42</v>
@@ -14615,49 +14826,49 @@
         <v>131</v>
       </c>
       <c r="C132" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="D132" t="s">
-        <v>517</v>
+        <v>283</v>
       </c>
       <c r="E132">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="F132" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="G132" s="13">
-        <v>40817</v>
+        <v>40867</v>
       </c>
       <c r="H132" s="13">
-        <v>43561</v>
+        <v>43551</v>
       </c>
       <c r="I132">
-        <v>3222199744</v>
+        <v>3008299981</v>
       </c>
       <c r="J132" t="s">
         <v>150</v>
       </c>
       <c r="K132" t="s">
-        <v>518</v>
+        <v>571</v>
       </c>
       <c r="L132" t="s">
-        <v>78</v>
+        <v>568</v>
       </c>
       <c r="M132" t="s">
-        <v>519</v>
+        <v>572</v>
       </c>
       <c r="N132">
-        <v>3126692513</v>
+        <v>3008299981</v>
       </c>
       <c r="Q132">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="R132">
-        <v>3222199744</v>
+        <v>3042266221</v>
       </c>
       <c r="S132">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="U132" t="s">
         <v>13</v>
@@ -14695,55 +14906,55 @@
         <v>132</v>
       </c>
       <c r="C133" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
       <c r="D133" t="s">
-        <v>283</v>
+        <v>471</v>
       </c>
       <c r="E133">
-        <v>103</v>
+        <v>81</v>
       </c>
       <c r="F133" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="G133" s="13">
-        <v>40867</v>
+        <v>41114</v>
       </c>
       <c r="H133" s="13">
-        <v>43551</v>
+        <v>43560</v>
       </c>
       <c r="I133">
-        <v>3008299981</v>
+        <v>3212255107</v>
       </c>
       <c r="J133" t="s">
-        <v>150</v>
+        <v>238</v>
       </c>
       <c r="K133" t="s">
-        <v>571</v>
+        <v>472</v>
       </c>
       <c r="L133" t="s">
-        <v>568</v>
+        <v>164</v>
       </c>
       <c r="M133" t="s">
-        <v>572</v>
+        <v>473</v>
       </c>
       <c r="N133">
-        <v>3008299981</v>
+        <v>3212255107</v>
       </c>
       <c r="Q133">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="R133">
-        <v>3042266221</v>
+        <v>3212255107</v>
       </c>
       <c r="S133">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="U133" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="V133" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="W133" t="s">
         <v>42</v>
@@ -14775,55 +14986,55 @@
         <v>133</v>
       </c>
       <c r="C134" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="D134" t="s">
-        <v>471</v>
+        <v>575</v>
       </c>
       <c r="E134">
-        <v>81</v>
+        <v>104</v>
       </c>
       <c r="F134" t="s">
         <v>139</v>
       </c>
-      <c r="G134" s="13">
-        <v>41114</v>
+      <c r="G134" s="14" t="s">
+        <v>576</v>
       </c>
       <c r="H134" s="13">
-        <v>43560</v>
+        <v>43552</v>
       </c>
       <c r="I134">
-        <v>3212255107</v>
+        <v>3002490922</v>
       </c>
       <c r="J134" t="s">
-        <v>238</v>
+        <v>577</v>
       </c>
       <c r="K134" t="s">
-        <v>472</v>
+        <v>578</v>
       </c>
       <c r="L134" t="s">
         <v>164</v>
       </c>
       <c r="M134" t="s">
-        <v>473</v>
+        <v>605</v>
       </c>
       <c r="N134">
-        <v>3212255107</v>
+        <v>3002490922</v>
       </c>
       <c r="Q134">
-        <v>20000</v>
+        <v>45000</v>
       </c>
       <c r="R134">
-        <v>3212255107</v>
+        <v>3482029522</v>
       </c>
       <c r="S134">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="U134" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="V134" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="W134" t="s">
         <v>42</v>
@@ -14855,55 +15066,58 @@
         <v>134</v>
       </c>
       <c r="C135" t="s">
-        <v>574</v>
+        <v>579</v>
       </c>
       <c r="D135" t="s">
-        <v>575</v>
+        <v>580</v>
       </c>
       <c r="E135">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F135" t="s">
-        <v>139</v>
-      </c>
-      <c r="G135" s="14" t="s">
-        <v>576</v>
+        <v>125</v>
+      </c>
+      <c r="G135" s="13">
+        <v>38641</v>
       </c>
       <c r="H135" s="13">
-        <v>43552</v>
+        <v>43558</v>
       </c>
       <c r="I135">
-        <v>3002490922</v>
+        <v>3158460346</v>
       </c>
       <c r="J135" t="s">
-        <v>577</v>
+        <v>150</v>
       </c>
       <c r="K135" t="s">
-        <v>578</v>
+        <v>491</v>
       </c>
       <c r="L135" t="s">
-        <v>164</v>
+        <v>91</v>
       </c>
       <c r="M135" t="s">
-        <v>605</v>
+        <v>581</v>
       </c>
       <c r="N135">
-        <v>3002490922</v>
+        <v>3158460346</v>
+      </c>
+      <c r="P135" t="s">
+        <v>564</v>
       </c>
       <c r="Q135">
-        <v>45000</v>
+        <v>20000</v>
       </c>
       <c r="R135">
-        <v>3482029522</v>
+        <v>3158460346</v>
       </c>
       <c r="S135">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="U135" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="V135" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="W135" t="s">
         <v>42</v>
@@ -14935,25 +15149,25 @@
         <v>135</v>
       </c>
       <c r="C136" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
       <c r="D136" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
       <c r="E136">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F136" t="s">
         <v>125</v>
       </c>
       <c r="G136" s="13">
-        <v>38641</v>
+        <v>43539</v>
       </c>
       <c r="H136" s="13">
-        <v>43558</v>
+        <v>43562</v>
       </c>
       <c r="I136">
-        <v>3158460346</v>
+        <v>3332240918</v>
       </c>
       <c r="J136" t="s">
         <v>150</v>
@@ -14965,22 +15179,19 @@
         <v>91</v>
       </c>
       <c r="M136" t="s">
-        <v>581</v>
+        <v>606</v>
       </c>
       <c r="N136">
-        <v>3158460346</v>
-      </c>
-      <c r="P136" t="s">
-        <v>564</v>
+        <v>3170239419</v>
       </c>
       <c r="Q136">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="R136">
-        <v>3158460346</v>
+        <v>3333190853</v>
       </c>
       <c r="S136">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="U136" t="s">
         <v>21</v>
@@ -15018,55 +15229,55 @@
         <v>136</v>
       </c>
       <c r="C137" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="D137" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="E137">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F137" t="s">
         <v>125</v>
       </c>
-      <c r="G137" s="13">
-        <v>43539</v>
+      <c r="G137" s="14" t="s">
+        <v>586</v>
       </c>
       <c r="H137" s="13">
-        <v>43562</v>
+        <v>43535</v>
       </c>
       <c r="I137">
-        <v>3332240918</v>
+        <v>3112193986</v>
       </c>
       <c r="J137" t="s">
-        <v>150</v>
+        <v>577</v>
       </c>
       <c r="K137" t="s">
-        <v>491</v>
+        <v>587</v>
       </c>
       <c r="L137" t="s">
-        <v>91</v>
+        <v>568</v>
       </c>
       <c r="M137" t="s">
-        <v>606</v>
+        <v>588</v>
       </c>
       <c r="N137">
-        <v>3170239419</v>
+        <v>3112193986</v>
       </c>
       <c r="Q137">
-        <v>25000</v>
+        <v>45000</v>
       </c>
       <c r="R137">
-        <v>3333190853</v>
+        <v>3343627097</v>
       </c>
       <c r="S137">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="U137" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="V137" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="W137" t="s">
         <v>42</v>
@@ -15098,55 +15309,55 @@
         <v>137</v>
       </c>
       <c r="C138" t="s">
-        <v>584</v>
+        <v>589</v>
       </c>
       <c r="D138" t="s">
-        <v>585</v>
+        <v>590</v>
       </c>
       <c r="E138">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F138" t="s">
-        <v>125</v>
-      </c>
-      <c r="G138" s="14" t="s">
-        <v>586</v>
+        <v>139</v>
+      </c>
+      <c r="G138" s="13">
+        <v>39355</v>
       </c>
       <c r="H138" s="13">
-        <v>43535</v>
+        <v>43539</v>
       </c>
       <c r="I138">
-        <v>3112193986</v>
+        <v>3131027119</v>
       </c>
       <c r="J138" t="s">
-        <v>577</v>
+        <v>591</v>
       </c>
       <c r="K138" t="s">
-        <v>587</v>
+        <v>592</v>
       </c>
       <c r="L138" t="s">
-        <v>568</v>
+        <v>91</v>
       </c>
       <c r="M138" t="s">
-        <v>588</v>
+        <v>604</v>
       </c>
       <c r="N138">
-        <v>3112193986</v>
+        <v>3212766457</v>
       </c>
       <c r="Q138">
-        <v>45000</v>
+        <v>80000</v>
       </c>
       <c r="R138">
-        <v>3343627097</v>
+        <v>3131027119</v>
       </c>
       <c r="S138">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="U138" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="V138" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="W138" t="s">
         <v>42</v>
@@ -15178,55 +15389,55 @@
         <v>138</v>
       </c>
       <c r="C139" t="s">
-        <v>589</v>
+        <v>593</v>
       </c>
       <c r="D139" t="s">
-        <v>590</v>
+        <v>594</v>
       </c>
       <c r="E139">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F139" t="s">
         <v>139</v>
       </c>
       <c r="G139" s="13">
-        <v>39355</v>
+        <v>39295</v>
       </c>
       <c r="H139" s="13">
-        <v>43539</v>
+        <v>43550</v>
       </c>
       <c r="I139">
-        <v>3131027119</v>
+        <v>3462696769</v>
       </c>
       <c r="J139" t="s">
-        <v>591</v>
+        <v>126</v>
       </c>
       <c r="K139" t="s">
-        <v>592</v>
+        <v>507</v>
       </c>
       <c r="L139" t="s">
-        <v>91</v>
+        <v>595</v>
       </c>
       <c r="M139" t="s">
-        <v>604</v>
+        <v>596</v>
       </c>
       <c r="N139">
-        <v>3212766457</v>
+        <v>3462696769</v>
       </c>
       <c r="Q139">
-        <v>80000</v>
+        <v>12000</v>
       </c>
       <c r="R139">
-        <v>3131027119</v>
+        <v>3462696769</v>
       </c>
       <c r="S139">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="U139" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="V139" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="W139" t="s">
         <v>42</v>
@@ -15258,49 +15469,49 @@
         <v>139</v>
       </c>
       <c r="C140" t="s">
-        <v>593</v>
+        <v>600</v>
       </c>
       <c r="D140" t="s">
-        <v>594</v>
+        <v>601</v>
       </c>
       <c r="E140">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F140" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="G140" s="13">
-        <v>39295</v>
+        <v>39282</v>
       </c>
       <c r="H140" s="13">
         <v>43550</v>
       </c>
       <c r="I140">
-        <v>3462696769</v>
+        <v>3333452480</v>
       </c>
       <c r="J140" t="s">
         <v>126</v>
       </c>
       <c r="K140" t="s">
-        <v>507</v>
+        <v>602</v>
       </c>
       <c r="L140" t="s">
-        <v>595</v>
+        <v>91</v>
       </c>
       <c r="M140" t="s">
-        <v>596</v>
+        <v>603</v>
       </c>
       <c r="N140">
-        <v>3462696769</v>
+        <v>3333452480</v>
       </c>
       <c r="Q140">
-        <v>12000</v>
+        <v>30000</v>
       </c>
       <c r="R140">
-        <v>3462696769</v>
+        <v>3333452480</v>
       </c>
       <c r="S140">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="U140" t="s">
         <v>21</v>
@@ -15338,55 +15549,55 @@
         <v>140</v>
       </c>
       <c r="C141" t="s">
-        <v>600</v>
+        <v>282</v>
       </c>
       <c r="D141" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="E141">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F141" t="s">
         <v>125</v>
       </c>
       <c r="G141" s="13">
-        <v>39282</v>
+        <v>40016</v>
       </c>
       <c r="H141" s="13">
-        <v>43550</v>
+        <v>43549</v>
       </c>
       <c r="I141">
-        <v>3333452480</v>
+        <v>3460137132</v>
       </c>
       <c r="J141" t="s">
-        <v>126</v>
+        <v>598</v>
       </c>
       <c r="K141" t="s">
-        <v>602</v>
+        <v>329</v>
       </c>
       <c r="L141" t="s">
-        <v>91</v>
+        <v>59</v>
       </c>
       <c r="M141" t="s">
-        <v>603</v>
+        <v>607</v>
       </c>
       <c r="N141">
-        <v>3333452480</v>
+        <v>3212067847</v>
       </c>
       <c r="Q141">
-        <v>30000</v>
+        <v>22000</v>
       </c>
       <c r="R141">
-        <v>3333452480</v>
+        <v>3460137132</v>
       </c>
       <c r="S141">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="U141" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="V141" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="W141" t="s">
         <v>42</v>
@@ -15418,55 +15629,55 @@
         <v>141</v>
       </c>
       <c r="C142" t="s">
-        <v>282</v>
+        <v>608</v>
       </c>
       <c r="D142" t="s">
-        <v>597</v>
+        <v>609</v>
       </c>
       <c r="E142">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F142" t="s">
         <v>125</v>
       </c>
       <c r="G142" s="13">
-        <v>40016</v>
+        <v>40792</v>
       </c>
       <c r="H142" s="13">
-        <v>43549</v>
+        <v>43543</v>
       </c>
       <c r="I142">
-        <v>3460137132</v>
+        <v>3333963551</v>
       </c>
       <c r="J142" t="s">
-        <v>598</v>
+        <v>324</v>
       </c>
       <c r="K142" t="s">
-        <v>329</v>
+        <v>610</v>
       </c>
       <c r="L142" t="s">
-        <v>59</v>
+        <v>611</v>
       </c>
       <c r="M142" t="s">
-        <v>607</v>
+        <v>612</v>
       </c>
       <c r="N142">
-        <v>3212067847</v>
+        <v>3333396551</v>
       </c>
       <c r="Q142">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="R142">
-        <v>3460137132</v>
+        <v>3333963551</v>
       </c>
       <c r="S142">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="U142" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="V142" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="W142" t="s">
         <v>42</v>
@@ -15498,55 +15709,55 @@
         <v>142</v>
       </c>
       <c r="C143" t="s">
-        <v>608</v>
+        <v>624</v>
       </c>
       <c r="D143" t="s">
-        <v>609</v>
+        <v>625</v>
       </c>
       <c r="E143">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F143" t="s">
         <v>125</v>
       </c>
-      <c r="G143" s="13">
-        <v>40792</v>
+      <c r="G143" s="15" t="s">
+        <v>626</v>
       </c>
       <c r="H143" s="13">
-        <v>43543</v>
+        <v>43542</v>
       </c>
       <c r="I143">
-        <v>3333963551</v>
+        <v>3112213008</v>
       </c>
       <c r="J143" t="s">
-        <v>324</v>
+        <v>628</v>
       </c>
       <c r="K143" t="s">
-        <v>610</v>
+        <v>627</v>
       </c>
       <c r="L143" t="s">
-        <v>611</v>
+        <v>164</v>
       </c>
       <c r="M143" t="s">
-        <v>612</v>
+        <v>629</v>
       </c>
       <c r="N143">
-        <v>3333396551</v>
+        <v>3152863937</v>
       </c>
       <c r="Q143">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="R143">
-        <v>3333963551</v>
+        <v>3112213008</v>
       </c>
       <c r="S143">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="U143" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="V143" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="W143" t="s">
         <v>42</v>
@@ -15564,10 +15775,10 @@
         <v>632</v>
       </c>
       <c r="AB143">
-        <v>5000</v>
+        <v>2000</v>
       </c>
       <c r="AC143">
-        <v>3000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="144" spans="1:29" x14ac:dyDescent="0.25">
@@ -15578,7 +15789,7 @@
         <v>143</v>
       </c>
       <c r="C144" t="s">
-        <v>624</v>
+        <v>630</v>
       </c>
       <c r="D144" t="s">
         <v>625</v>
@@ -15589,9 +15800,7 @@
       <c r="F144" t="s">
         <v>125</v>
       </c>
-      <c r="G144" s="15" t="s">
-        <v>626</v>
-      </c>
+      <c r="G144" s="14"/>
       <c r="H144" s="13">
         <v>43542</v>
       </c>
@@ -15620,13 +15829,13 @@
         <v>3112213008</v>
       </c>
       <c r="S144">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="U144" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="V144" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="W144" t="s">
         <v>42</v>
@@ -15644,91 +15853,35 @@
         <v>632</v>
       </c>
       <c r="AB144">
+        <v>4000</v>
+      </c>
+      <c r="AC144">
         <v>2000</v>
       </c>
-      <c r="AC144">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="145" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A145">
-        <v>144</v>
-      </c>
-      <c r="B145">
-        <v>144</v>
-      </c>
-      <c r="C145" t="s">
-        <v>630</v>
-      </c>
-      <c r="D145" t="s">
-        <v>625</v>
-      </c>
-      <c r="E145">
-        <v>113</v>
-      </c>
-      <c r="F145" t="s">
-        <v>125</v>
-      </c>
+    </row>
+    <row r="145" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G145" s="14"/>
-      <c r="H145" s="13">
-        <v>43542</v>
-      </c>
-      <c r="I145">
-        <v>3112213008</v>
-      </c>
-      <c r="J145" t="s">
-        <v>628</v>
-      </c>
-      <c r="K145" t="s">
-        <v>627</v>
-      </c>
-      <c r="L145" t="s">
-        <v>164</v>
-      </c>
-      <c r="M145" t="s">
-        <v>629</v>
-      </c>
-      <c r="N145">
-        <v>3152863937</v>
-      </c>
-      <c r="Q145">
-        <v>22000</v>
-      </c>
-      <c r="R145">
-        <v>3112213008</v>
-      </c>
-      <c r="S145">
-        <v>144</v>
-      </c>
-      <c r="U145">
-        <v>145</v>
-      </c>
-      <c r="V145" t="s">
-        <v>15</v>
-      </c>
-      <c r="W145" t="s">
-        <v>42</v>
-      </c>
-      <c r="X145">
-        <v>3000</v>
-      </c>
-      <c r="Y145">
-        <v>2200</v>
-      </c>
-      <c r="Z145" t="s">
-        <v>130</v>
-      </c>
-      <c r="AA145" t="s">
-        <v>632</v>
-      </c>
-      <c r="AB145">
-        <v>4000</v>
-      </c>
-      <c r="AC145">
-        <v>2000</v>
-      </c>
+      <c r="H145" s="13"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="B1:B147 B150 B153:B1048576">
+    <cfRule type="duplicateValues" dxfId="5" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C1:C1048576">
+    <cfRule type="duplicateValues" dxfId="4" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D1:D1048576">
+    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E1:E1048576">
+    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G1:G1048576">
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I1:I1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA1:AA1048576" xr:uid="{2C0A92FC-1B99-4D90-A6A8-0C56A1D3B1D6}">
       <formula1>$AL$1:$AL$2</formula1>
